--- a/cuasinoides.xlsx
+++ b/cuasinoides.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="cuasinoides" sheetId="2" r:id="rId1"/>
     <sheet name="admetlab" sheetId="3" r:id="rId2"/>
-    <sheet name="swissadme" sheetId="4" r:id="rId3"/>
-    <sheet name="pkcsm" sheetId="5" r:id="rId4"/>
+    <sheet name="pkcsm" sheetId="5" r:id="rId3"/>
+    <sheet name="swissadme" sheetId="4" r:id="rId4"/>
     <sheet name="act_biologic" sheetId="7" r:id="rId5"/>
     <sheet name="Target" sheetId="8" r:id="rId6"/>
     <sheet name="protox" sheetId="9" r:id="rId7"/>
     <sheet name="Hoja1" sheetId="1" r:id="rId8"/>
+    <sheet name="Hoja2" sheetId="10" r:id="rId9"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4159" uniqueCount="714">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4213" uniqueCount="733">
   <si>
     <t>Eurycoma longifolia </t>
   </si>
@@ -2259,12 +2260,69 @@
   <si>
     <t>Solubilidad (mg/mL)</t>
   </si>
+  <si>
+    <t>OCT2 Probability:</t>
+  </si>
+  <si>
+    <t>------------------------------</t>
+  </si>
+  <si>
+    <t>Clearance Predictions:</t>
+  </si>
+  <si>
+    <t>Half-Life Probability:</t>
+  </si>
+  <si>
+    <t>Mean:</t>
+  </si>
+  <si>
+    <t>Sample</t>
+  </si>
+  <si>
+    <t>size</t>
+  </si>
+  <si>
+    <t>(n):</t>
+  </si>
+  <si>
+    <t>Median:</t>
+  </si>
+  <si>
+    <t>Standard</t>
+  </si>
+  <si>
+    <t>deviation:</t>
+  </si>
+  <si>
+    <t>Minimum:</t>
+  </si>
+  <si>
+    <t>25th</t>
+  </si>
+  <si>
+    <t>percentile:</t>
+  </si>
+  <si>
+    <t>75th</t>
+  </si>
+  <si>
+    <t>Maximum:</t>
+  </si>
+  <si>
+    <t>IQR:</t>
+  </si>
+  <si>
+    <t>Missing</t>
+  </si>
+  <si>
+    <t>values:</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2296,6 +2354,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2317,7 +2381,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2335,6 +2399,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2619,7 +2689,7 @@
   <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B25"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2918,8 +2988,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:DT25"/>
   <sheetViews>
-    <sheetView topLeftCell="N4" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:U25"/>
+    <sheetView topLeftCell="AR1" workbookViewId="0">
+      <selection activeCell="BD2" sqref="BD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12284,3825 +12354,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AX25"/>
-  <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:50" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E1" t="s">
-        <v>64</v>
-      </c>
-      <c r="F1" t="s">
-        <v>65</v>
-      </c>
-      <c r="G1" t="s">
-        <v>66</v>
-      </c>
-      <c r="H1" t="s">
-        <v>67</v>
-      </c>
-      <c r="I1" t="s">
-        <v>68</v>
-      </c>
-      <c r="J1" t="s">
-        <v>69</v>
-      </c>
-      <c r="K1" t="s">
-        <v>70</v>
-      </c>
-      <c r="L1" t="s">
-        <v>71</v>
-      </c>
-      <c r="M1" t="s">
-        <v>72</v>
-      </c>
-      <c r="N1" t="s">
-        <v>73</v>
-      </c>
-      <c r="O1" t="s">
-        <v>74</v>
-      </c>
-      <c r="P1" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>76</v>
-      </c>
-      <c r="R1" t="s">
-        <v>77</v>
-      </c>
-      <c r="S1" t="s">
-        <v>78</v>
-      </c>
-      <c r="T1" t="s">
-        <v>79</v>
-      </c>
-      <c r="U1" t="s">
-        <v>80</v>
-      </c>
-      <c r="V1" t="s">
-        <v>81</v>
-      </c>
-      <c r="W1" t="s">
-        <v>82</v>
-      </c>
-      <c r="X1" t="s">
-        <v>83</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>84</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>85</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>86</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>87</v>
-      </c>
-      <c r="AC1" s="7" t="s">
-        <v>713</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>88</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>89</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>90</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>91</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>93</v>
-      </c>
-      <c r="AJ1" t="s">
-        <v>94</v>
-      </c>
-      <c r="AK1" t="s">
-        <v>95</v>
-      </c>
-      <c r="AL1" t="s">
-        <v>96</v>
-      </c>
-      <c r="AM1" t="s">
-        <v>97</v>
-      </c>
-      <c r="AN1" t="s">
-        <v>98</v>
-      </c>
-      <c r="AO1" t="s">
-        <v>99</v>
-      </c>
-      <c r="AP1" t="s">
-        <v>100</v>
-      </c>
-      <c r="AQ1" t="s">
-        <v>101</v>
-      </c>
-      <c r="AR1" t="s">
-        <v>102</v>
-      </c>
-      <c r="AS1" t="s">
-        <v>103</v>
-      </c>
-      <c r="AT1" t="s">
-        <v>104</v>
-      </c>
-      <c r="AU1" t="s">
-        <v>105</v>
-      </c>
-      <c r="AV1" t="s">
-        <v>106</v>
-      </c>
-      <c r="AW1" t="s">
-        <v>107</v>
-      </c>
-      <c r="AX1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="2" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>115</v>
-      </c>
-      <c r="B2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C2" t="s">
-        <v>110</v>
-      </c>
-      <c r="D2">
-        <v>496.59</v>
-      </c>
-      <c r="E2">
-        <v>36</v>
-      </c>
-      <c r="F2">
-        <v>6</v>
-      </c>
-      <c r="G2">
-        <v>0.62</v>
-      </c>
-      <c r="H2">
-        <v>4</v>
-      </c>
-      <c r="I2">
-        <v>7</v>
-      </c>
-      <c r="J2">
-        <v>2</v>
-      </c>
-      <c r="K2">
-        <v>134.46</v>
-      </c>
-      <c r="L2">
-        <v>110.13</v>
-      </c>
-      <c r="M2">
-        <v>2.2400000000000002</v>
-      </c>
-      <c r="N2">
-        <v>3.68</v>
-      </c>
-      <c r="O2">
-        <v>3.45</v>
-      </c>
-      <c r="P2">
-        <v>2.17</v>
-      </c>
-      <c r="Q2">
-        <v>3.79</v>
-      </c>
-      <c r="R2">
-        <v>3.07</v>
-      </c>
-      <c r="S2">
-        <v>-5.0999999999999996</v>
-      </c>
-      <c r="T2" s="3">
-        <v>3.98E-3</v>
-      </c>
-      <c r="U2" s="3">
-        <v>8.0099999999999995E-6</v>
-      </c>
-      <c r="V2" t="s">
-        <v>111</v>
-      </c>
-      <c r="W2">
-        <v>-5.68</v>
-      </c>
-      <c r="X2" s="3">
-        <v>1.0300000000000001E-3</v>
-      </c>
-      <c r="Y2" s="3">
-        <v>2.08E-6</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>111</v>
-      </c>
-      <c r="AA2">
-        <v>-4.83</v>
-      </c>
-      <c r="AB2" s="3">
-        <v>7.2899999999999996E-3</v>
-      </c>
-      <c r="AC2" s="6">
-        <v>7.2899999999999996E-3</v>
-      </c>
-      <c r="AD2" s="3">
-        <v>1.47E-5</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>111</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>112</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>113</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>114</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>113</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>113</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>113</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>113</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>114</v>
-      </c>
-      <c r="AN2">
-        <v>-6.72</v>
-      </c>
-      <c r="AO2">
-        <v>0</v>
-      </c>
-      <c r="AP2">
-        <v>3</v>
-      </c>
-      <c r="AQ2">
-        <v>0</v>
-      </c>
-      <c r="AR2">
-        <v>0</v>
-      </c>
-      <c r="AS2">
-        <v>0</v>
-      </c>
-      <c r="AT2">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="AU2">
-        <v>0</v>
-      </c>
-      <c r="AV2">
-        <v>0</v>
-      </c>
-      <c r="AW2">
-        <v>2</v>
-      </c>
-      <c r="AX2">
-        <v>5.59</v>
-      </c>
-    </row>
-    <row r="3" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>119</v>
-      </c>
-      <c r="B3" t="s">
-        <v>116</v>
-      </c>
-      <c r="C3" t="s">
-        <v>117</v>
-      </c>
-      <c r="D3">
-        <v>364.43</v>
-      </c>
-      <c r="E3">
-        <v>26</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0.85</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>6</v>
-      </c>
-      <c r="J3">
-        <v>2</v>
-      </c>
-      <c r="K3">
-        <v>93.29</v>
-      </c>
-      <c r="L3">
-        <v>100.9</v>
-      </c>
-      <c r="M3">
-        <v>1.45</v>
-      </c>
-      <c r="N3">
-        <v>1.36</v>
-      </c>
-      <c r="O3">
-        <v>1.1200000000000001</v>
-      </c>
-      <c r="P3">
-        <v>1.1599999999999999</v>
-      </c>
-      <c r="Q3">
-        <v>1.62</v>
-      </c>
-      <c r="R3">
-        <v>1.34</v>
-      </c>
-      <c r="S3">
-        <v>-2.96</v>
-      </c>
-      <c r="T3" s="3">
-        <v>0.40300000000000002</v>
-      </c>
-      <c r="U3" s="3">
-        <v>1.1100000000000001E-3</v>
-      </c>
-      <c r="V3" t="s">
-        <v>118</v>
-      </c>
-      <c r="W3">
-        <v>-3.08</v>
-      </c>
-      <c r="X3" s="3">
-        <v>0.30199999999999999</v>
-      </c>
-      <c r="Y3" s="3">
-        <v>8.2899999999999998E-4</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>118</v>
-      </c>
-      <c r="AA3">
-        <v>-2.21</v>
-      </c>
-      <c r="AB3" s="3">
-        <v>2.27</v>
-      </c>
-      <c r="AC3" s="6">
-        <v>2.27</v>
-      </c>
-      <c r="AD3" s="3">
-        <v>6.2199999999999998E-3</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>118</v>
-      </c>
-      <c r="AF3" t="s">
-        <v>112</v>
-      </c>
-      <c r="AG3" t="s">
-        <v>113</v>
-      </c>
-      <c r="AH3" t="s">
-        <v>114</v>
-      </c>
-      <c r="AI3" t="s">
-        <v>113</v>
-      </c>
-      <c r="AJ3" t="s">
-        <v>113</v>
-      </c>
-      <c r="AK3" t="s">
-        <v>113</v>
-      </c>
-      <c r="AL3" t="s">
-        <v>113</v>
-      </c>
-      <c r="AM3" t="s">
-        <v>113</v>
-      </c>
-      <c r="AN3">
-        <v>-7.56</v>
-      </c>
-      <c r="AO3">
-        <v>0</v>
-      </c>
-      <c r="AP3">
-        <v>0</v>
-      </c>
-      <c r="AQ3">
-        <v>0</v>
-      </c>
-      <c r="AR3">
-        <v>0</v>
-      </c>
-      <c r="AS3">
-        <v>0</v>
-      </c>
-      <c r="AT3">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="AU3">
-        <v>0</v>
-      </c>
-      <c r="AV3">
-        <v>0</v>
-      </c>
-      <c r="AW3">
-        <v>1</v>
-      </c>
-      <c r="AX3">
-        <v>4.8600000000000003</v>
-      </c>
-    </row>
-    <row r="4" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>122</v>
-      </c>
-      <c r="B4" t="s">
-        <v>120</v>
-      </c>
-      <c r="C4" t="s">
-        <v>121</v>
-      </c>
-      <c r="D4">
-        <v>364.48</v>
-      </c>
-      <c r="E4">
-        <v>26</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0.9</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>5</v>
-      </c>
-      <c r="J4">
-        <v>2</v>
-      </c>
-      <c r="K4">
-        <v>97.89</v>
-      </c>
-      <c r="L4">
-        <v>83.83</v>
-      </c>
-      <c r="M4">
-        <v>1.8</v>
-      </c>
-      <c r="N4">
-        <v>2.38</v>
-      </c>
-      <c r="O4">
-        <v>2.1800000000000002</v>
-      </c>
-      <c r="P4">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="Q4">
-        <v>2.04</v>
-      </c>
-      <c r="R4">
-        <v>2.14</v>
-      </c>
-      <c r="S4">
-        <v>-3.6</v>
-      </c>
-      <c r="T4" s="3">
-        <v>9.1700000000000004E-2</v>
-      </c>
-      <c r="U4" s="3">
-        <v>2.52E-4</v>
-      </c>
-      <c r="V4" t="s">
-        <v>118</v>
-      </c>
-      <c r="W4">
-        <v>-3.78</v>
-      </c>
-      <c r="X4" s="3">
-        <v>6.0299999999999999E-2</v>
-      </c>
-      <c r="Y4" s="3">
-        <v>1.65E-4</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>118</v>
-      </c>
-      <c r="AA4">
-        <v>-2.4700000000000002</v>
-      </c>
-      <c r="AB4" s="3">
-        <v>1.22</v>
-      </c>
-      <c r="AC4" s="6">
-        <v>1.22</v>
-      </c>
-      <c r="AD4" s="3">
-        <v>3.3600000000000001E-3</v>
-      </c>
-      <c r="AE4" t="s">
-        <v>118</v>
-      </c>
-      <c r="AF4" t="s">
-        <v>112</v>
-      </c>
-      <c r="AG4" t="s">
-        <v>113</v>
-      </c>
-      <c r="AH4" t="s">
-        <v>114</v>
-      </c>
-      <c r="AI4" t="s">
-        <v>113</v>
-      </c>
-      <c r="AJ4" t="s">
-        <v>113</v>
-      </c>
-      <c r="AK4" t="s">
-        <v>113</v>
-      </c>
-      <c r="AL4" t="s">
-        <v>113</v>
-      </c>
-      <c r="AM4" t="s">
-        <v>113</v>
-      </c>
-      <c r="AN4">
-        <v>-6.83</v>
-      </c>
-      <c r="AO4">
-        <v>0</v>
-      </c>
-      <c r="AP4">
-        <v>0</v>
-      </c>
-      <c r="AQ4">
-        <v>0</v>
-      </c>
-      <c r="AR4">
-        <v>0</v>
-      </c>
-      <c r="AS4">
-        <v>0</v>
-      </c>
-      <c r="AT4">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="AU4">
-        <v>0</v>
-      </c>
-      <c r="AV4">
-        <v>0</v>
-      </c>
-      <c r="AW4">
-        <v>1</v>
-      </c>
-      <c r="AX4">
-        <v>4.92</v>
-      </c>
-    </row>
-    <row r="5" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>124</v>
-      </c>
-      <c r="B5" t="s">
-        <v>123</v>
-      </c>
-      <c r="C5" t="s">
-        <v>117</v>
-      </c>
-      <c r="D5">
-        <v>364.43</v>
-      </c>
-      <c r="E5">
-        <v>26</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0.8</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>6</v>
-      </c>
-      <c r="J5">
-        <v>3</v>
-      </c>
-      <c r="K5">
-        <v>94.18</v>
-      </c>
-      <c r="L5">
-        <v>104.06</v>
-      </c>
-      <c r="M5">
-        <v>2.3199999999999998</v>
-      </c>
-      <c r="N5">
-        <v>1.18</v>
-      </c>
-      <c r="O5">
-        <v>1.74</v>
-      </c>
-      <c r="P5">
-        <v>1.1599999999999999</v>
-      </c>
-      <c r="Q5">
-        <v>1.42</v>
-      </c>
-      <c r="R5">
-        <v>1.57</v>
-      </c>
-      <c r="S5">
-        <v>-2.84</v>
-      </c>
-      <c r="T5" s="3">
-        <v>0.52300000000000002</v>
-      </c>
-      <c r="U5" s="3">
-        <v>1.4400000000000001E-3</v>
-      </c>
-      <c r="V5" t="s">
-        <v>118</v>
-      </c>
-      <c r="W5">
-        <v>-2.96</v>
-      </c>
-      <c r="X5" s="3">
-        <v>0.39900000000000002</v>
-      </c>
-      <c r="Y5" s="3">
-        <v>1.09E-3</v>
-      </c>
-      <c r="Z5" t="s">
-        <v>118</v>
-      </c>
-      <c r="AA5">
-        <v>-1.94</v>
-      </c>
-      <c r="AB5" s="3">
-        <v>4.16</v>
-      </c>
-      <c r="AC5" s="6">
-        <v>4.16</v>
-      </c>
-      <c r="AD5" s="3">
-        <v>1.14E-2</v>
-      </c>
-      <c r="AE5" t="s">
-        <v>118</v>
-      </c>
-      <c r="AF5" t="s">
-        <v>112</v>
-      </c>
-      <c r="AG5" t="s">
-        <v>113</v>
-      </c>
-      <c r="AH5" t="s">
-        <v>114</v>
-      </c>
-      <c r="AI5" t="s">
-        <v>113</v>
-      </c>
-      <c r="AJ5" t="s">
-        <v>113</v>
-      </c>
-      <c r="AK5" t="s">
-        <v>113</v>
-      </c>
-      <c r="AL5" t="s">
-        <v>113</v>
-      </c>
-      <c r="AM5" t="s">
-        <v>113</v>
-      </c>
-      <c r="AN5">
-        <v>-7.69</v>
-      </c>
-      <c r="AO5">
-        <v>0</v>
-      </c>
-      <c r="AP5">
-        <v>0</v>
-      </c>
-      <c r="AQ5">
-        <v>0</v>
-      </c>
-      <c r="AR5">
-        <v>0</v>
-      </c>
-      <c r="AS5">
-        <v>0</v>
-      </c>
-      <c r="AT5">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="AU5">
-        <v>0</v>
-      </c>
-      <c r="AV5">
-        <v>0</v>
-      </c>
-      <c r="AW5">
-        <v>1</v>
-      </c>
-      <c r="AX5">
-        <v>5.31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>127</v>
-      </c>
-      <c r="B6" t="s">
-        <v>125</v>
-      </c>
-      <c r="C6" t="s">
-        <v>126</v>
-      </c>
-      <c r="D6">
-        <v>478.53</v>
-      </c>
-      <c r="E6">
-        <v>34</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0.8</v>
-      </c>
-      <c r="H6">
-        <v>4</v>
-      </c>
-      <c r="I6">
-        <v>9</v>
-      </c>
-      <c r="J6">
-        <v>3</v>
-      </c>
-      <c r="K6">
-        <v>118.1</v>
-      </c>
-      <c r="L6">
-        <v>139.59</v>
-      </c>
-      <c r="M6">
-        <v>2.39</v>
-      </c>
-      <c r="N6">
-        <v>0.93</v>
-      </c>
-      <c r="O6">
-        <v>0.73</v>
-      </c>
-      <c r="P6">
-        <v>1</v>
-      </c>
-      <c r="Q6">
-        <v>1.38</v>
-      </c>
-      <c r="R6">
-        <v>1.29</v>
-      </c>
-      <c r="S6">
-        <v>-3.13</v>
-      </c>
-      <c r="T6" s="3">
-        <v>0.35599999999999998</v>
-      </c>
-      <c r="U6" s="3">
-        <v>7.4299999999999995E-4</v>
-      </c>
-      <c r="V6" t="s">
-        <v>118</v>
-      </c>
-      <c r="W6">
-        <v>-3.45</v>
-      </c>
-      <c r="X6" s="3">
-        <v>0.17100000000000001</v>
-      </c>
-      <c r="Y6" s="3">
-        <v>3.57E-4</v>
-      </c>
-      <c r="Z6" t="s">
-        <v>118</v>
-      </c>
-      <c r="AA6">
-        <v>-1.92</v>
-      </c>
-      <c r="AB6" s="3">
-        <v>5.77</v>
-      </c>
-      <c r="AC6" s="6">
-        <v>5.77</v>
-      </c>
-      <c r="AD6" s="3">
-        <v>1.21E-2</v>
-      </c>
-      <c r="AE6" t="s">
-        <v>118</v>
-      </c>
-      <c r="AF6" t="s">
-        <v>112</v>
-      </c>
-      <c r="AG6" t="s">
-        <v>113</v>
-      </c>
-      <c r="AH6" t="s">
-        <v>114</v>
-      </c>
-      <c r="AI6" t="s">
-        <v>113</v>
-      </c>
-      <c r="AJ6" t="s">
-        <v>113</v>
-      </c>
-      <c r="AK6" t="s">
-        <v>113</v>
-      </c>
-      <c r="AL6" t="s">
-        <v>113</v>
-      </c>
-      <c r="AM6" t="s">
-        <v>113</v>
-      </c>
-      <c r="AN6">
-        <v>-8.56</v>
-      </c>
-      <c r="AO6">
-        <v>0</v>
-      </c>
-      <c r="AP6">
-        <v>0</v>
-      </c>
-      <c r="AQ6">
-        <v>0</v>
-      </c>
-      <c r="AR6">
-        <v>1</v>
-      </c>
-      <c r="AS6">
-        <v>0</v>
-      </c>
-      <c r="AT6">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="AU6">
-        <v>0</v>
-      </c>
-      <c r="AV6">
-        <v>1</v>
-      </c>
-      <c r="AW6">
-        <v>1</v>
-      </c>
-      <c r="AX6">
-        <v>6.57</v>
-      </c>
-    </row>
-    <row r="7" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>132</v>
-      </c>
-      <c r="B7" t="s">
-        <v>128</v>
-      </c>
-      <c r="C7" t="s">
-        <v>129</v>
-      </c>
-      <c r="D7">
-        <v>542.57000000000005</v>
-      </c>
-      <c r="E7">
-        <v>38</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0.88</v>
-      </c>
-      <c r="H7">
-        <v>3</v>
-      </c>
-      <c r="I7">
-        <v>12</v>
-      </c>
-      <c r="J7">
-        <v>7</v>
-      </c>
-      <c r="K7">
-        <v>126.13</v>
-      </c>
-      <c r="L7">
-        <v>195.6</v>
-      </c>
-      <c r="M7">
-        <v>1.85</v>
-      </c>
-      <c r="N7">
-        <v>-2.29</v>
-      </c>
-      <c r="O7">
-        <v>-2.2200000000000002</v>
-      </c>
-      <c r="P7">
-        <v>-1.3</v>
-      </c>
-      <c r="Q7">
-        <v>-1.95</v>
-      </c>
-      <c r="R7">
-        <v>-1.18</v>
-      </c>
-      <c r="S7">
-        <v>-1.56</v>
-      </c>
-      <c r="T7" s="3">
-        <v>14.8</v>
-      </c>
-      <c r="U7" s="3">
-        <v>2.7300000000000001E-2</v>
-      </c>
-      <c r="V7" t="s">
-        <v>130</v>
-      </c>
-      <c r="W7">
-        <v>-1.28</v>
-      </c>
-      <c r="X7" s="3">
-        <v>28.3</v>
-      </c>
-      <c r="Y7" s="3">
-        <v>5.2200000000000003E-2</v>
-      </c>
-      <c r="Z7" t="s">
-        <v>130</v>
-      </c>
-      <c r="AA7">
-        <v>1.1399999999999999</v>
-      </c>
-      <c r="AB7" s="3">
-        <v>7470</v>
-      </c>
-      <c r="AC7" s="6">
-        <v>7470</v>
-      </c>
-      <c r="AD7" s="3">
-        <v>13.8</v>
-      </c>
-      <c r="AE7" t="s">
-        <v>118</v>
-      </c>
-      <c r="AF7" t="s">
-        <v>131</v>
-      </c>
-      <c r="AG7" t="s">
-        <v>113</v>
-      </c>
-      <c r="AH7" t="s">
-        <v>113</v>
-      </c>
-      <c r="AI7" t="s">
-        <v>113</v>
-      </c>
-      <c r="AJ7" t="s">
-        <v>113</v>
-      </c>
-      <c r="AK7" t="s">
-        <v>113</v>
-      </c>
-      <c r="AL7" t="s">
-        <v>113</v>
-      </c>
-      <c r="AM7" t="s">
-        <v>113</v>
-      </c>
-      <c r="AN7">
-        <v>-11.24</v>
-      </c>
-      <c r="AO7">
-        <v>3</v>
-      </c>
-      <c r="AP7">
-        <v>3</v>
-      </c>
-      <c r="AQ7">
-        <v>1</v>
-      </c>
-      <c r="AR7">
-        <v>1</v>
-      </c>
-      <c r="AS7">
-        <v>4</v>
-      </c>
-      <c r="AT7">
-        <v>0.17</v>
-      </c>
-      <c r="AU7">
-        <v>0</v>
-      </c>
-      <c r="AV7">
-        <v>1</v>
-      </c>
-      <c r="AW7">
-        <v>1</v>
-      </c>
-      <c r="AX7">
-        <v>7.25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>135</v>
-      </c>
-      <c r="B8" t="s">
-        <v>133</v>
-      </c>
-      <c r="C8" t="s">
-        <v>134</v>
-      </c>
-      <c r="D8">
-        <v>558.57000000000005</v>
-      </c>
-      <c r="E8">
-        <v>39</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>0.88</v>
-      </c>
-      <c r="H8">
-        <v>3</v>
-      </c>
-      <c r="I8">
-        <v>13</v>
-      </c>
-      <c r="J8">
-        <v>8</v>
-      </c>
-      <c r="K8">
-        <v>127.29</v>
-      </c>
-      <c r="L8">
-        <v>215.83</v>
-      </c>
-      <c r="M8">
-        <v>1.87</v>
-      </c>
-      <c r="N8">
-        <v>-2.84</v>
-      </c>
-      <c r="O8">
-        <v>-3.25</v>
-      </c>
-      <c r="P8">
-        <v>-2.0499999999999998</v>
-      </c>
-      <c r="Q8">
-        <v>-2.83</v>
-      </c>
-      <c r="R8">
-        <v>-1.82</v>
-      </c>
-      <c r="S8">
-        <v>-1.32</v>
-      </c>
-      <c r="T8" s="3">
-        <v>27</v>
-      </c>
-      <c r="U8" s="3">
-        <v>4.8300000000000003E-2</v>
-      </c>
-      <c r="V8" t="s">
-        <v>130</v>
-      </c>
-      <c r="W8">
-        <v>-1.1399999999999999</v>
-      </c>
-      <c r="X8" s="3">
-        <v>40.799999999999997</v>
-      </c>
-      <c r="Y8" s="3">
-        <v>7.2999999999999995E-2</v>
-      </c>
-      <c r="Z8" t="s">
-        <v>130</v>
-      </c>
-      <c r="AA8">
-        <v>1.96</v>
-      </c>
-      <c r="AB8" s="3">
-        <v>51400</v>
-      </c>
-      <c r="AC8" s="6">
-        <v>51400</v>
-      </c>
-      <c r="AD8" s="3">
-        <v>92</v>
-      </c>
-      <c r="AE8" t="s">
-        <v>118</v>
-      </c>
-      <c r="AF8" t="s">
-        <v>131</v>
-      </c>
-      <c r="AG8" t="s">
-        <v>113</v>
-      </c>
-      <c r="AH8" t="s">
-        <v>113</v>
-      </c>
-      <c r="AI8" t="s">
-        <v>113</v>
-      </c>
-      <c r="AJ8" t="s">
-        <v>113</v>
-      </c>
-      <c r="AK8" t="s">
-        <v>113</v>
-      </c>
-      <c r="AL8" t="s">
-        <v>113</v>
-      </c>
-      <c r="AM8" t="s">
-        <v>113</v>
-      </c>
-      <c r="AN8">
-        <v>-11.72</v>
-      </c>
-      <c r="AO8">
-        <v>3</v>
-      </c>
-      <c r="AP8">
-        <v>3</v>
-      </c>
-      <c r="AQ8">
-        <v>1</v>
-      </c>
-      <c r="AR8">
-        <v>1</v>
-      </c>
-      <c r="AS8">
-        <v>4</v>
-      </c>
-      <c r="AT8">
-        <v>0.17</v>
-      </c>
-      <c r="AU8">
-        <v>0</v>
-      </c>
-      <c r="AV8">
-        <v>1</v>
-      </c>
-      <c r="AW8">
-        <v>1</v>
-      </c>
-      <c r="AX8">
-        <v>7.32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>137</v>
-      </c>
-      <c r="B9" t="s">
-        <v>136</v>
-      </c>
-      <c r="C9" t="s">
-        <v>129</v>
-      </c>
-      <c r="D9">
-        <v>542.57000000000005</v>
-      </c>
-      <c r="E9">
-        <v>38</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>0.88</v>
-      </c>
-      <c r="H9">
-        <v>3</v>
-      </c>
-      <c r="I9">
-        <v>12</v>
-      </c>
-      <c r="J9">
-        <v>7</v>
-      </c>
-      <c r="K9">
-        <v>126.13</v>
-      </c>
-      <c r="L9">
-        <v>195.6</v>
-      </c>
-      <c r="M9">
-        <v>1.93</v>
-      </c>
-      <c r="N9">
-        <v>-2.29</v>
-      </c>
-      <c r="O9">
-        <v>-2.2200000000000002</v>
-      </c>
-      <c r="P9">
-        <v>-1.71</v>
-      </c>
-      <c r="Q9">
-        <v>-1.95</v>
-      </c>
-      <c r="R9">
-        <v>-1.25</v>
-      </c>
-      <c r="S9">
-        <v>-1.56</v>
-      </c>
-      <c r="T9" s="3">
-        <v>14.8</v>
-      </c>
-      <c r="U9" s="3">
-        <v>2.7300000000000001E-2</v>
-      </c>
-      <c r="V9" t="s">
-        <v>130</v>
-      </c>
-      <c r="W9">
-        <v>-1.28</v>
-      </c>
-      <c r="X9" s="3">
-        <v>28.3</v>
-      </c>
-      <c r="Y9" s="3">
-        <v>5.2200000000000003E-2</v>
-      </c>
-      <c r="Z9" t="s">
-        <v>130</v>
-      </c>
-      <c r="AA9">
-        <v>1.1399999999999999</v>
-      </c>
-      <c r="AB9" s="3">
-        <v>7470</v>
-      </c>
-      <c r="AC9" s="6">
-        <v>7470</v>
-      </c>
-      <c r="AD9" s="3">
-        <v>13.8</v>
-      </c>
-      <c r="AE9" t="s">
-        <v>118</v>
-      </c>
-      <c r="AF9" t="s">
-        <v>131</v>
-      </c>
-      <c r="AG9" t="s">
-        <v>113</v>
-      </c>
-      <c r="AH9" t="s">
-        <v>113</v>
-      </c>
-      <c r="AI9" t="s">
-        <v>113</v>
-      </c>
-      <c r="AJ9" t="s">
-        <v>113</v>
-      </c>
-      <c r="AK9" t="s">
-        <v>113</v>
-      </c>
-      <c r="AL9" t="s">
-        <v>113</v>
-      </c>
-      <c r="AM9" t="s">
-        <v>113</v>
-      </c>
-      <c r="AN9">
-        <v>-11.24</v>
-      </c>
-      <c r="AO9">
-        <v>3</v>
-      </c>
-      <c r="AP9">
-        <v>3</v>
-      </c>
-      <c r="AQ9">
-        <v>1</v>
-      </c>
-      <c r="AR9">
-        <v>1</v>
-      </c>
-      <c r="AS9">
-        <v>4</v>
-      </c>
-      <c r="AT9">
-        <v>0.17</v>
-      </c>
-      <c r="AU9">
-        <v>0</v>
-      </c>
-      <c r="AV9">
-        <v>1</v>
-      </c>
-      <c r="AW9">
-        <v>1</v>
-      </c>
-      <c r="AX9">
-        <v>7.07</v>
-      </c>
-    </row>
-    <row r="10" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>139</v>
-      </c>
-      <c r="B10" t="s">
-        <v>138</v>
-      </c>
-      <c r="C10" t="s">
-        <v>117</v>
-      </c>
-      <c r="D10">
-        <v>364.43</v>
-      </c>
-      <c r="E10">
-        <v>26</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>0.85</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>6</v>
-      </c>
-      <c r="J10">
-        <v>2</v>
-      </c>
-      <c r="K10">
-        <v>93.29</v>
-      </c>
-      <c r="L10">
-        <v>100.9</v>
-      </c>
-      <c r="M10">
-        <v>1.93</v>
-      </c>
-      <c r="N10">
-        <v>1.27</v>
-      </c>
-      <c r="O10">
-        <v>1.1200000000000001</v>
-      </c>
-      <c r="P10">
-        <v>1.1599999999999999</v>
-      </c>
-      <c r="Q10">
-        <v>1.62</v>
-      </c>
-      <c r="R10">
-        <v>1.42</v>
-      </c>
-      <c r="S10">
-        <v>-2.9</v>
-      </c>
-      <c r="T10" s="3">
-        <v>0.45900000000000002</v>
-      </c>
-      <c r="U10" s="3">
-        <v>1.2600000000000001E-3</v>
-      </c>
-      <c r="V10" t="s">
-        <v>118</v>
-      </c>
-      <c r="W10">
-        <v>-2.99</v>
-      </c>
-      <c r="X10" s="3">
-        <v>0.375</v>
-      </c>
-      <c r="Y10" s="3">
-        <v>1.0300000000000001E-3</v>
-      </c>
-      <c r="Z10" t="s">
-        <v>118</v>
-      </c>
-      <c r="AA10">
-        <v>-2.21</v>
-      </c>
-      <c r="AB10" s="3">
-        <v>2.27</v>
-      </c>
-      <c r="AC10" s="6">
-        <v>2.27</v>
-      </c>
-      <c r="AD10" s="3">
-        <v>6.2199999999999998E-3</v>
-      </c>
-      <c r="AE10" t="s">
-        <v>118</v>
-      </c>
-      <c r="AF10" t="s">
-        <v>112</v>
-      </c>
-      <c r="AG10" t="s">
-        <v>113</v>
-      </c>
-      <c r="AH10" t="s">
-        <v>114</v>
-      </c>
-      <c r="AI10" t="s">
-        <v>113</v>
-      </c>
-      <c r="AJ10" t="s">
-        <v>113</v>
-      </c>
-      <c r="AK10" t="s">
-        <v>113</v>
-      </c>
-      <c r="AL10" t="s">
-        <v>113</v>
-      </c>
-      <c r="AM10" t="s">
-        <v>113</v>
-      </c>
-      <c r="AN10">
-        <v>-7.62</v>
-      </c>
-      <c r="AO10">
-        <v>0</v>
-      </c>
-      <c r="AP10">
-        <v>0</v>
-      </c>
-      <c r="AQ10">
-        <v>0</v>
-      </c>
-      <c r="AR10">
-        <v>0</v>
-      </c>
-      <c r="AS10">
-        <v>0</v>
-      </c>
-      <c r="AT10">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="AU10">
-        <v>0</v>
-      </c>
-      <c r="AV10">
-        <v>0</v>
-      </c>
-      <c r="AW10">
-        <v>1</v>
-      </c>
-      <c r="AX10">
-        <v>4.72</v>
-      </c>
-    </row>
-    <row r="11" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>142</v>
-      </c>
-      <c r="B11" t="s">
-        <v>140</v>
-      </c>
-      <c r="C11" t="s">
-        <v>141</v>
-      </c>
-      <c r="D11">
-        <v>380.43</v>
-      </c>
-      <c r="E11">
-        <v>27</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <v>0.85</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>7</v>
-      </c>
-      <c r="J11">
-        <v>4</v>
-      </c>
-      <c r="K11">
-        <v>93.75</v>
-      </c>
-      <c r="L11">
-        <v>116.45</v>
-      </c>
-      <c r="M11">
-        <v>1.77</v>
-      </c>
-      <c r="N11">
-        <v>-0.69</v>
-      </c>
-      <c r="O11">
-        <v>-0.04</v>
-      </c>
-      <c r="P11">
-        <v>0.87</v>
-      </c>
-      <c r="Q11">
-        <v>0.16</v>
-      </c>
-      <c r="R11">
-        <v>0.41</v>
-      </c>
-      <c r="S11">
-        <v>-1.76</v>
-      </c>
-      <c r="T11" s="3">
-        <v>6.55</v>
-      </c>
-      <c r="U11" s="3">
-        <v>1.72E-2</v>
-      </c>
-      <c r="V11" t="s">
-        <v>130</v>
-      </c>
-      <c r="W11">
-        <v>-1.28</v>
-      </c>
-      <c r="X11" s="3">
-        <v>19.899999999999999</v>
-      </c>
-      <c r="Y11" s="3">
-        <v>5.2400000000000002E-2</v>
-      </c>
-      <c r="Z11" t="s">
-        <v>130</v>
-      </c>
-      <c r="AA11">
-        <v>-0.63</v>
-      </c>
-      <c r="AB11" s="3">
-        <v>89</v>
-      </c>
-      <c r="AC11" s="6">
-        <v>89</v>
-      </c>
-      <c r="AD11" s="3">
-        <v>0.23400000000000001</v>
-      </c>
-      <c r="AE11" t="s">
-        <v>118</v>
-      </c>
-      <c r="AF11" t="s">
-        <v>112</v>
-      </c>
-      <c r="AG11" t="s">
-        <v>113</v>
-      </c>
-      <c r="AH11" t="s">
-        <v>114</v>
-      </c>
-      <c r="AI11" t="s">
-        <v>113</v>
-      </c>
-      <c r="AJ11" t="s">
-        <v>113</v>
-      </c>
-      <c r="AK11" t="s">
-        <v>113</v>
-      </c>
-      <c r="AL11" t="s">
-        <v>113</v>
-      </c>
-      <c r="AM11" t="s">
-        <v>113</v>
-      </c>
-      <c r="AN11">
-        <v>-9.11</v>
-      </c>
-      <c r="AO11">
-        <v>0</v>
-      </c>
-      <c r="AP11">
-        <v>0</v>
-      </c>
-      <c r="AQ11">
-        <v>0</v>
-      </c>
-      <c r="AR11">
-        <v>0</v>
-      </c>
-      <c r="AS11">
-        <v>0</v>
-      </c>
-      <c r="AT11">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="AU11">
-        <v>0</v>
-      </c>
-      <c r="AV11">
-        <v>1</v>
-      </c>
-      <c r="AW11">
-        <v>1</v>
-      </c>
-      <c r="AX11">
-        <v>6.02</v>
-      </c>
-    </row>
-    <row r="12" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>145</v>
-      </c>
-      <c r="B12" t="s">
-        <v>143</v>
-      </c>
-      <c r="C12" t="s">
-        <v>144</v>
-      </c>
-      <c r="D12">
-        <v>378.42</v>
-      </c>
-      <c r="E12">
-        <v>27</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <v>0.8</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>7</v>
-      </c>
-      <c r="J12">
-        <v>3</v>
-      </c>
-      <c r="K12">
-        <v>92.78</v>
-      </c>
-      <c r="L12">
-        <v>113.29</v>
-      </c>
-      <c r="M12">
-        <v>1.7</v>
-      </c>
-      <c r="N12">
-        <v>-0.36</v>
-      </c>
-      <c r="O12">
-        <v>0.17</v>
-      </c>
-      <c r="P12">
-        <v>0.77</v>
-      </c>
-      <c r="Q12">
-        <v>0.75</v>
-      </c>
-      <c r="R12">
-        <v>0.61</v>
-      </c>
-      <c r="S12">
-        <v>-1.96</v>
-      </c>
-      <c r="T12" s="3">
-        <v>4.16</v>
-      </c>
-      <c r="U12" s="3">
-        <v>1.0999999999999999E-2</v>
-      </c>
-      <c r="V12" t="s">
-        <v>130</v>
-      </c>
-      <c r="W12">
-        <v>-1.56</v>
-      </c>
-      <c r="X12" s="3">
-        <v>10.5</v>
-      </c>
-      <c r="Y12" s="3">
-        <v>2.7799999999999998E-2</v>
-      </c>
-      <c r="Z12" t="s">
-        <v>130</v>
-      </c>
-      <c r="AA12">
-        <v>-1.33</v>
-      </c>
-      <c r="AB12" s="3">
-        <v>17.8</v>
-      </c>
-      <c r="AC12" s="6">
-        <v>17.8</v>
-      </c>
-      <c r="AD12" s="3">
-        <v>4.7100000000000003E-2</v>
-      </c>
-      <c r="AE12" t="s">
-        <v>118</v>
-      </c>
-      <c r="AF12" t="s">
-        <v>112</v>
-      </c>
-      <c r="AG12" t="s">
-        <v>113</v>
-      </c>
-      <c r="AH12" t="s">
-        <v>114</v>
-      </c>
-      <c r="AI12" t="s">
-        <v>113</v>
-      </c>
-      <c r="AJ12" t="s">
-        <v>113</v>
-      </c>
-      <c r="AK12" t="s">
-        <v>113</v>
-      </c>
-      <c r="AL12" t="s">
-        <v>113</v>
-      </c>
-      <c r="AM12" t="s">
-        <v>113</v>
-      </c>
-      <c r="AN12">
-        <v>-8.86</v>
-      </c>
-      <c r="AO12">
-        <v>0</v>
-      </c>
-      <c r="AP12">
-        <v>0</v>
-      </c>
-      <c r="AQ12">
-        <v>0</v>
-      </c>
-      <c r="AR12">
-        <v>0</v>
-      </c>
-      <c r="AS12">
-        <v>0</v>
-      </c>
-      <c r="AT12">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="AU12">
-        <v>0</v>
-      </c>
-      <c r="AV12">
-        <v>0</v>
-      </c>
-      <c r="AW12">
-        <v>1</v>
-      </c>
-      <c r="AX12">
-        <v>5.91</v>
-      </c>
-    </row>
-    <row r="13" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>148</v>
-      </c>
-      <c r="B13" t="s">
-        <v>146</v>
-      </c>
-      <c r="C13" t="s">
-        <v>147</v>
-      </c>
-      <c r="D13">
-        <v>366.45</v>
-      </c>
-      <c r="E13">
-        <v>26</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <v>0.9</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>6</v>
-      </c>
-      <c r="J13">
-        <v>3</v>
-      </c>
-      <c r="K13">
-        <v>94.25</v>
-      </c>
-      <c r="L13">
-        <v>104.06</v>
-      </c>
-      <c r="M13">
-        <v>1.78</v>
-      </c>
-      <c r="N13">
-        <v>1.26</v>
-      </c>
-      <c r="O13">
-        <v>0.91</v>
-      </c>
-      <c r="P13">
-        <v>1.26</v>
-      </c>
-      <c r="Q13">
-        <v>1.03</v>
-      </c>
-      <c r="R13">
-        <v>1.25</v>
-      </c>
-      <c r="S13">
-        <v>-2.91</v>
-      </c>
-      <c r="T13" s="3">
-        <v>0.45500000000000002</v>
-      </c>
-      <c r="U13" s="3">
-        <v>1.24E-3</v>
-      </c>
-      <c r="V13" t="s">
-        <v>118</v>
-      </c>
-      <c r="W13">
-        <v>-3.04</v>
-      </c>
-      <c r="X13" s="3">
-        <v>0.33100000000000002</v>
-      </c>
-      <c r="Y13" s="3">
-        <v>9.0399999999999996E-4</v>
-      </c>
-      <c r="Z13" t="s">
-        <v>118</v>
-      </c>
-      <c r="AA13">
-        <v>-1.51</v>
-      </c>
-      <c r="AB13" s="3">
-        <v>11.3</v>
-      </c>
-      <c r="AC13" s="6">
-        <v>11.3</v>
-      </c>
-      <c r="AD13" s="3">
-        <v>3.09E-2</v>
-      </c>
-      <c r="AE13" t="s">
-        <v>118</v>
-      </c>
-      <c r="AF13" t="s">
-        <v>112</v>
-      </c>
-      <c r="AG13" t="s">
-        <v>113</v>
-      </c>
-      <c r="AH13" t="s">
-        <v>114</v>
-      </c>
-      <c r="AI13" t="s">
-        <v>113</v>
-      </c>
-      <c r="AJ13" t="s">
-        <v>113</v>
-      </c>
-      <c r="AK13" t="s">
-        <v>113</v>
-      </c>
-      <c r="AL13" t="s">
-        <v>113</v>
-      </c>
-      <c r="AM13" t="s">
-        <v>113</v>
-      </c>
-      <c r="AN13">
-        <v>-7.64</v>
-      </c>
-      <c r="AO13">
-        <v>0</v>
-      </c>
-      <c r="AP13">
-        <v>0</v>
-      </c>
-      <c r="AQ13">
-        <v>0</v>
-      </c>
-      <c r="AR13">
-        <v>0</v>
-      </c>
-      <c r="AS13">
-        <v>0</v>
-      </c>
-      <c r="AT13">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="AU13">
-        <v>0</v>
-      </c>
-      <c r="AV13">
-        <v>0</v>
-      </c>
-      <c r="AW13">
-        <v>1</v>
-      </c>
-      <c r="AX13">
-        <v>4.8600000000000003</v>
-      </c>
-    </row>
-    <row r="14" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>151</v>
-      </c>
-      <c r="B14" t="s">
-        <v>149</v>
-      </c>
-      <c r="C14" t="s">
-        <v>150</v>
-      </c>
-      <c r="D14">
-        <v>494.53</v>
-      </c>
-      <c r="E14">
-        <v>35</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14">
-        <v>0.8</v>
-      </c>
-      <c r="H14">
-        <v>4</v>
-      </c>
-      <c r="I14">
-        <v>10</v>
-      </c>
-      <c r="J14">
-        <v>4</v>
-      </c>
-      <c r="K14">
-        <v>119.3</v>
-      </c>
-      <c r="L14">
-        <v>159.82</v>
-      </c>
-      <c r="M14">
-        <v>1.54</v>
-      </c>
-      <c r="N14">
-        <v>0.13</v>
-      </c>
-      <c r="O14">
-        <v>-0.15</v>
-      </c>
-      <c r="P14">
-        <v>0.23</v>
-      </c>
-      <c r="Q14">
-        <v>0.63</v>
-      </c>
-      <c r="R14">
-        <v>0.48</v>
-      </c>
-      <c r="S14">
-        <v>-2.72</v>
-      </c>
-      <c r="T14" s="3">
-        <v>0.93400000000000005</v>
-      </c>
-      <c r="U14" s="3">
-        <v>1.89E-3</v>
-      </c>
-      <c r="V14" t="s">
-        <v>118</v>
-      </c>
-      <c r="W14">
-        <v>-3.04</v>
-      </c>
-      <c r="X14" s="3">
-        <v>0.44900000000000001</v>
-      </c>
-      <c r="Y14" s="3">
-        <v>9.0700000000000004E-4</v>
-      </c>
-      <c r="Z14" t="s">
-        <v>118</v>
-      </c>
-      <c r="AA14">
-        <v>-1.33</v>
-      </c>
-      <c r="AB14" s="3">
-        <v>23.3</v>
-      </c>
-      <c r="AC14" s="6">
-        <v>23.3</v>
-      </c>
-      <c r="AD14" s="3">
-        <v>4.7100000000000003E-2</v>
-      </c>
-      <c r="AE14" t="s">
-        <v>118</v>
-      </c>
-      <c r="AF14" t="s">
-        <v>131</v>
-      </c>
-      <c r="AG14" t="s">
-        <v>113</v>
-      </c>
-      <c r="AH14" t="s">
-        <v>114</v>
-      </c>
-      <c r="AI14" t="s">
-        <v>113</v>
-      </c>
-      <c r="AJ14" t="s">
-        <v>113</v>
-      </c>
-      <c r="AK14" t="s">
-        <v>113</v>
-      </c>
-      <c r="AL14" t="s">
-        <v>113</v>
-      </c>
-      <c r="AM14" t="s">
-        <v>113</v>
-      </c>
-      <c r="AN14">
-        <v>-9.2200000000000006</v>
-      </c>
-      <c r="AO14">
-        <v>0</v>
-      </c>
-      <c r="AP14">
-        <v>1</v>
-      </c>
-      <c r="AQ14">
-        <v>1</v>
-      </c>
-      <c r="AR14">
-        <v>1</v>
-      </c>
-      <c r="AS14">
-        <v>1</v>
-      </c>
-      <c r="AT14">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="AU14">
-        <v>0</v>
-      </c>
-      <c r="AV14">
-        <v>1</v>
-      </c>
-      <c r="AW14">
-        <v>1</v>
-      </c>
-      <c r="AX14">
-        <v>6.7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>154</v>
-      </c>
-      <c r="B15" t="s">
-        <v>152</v>
-      </c>
-      <c r="C15" t="s">
-        <v>153</v>
-      </c>
-      <c r="D15">
-        <v>396.43</v>
-      </c>
-      <c r="E15">
-        <v>28</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-      <c r="G15">
-        <v>0.85</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <v>8</v>
-      </c>
-      <c r="J15">
-        <v>5</v>
-      </c>
-      <c r="K15">
-        <v>94.91</v>
-      </c>
-      <c r="L15">
-        <v>136.68</v>
-      </c>
-      <c r="M15">
-        <v>1.57</v>
-      </c>
-      <c r="N15">
-        <v>-1.24</v>
-      </c>
-      <c r="O15">
-        <v>-1.07</v>
-      </c>
-      <c r="P15">
-        <v>0.08</v>
-      </c>
-      <c r="Q15">
-        <v>-0.73</v>
-      </c>
-      <c r="R15">
-        <v>-0.28000000000000003</v>
-      </c>
-      <c r="S15">
-        <v>-1.52</v>
-      </c>
-      <c r="T15" s="3">
-        <v>12.1</v>
-      </c>
-      <c r="U15" s="3">
-        <v>3.04E-2</v>
-      </c>
-      <c r="V15" t="s">
-        <v>130</v>
-      </c>
-      <c r="W15">
-        <v>-1.1299999999999999</v>
-      </c>
-      <c r="X15" s="3">
-        <v>29.1</v>
-      </c>
-      <c r="Y15" s="3">
-        <v>7.3300000000000004E-2</v>
-      </c>
-      <c r="Z15" t="s">
-        <v>130</v>
-      </c>
-      <c r="AA15">
-        <v>0.19</v>
-      </c>
-      <c r="AB15" s="3">
-        <v>610</v>
-      </c>
-      <c r="AC15" s="6">
-        <v>610</v>
-      </c>
-      <c r="AD15" s="3">
-        <v>1.54</v>
-      </c>
-      <c r="AE15" t="s">
-        <v>118</v>
-      </c>
-      <c r="AF15" t="s">
-        <v>131</v>
-      </c>
-      <c r="AG15" t="s">
-        <v>113</v>
-      </c>
-      <c r="AH15" t="s">
-        <v>114</v>
-      </c>
-      <c r="AI15" t="s">
-        <v>113</v>
-      </c>
-      <c r="AJ15" t="s">
-        <v>113</v>
-      </c>
-      <c r="AK15" t="s">
-        <v>113</v>
-      </c>
-      <c r="AL15" t="s">
-        <v>113</v>
-      </c>
-      <c r="AM15" t="s">
-        <v>113</v>
-      </c>
-      <c r="AN15">
-        <v>-9.6</v>
-      </c>
-      <c r="AO15">
-        <v>0</v>
-      </c>
-      <c r="AP15">
-        <v>1</v>
-      </c>
-      <c r="AQ15">
-        <v>0</v>
-      </c>
-      <c r="AR15">
-        <v>1</v>
-      </c>
-      <c r="AS15">
-        <v>0</v>
-      </c>
-      <c r="AT15">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="AU15">
-        <v>0</v>
-      </c>
-      <c r="AV15">
-        <v>1</v>
-      </c>
-      <c r="AW15">
-        <v>1</v>
-      </c>
-      <c r="AX15">
-        <v>6.11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>157</v>
-      </c>
-      <c r="B16" t="s">
-        <v>155</v>
-      </c>
-      <c r="C16" t="s">
-        <v>156</v>
-      </c>
-      <c r="D16">
-        <v>394.42</v>
-      </c>
-      <c r="E16">
-        <v>28</v>
-      </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-      <c r="G16">
-        <v>0.8</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16">
-        <v>8</v>
-      </c>
-      <c r="J16">
-        <v>4</v>
-      </c>
-      <c r="K16">
-        <v>93.95</v>
-      </c>
-      <c r="L16">
-        <v>133.52000000000001</v>
-      </c>
-      <c r="M16">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="N16">
-        <v>-0.91</v>
-      </c>
-      <c r="O16">
-        <v>-0.86</v>
-      </c>
-      <c r="P16">
-        <v>-0.02</v>
-      </c>
-      <c r="Q16">
-        <v>-0.14000000000000001</v>
-      </c>
-      <c r="R16">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="S16">
-        <v>-1.71</v>
-      </c>
-      <c r="T16" s="3">
-        <v>7.65</v>
-      </c>
-      <c r="U16" s="3">
-        <v>1.9400000000000001E-2</v>
-      </c>
-      <c r="V16" t="s">
-        <v>130</v>
-      </c>
-      <c r="W16">
-        <v>-1.41</v>
-      </c>
-      <c r="X16" s="3">
-        <v>15.3</v>
-      </c>
-      <c r="Y16" s="3">
-        <v>3.8800000000000001E-2</v>
-      </c>
-      <c r="Z16" t="s">
-        <v>130</v>
-      </c>
-      <c r="AA16">
-        <v>-0.51</v>
-      </c>
-      <c r="AB16" s="3">
-        <v>122</v>
-      </c>
-      <c r="AC16" s="6">
-        <v>122</v>
-      </c>
-      <c r="AD16" s="3">
-        <v>0.31</v>
-      </c>
-      <c r="AE16" t="s">
-        <v>118</v>
-      </c>
-      <c r="AF16" t="s">
-        <v>112</v>
-      </c>
-      <c r="AG16" t="s">
-        <v>113</v>
-      </c>
-      <c r="AH16" t="s">
-        <v>114</v>
-      </c>
-      <c r="AI16" t="s">
-        <v>113</v>
-      </c>
-      <c r="AJ16" t="s">
-        <v>113</v>
-      </c>
-      <c r="AK16" t="s">
-        <v>113</v>
-      </c>
-      <c r="AL16" t="s">
-        <v>113</v>
-      </c>
-      <c r="AM16" t="s">
-        <v>113</v>
-      </c>
-      <c r="AN16">
-        <v>-9.35</v>
-      </c>
-      <c r="AO16">
-        <v>0</v>
-      </c>
-      <c r="AP16">
-        <v>1</v>
-      </c>
-      <c r="AQ16">
-        <v>0</v>
-      </c>
-      <c r="AR16">
-        <v>1</v>
-      </c>
-      <c r="AS16">
-        <v>0</v>
-      </c>
-      <c r="AT16">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="AU16">
-        <v>0</v>
-      </c>
-      <c r="AV16">
-        <v>0</v>
-      </c>
-      <c r="AW16">
-        <v>1</v>
-      </c>
-      <c r="AX16">
-        <v>6.01</v>
-      </c>
-    </row>
-    <row r="17" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>160</v>
-      </c>
-      <c r="B17" t="s">
-        <v>158</v>
-      </c>
-      <c r="C17" t="s">
-        <v>159</v>
-      </c>
-      <c r="D17">
-        <v>450.48</v>
-      </c>
-      <c r="E17">
-        <v>32</v>
-      </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
-      <c r="G17">
-        <v>0.78</v>
-      </c>
-      <c r="H17">
-        <v>2</v>
-      </c>
-      <c r="I17">
-        <v>9</v>
-      </c>
-      <c r="J17">
-        <v>3</v>
-      </c>
-      <c r="K17">
-        <v>108.23</v>
-      </c>
-      <c r="L17">
-        <v>139.59</v>
-      </c>
-      <c r="M17">
-        <v>0.92</v>
-      </c>
-      <c r="N17">
-        <v>0.06</v>
-      </c>
-      <c r="O17">
-        <v>0.1</v>
-      </c>
-      <c r="P17">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="Q17">
-        <v>0.85</v>
-      </c>
-      <c r="R17">
-        <v>0.5</v>
-      </c>
-      <c r="S17">
-        <v>-2.54</v>
-      </c>
-      <c r="T17" s="3">
-        <v>1.3</v>
-      </c>
-      <c r="U17" s="3">
-        <v>2.8900000000000002E-3</v>
-      </c>
-      <c r="V17" t="s">
-        <v>118</v>
-      </c>
-      <c r="W17">
-        <v>-2.54</v>
-      </c>
-      <c r="X17" s="3">
-        <v>1.28</v>
-      </c>
-      <c r="Y17" s="3">
-        <v>2.8500000000000001E-3</v>
-      </c>
-      <c r="Z17" t="s">
-        <v>118</v>
-      </c>
-      <c r="AA17">
-        <v>-1.71</v>
-      </c>
-      <c r="AB17" s="3">
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="AC17" s="6">
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="AD17" s="3">
-        <v>1.9300000000000001E-2</v>
-      </c>
-      <c r="AE17" t="s">
-        <v>118</v>
-      </c>
-      <c r="AF17" t="s">
-        <v>112</v>
-      </c>
-      <c r="AG17" t="s">
-        <v>113</v>
-      </c>
-      <c r="AH17" t="s">
-        <v>114</v>
-      </c>
-      <c r="AI17" t="s">
-        <v>113</v>
-      </c>
-      <c r="AJ17" t="s">
-        <v>113</v>
-      </c>
-      <c r="AK17" t="s">
-        <v>113</v>
-      </c>
-      <c r="AL17" t="s">
-        <v>113</v>
-      </c>
-      <c r="AM17" t="s">
-        <v>113</v>
-      </c>
-      <c r="AN17">
-        <v>-9.01</v>
-      </c>
-      <c r="AO17">
-        <v>0</v>
-      </c>
-      <c r="AP17">
-        <v>0</v>
-      </c>
-      <c r="AQ17">
-        <v>0</v>
-      </c>
-      <c r="AR17">
-        <v>1</v>
-      </c>
-      <c r="AS17">
-        <v>0</v>
-      </c>
-      <c r="AT17">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="AU17">
-        <v>0</v>
-      </c>
-      <c r="AV17">
-        <v>1</v>
-      </c>
-      <c r="AW17">
-        <v>1</v>
-      </c>
-      <c r="AX17">
-        <v>6.33</v>
-      </c>
-    </row>
-    <row r="18" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>163</v>
-      </c>
-      <c r="B18" t="s">
-        <v>161</v>
-      </c>
-      <c r="C18" t="s">
-        <v>162</v>
-      </c>
-      <c r="D18">
-        <v>536.61</v>
-      </c>
-      <c r="E18">
-        <v>38</v>
-      </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
-      <c r="G18">
-        <v>0.82</v>
-      </c>
-      <c r="H18">
-        <v>6</v>
-      </c>
-      <c r="I18">
-        <v>10</v>
-      </c>
-      <c r="J18">
-        <v>4</v>
-      </c>
-      <c r="K18">
-        <v>133.72</v>
-      </c>
-      <c r="L18">
-        <v>159.82</v>
-      </c>
-      <c r="M18">
-        <v>2.65</v>
-      </c>
-      <c r="N18">
-        <v>1.02</v>
-      </c>
-      <c r="O18">
-        <v>0.88</v>
-      </c>
-      <c r="P18">
-        <v>0.84</v>
-      </c>
-      <c r="Q18">
-        <v>1.69</v>
-      </c>
-      <c r="R18">
-        <v>1.41</v>
-      </c>
-      <c r="S18">
-        <v>-3.41</v>
-      </c>
-      <c r="T18" s="3">
-        <v>0.20699999999999999</v>
-      </c>
-      <c r="U18" s="3">
-        <v>3.86E-4</v>
-      </c>
-      <c r="V18" t="s">
-        <v>118</v>
-      </c>
-      <c r="W18">
-        <v>-3.97</v>
-      </c>
-      <c r="X18" s="3">
-        <v>5.8000000000000003E-2</v>
-      </c>
-      <c r="Y18" s="3">
-        <v>1.08E-4</v>
-      </c>
-      <c r="Z18" t="s">
-        <v>118</v>
-      </c>
-      <c r="AA18">
-        <v>-2.12</v>
-      </c>
-      <c r="AB18" s="3">
-        <v>4.09</v>
-      </c>
-      <c r="AC18" s="6">
-        <v>4.09</v>
-      </c>
-      <c r="AD18" s="3">
-        <v>7.62E-3</v>
-      </c>
-      <c r="AE18" t="s">
-        <v>118</v>
-      </c>
-      <c r="AF18" t="s">
-        <v>131</v>
-      </c>
-      <c r="AG18" t="s">
-        <v>113</v>
-      </c>
-      <c r="AH18" t="s">
-        <v>114</v>
-      </c>
-      <c r="AI18" t="s">
-        <v>113</v>
-      </c>
-      <c r="AJ18" t="s">
-        <v>113</v>
-      </c>
-      <c r="AK18" t="s">
-        <v>113</v>
-      </c>
-      <c r="AL18" t="s">
-        <v>113</v>
-      </c>
-      <c r="AM18" t="s">
-        <v>114</v>
-      </c>
-      <c r="AN18">
-        <v>-8.85</v>
-      </c>
-      <c r="AO18">
-        <v>1</v>
-      </c>
-      <c r="AP18">
-        <v>3</v>
-      </c>
-      <c r="AQ18">
-        <v>1</v>
-      </c>
-      <c r="AR18">
-        <v>1</v>
-      </c>
-      <c r="AS18">
-        <v>1</v>
-      </c>
-      <c r="AT18">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="AU18">
-        <v>0</v>
-      </c>
-      <c r="AV18">
-        <v>1</v>
-      </c>
-      <c r="AW18">
-        <v>1</v>
-      </c>
-      <c r="AX18">
-        <v>7.04</v>
-      </c>
-    </row>
-    <row r="19" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>712</v>
-      </c>
-      <c r="B19" t="s">
-        <v>164</v>
-      </c>
-      <c r="C19" t="s">
-        <v>156</v>
-      </c>
-      <c r="D19">
-        <v>394.42</v>
-      </c>
-      <c r="E19">
-        <v>28</v>
-      </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
-      <c r="G19">
-        <v>0.8</v>
-      </c>
-      <c r="H19">
-        <v>1</v>
-      </c>
-      <c r="I19">
-        <v>8</v>
-      </c>
-      <c r="J19">
-        <v>3</v>
-      </c>
-      <c r="K19">
-        <v>93.87</v>
-      </c>
-      <c r="L19">
-        <v>122.52</v>
-      </c>
-      <c r="M19">
-        <v>2.0499999999999998</v>
-      </c>
-      <c r="N19">
-        <v>0</v>
-      </c>
-      <c r="O19">
-        <v>-0.11</v>
-      </c>
-      <c r="P19">
-        <v>0.79</v>
-      </c>
-      <c r="Q19">
-        <v>0.47</v>
-      </c>
-      <c r="R19">
-        <v>0.64</v>
-      </c>
-      <c r="S19">
-        <v>-2.2200000000000002</v>
-      </c>
-      <c r="T19" s="3">
-        <v>2.38</v>
-      </c>
-      <c r="U19" s="3">
-        <v>6.0299999999999998E-3</v>
-      </c>
-      <c r="V19" t="s">
-        <v>118</v>
-      </c>
-      <c r="W19">
-        <v>-2.12</v>
-      </c>
-      <c r="X19" s="3">
-        <v>2.96</v>
-      </c>
-      <c r="Y19" s="3">
-        <v>7.5100000000000002E-3</v>
-      </c>
-      <c r="Z19" t="s">
-        <v>118</v>
-      </c>
-      <c r="AA19">
-        <v>-0.93</v>
-      </c>
-      <c r="AB19" s="3">
-        <v>46.1</v>
-      </c>
-      <c r="AC19" s="6">
-        <v>46.1</v>
-      </c>
-      <c r="AD19" s="3">
-        <v>0.11700000000000001</v>
-      </c>
-      <c r="AE19" t="s">
-        <v>118</v>
-      </c>
-      <c r="AF19" t="s">
-        <v>112</v>
-      </c>
-      <c r="AG19" t="s">
-        <v>113</v>
-      </c>
-      <c r="AH19" t="s">
-        <v>114</v>
-      </c>
-      <c r="AI19" t="s">
-        <v>113</v>
-      </c>
-      <c r="AJ19" t="s">
-        <v>113</v>
-      </c>
-      <c r="AK19" t="s">
-        <v>113</v>
-      </c>
-      <c r="AL19" t="s">
-        <v>113</v>
-      </c>
-      <c r="AM19" t="s">
-        <v>113</v>
-      </c>
-      <c r="AN19">
-        <v>-8.7100000000000009</v>
-      </c>
-      <c r="AO19">
-        <v>0</v>
-      </c>
-      <c r="AP19">
-        <v>0</v>
-      </c>
-      <c r="AQ19">
-        <v>0</v>
-      </c>
-      <c r="AR19">
-        <v>0</v>
-      </c>
-      <c r="AS19">
-        <v>0</v>
-      </c>
-      <c r="AT19">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="AU19">
-        <v>0</v>
-      </c>
-      <c r="AV19">
-        <v>1</v>
-      </c>
-      <c r="AW19">
-        <v>1</v>
-      </c>
-      <c r="AX19">
-        <v>6.04</v>
-      </c>
-    </row>
-    <row r="20" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>711</v>
-      </c>
-      <c r="B20" t="s">
-        <v>710</v>
-      </c>
-      <c r="C20" t="s">
-        <v>709</v>
-      </c>
-      <c r="D20">
-        <v>436.45</v>
-      </c>
-      <c r="E20">
-        <v>31</v>
-      </c>
-      <c r="F20">
-        <v>0</v>
-      </c>
-      <c r="G20">
-        <v>0.77</v>
-      </c>
-      <c r="H20">
-        <v>2</v>
-      </c>
-      <c r="I20">
-        <v>9</v>
-      </c>
-      <c r="J20">
-        <v>3</v>
-      </c>
-      <c r="K20">
-        <v>103.68</v>
-      </c>
-      <c r="L20">
-        <v>139.59</v>
-      </c>
-      <c r="M20">
-        <v>1.9</v>
-      </c>
-      <c r="N20">
-        <v>-0.33</v>
-      </c>
-      <c r="O20">
-        <v>-0.28999999999999998</v>
-      </c>
-      <c r="P20">
-        <v>0.37</v>
-      </c>
-      <c r="Q20">
-        <v>0.34</v>
-      </c>
-      <c r="R20">
-        <v>0.4</v>
-      </c>
-      <c r="S20">
-        <v>-2.21</v>
-      </c>
-      <c r="T20" s="3">
-        <v>2.72</v>
-      </c>
-      <c r="U20" s="3">
-        <v>6.2199999999999998E-3</v>
-      </c>
-      <c r="V20" t="s">
-        <v>118</v>
-      </c>
-      <c r="W20">
-        <v>-2.14</v>
-      </c>
-      <c r="X20" s="3">
-        <v>3.16</v>
-      </c>
-      <c r="Y20" s="3">
-        <v>7.2399999999999999E-3</v>
-      </c>
-      <c r="Z20" t="s">
-        <v>118</v>
-      </c>
-      <c r="AA20">
-        <v>-1.1200000000000001</v>
-      </c>
-      <c r="AB20" s="3">
-        <v>33</v>
-      </c>
-      <c r="AC20" s="6">
-        <v>33</v>
-      </c>
-      <c r="AD20" s="3">
-        <v>7.5499999999999998E-2</v>
-      </c>
-      <c r="AE20" t="s">
-        <v>118</v>
-      </c>
-      <c r="AF20" t="s">
-        <v>131</v>
-      </c>
-      <c r="AG20" t="s">
-        <v>113</v>
-      </c>
-      <c r="AH20" t="s">
-        <v>114</v>
-      </c>
-      <c r="AI20" t="s">
-        <v>113</v>
-      </c>
-      <c r="AJ20" t="s">
-        <v>113</v>
-      </c>
-      <c r="AK20" t="s">
-        <v>113</v>
-      </c>
-      <c r="AL20" t="s">
-        <v>113</v>
-      </c>
-      <c r="AM20" t="s">
-        <v>113</v>
-      </c>
-      <c r="AN20">
-        <v>-9.1999999999999993</v>
-      </c>
-      <c r="AO20">
-        <v>0</v>
-      </c>
-      <c r="AP20">
-        <v>0</v>
-      </c>
-      <c r="AQ20">
-        <v>0</v>
-      </c>
-      <c r="AR20">
-        <v>1</v>
-      </c>
-      <c r="AS20">
-        <v>0</v>
-      </c>
-      <c r="AT20">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="AU20">
-        <v>0</v>
-      </c>
-      <c r="AV20">
-        <v>1</v>
-      </c>
-      <c r="AW20">
-        <v>1</v>
-      </c>
-      <c r="AX20">
-        <v>6.21</v>
-      </c>
-    </row>
-    <row r="21" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>708</v>
-      </c>
-      <c r="B21" t="s">
-        <v>707</v>
-      </c>
-      <c r="C21" t="s">
-        <v>704</v>
-      </c>
-      <c r="D21">
-        <v>438.47</v>
-      </c>
-      <c r="E21">
-        <v>31</v>
-      </c>
-      <c r="F21">
-        <v>0</v>
-      </c>
-      <c r="G21">
-        <v>0.82</v>
-      </c>
-      <c r="H21">
-        <v>2</v>
-      </c>
-      <c r="I21">
-        <v>9</v>
-      </c>
-      <c r="J21">
-        <v>4</v>
-      </c>
-      <c r="K21">
-        <v>104.64</v>
-      </c>
-      <c r="L21">
-        <v>142.75</v>
-      </c>
-      <c r="M21">
-        <v>2.72</v>
-      </c>
-      <c r="N21">
-        <v>-0.67</v>
-      </c>
-      <c r="O21">
-        <v>-0.5</v>
-      </c>
-      <c r="P21">
-        <v>0.46</v>
-      </c>
-      <c r="Q21">
-        <v>-0.24</v>
-      </c>
-      <c r="R21">
-        <v>0.35</v>
-      </c>
-      <c r="S21">
-        <v>-2</v>
-      </c>
-      <c r="T21" s="3">
-        <v>4.34</v>
-      </c>
-      <c r="U21" s="3">
-        <v>9.9000000000000008E-3</v>
-      </c>
-      <c r="V21" t="s">
-        <v>118</v>
-      </c>
-      <c r="W21">
-        <v>-1.85</v>
-      </c>
-      <c r="X21" s="3">
-        <v>6.14</v>
-      </c>
-      <c r="Y21" s="3">
-        <v>1.4E-2</v>
-      </c>
-      <c r="Z21" t="s">
-        <v>130</v>
-      </c>
-      <c r="AA21">
-        <v>-0.43</v>
-      </c>
-      <c r="AB21" s="3">
-        <v>164</v>
-      </c>
-      <c r="AC21" s="6">
-        <v>164</v>
-      </c>
-      <c r="AD21" s="3">
-        <v>0.375</v>
-      </c>
-      <c r="AE21" t="s">
-        <v>118</v>
-      </c>
-      <c r="AF21" t="s">
-        <v>131</v>
-      </c>
-      <c r="AG21" t="s">
-        <v>113</v>
-      </c>
-      <c r="AH21" t="s">
-        <v>114</v>
-      </c>
-      <c r="AI21" t="s">
-        <v>113</v>
-      </c>
-      <c r="AJ21" t="s">
-        <v>113</v>
-      </c>
-      <c r="AK21" t="s">
-        <v>113</v>
-      </c>
-      <c r="AL21" t="s">
-        <v>113</v>
-      </c>
-      <c r="AM21" t="s">
-        <v>113</v>
-      </c>
-      <c r="AN21">
-        <v>-9.4499999999999993</v>
-      </c>
-      <c r="AO21">
-        <v>0</v>
-      </c>
-      <c r="AP21">
-        <v>1</v>
-      </c>
-      <c r="AQ21">
-        <v>1</v>
-      </c>
-      <c r="AR21">
-        <v>1</v>
-      </c>
-      <c r="AS21">
-        <v>0</v>
-      </c>
-      <c r="AT21">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="AU21">
-        <v>0</v>
-      </c>
-      <c r="AV21">
-        <v>2</v>
-      </c>
-      <c r="AW21">
-        <v>1</v>
-      </c>
-      <c r="AX21">
-        <v>6.32</v>
-      </c>
-    </row>
-    <row r="22" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>706</v>
-      </c>
-      <c r="B22" t="s">
-        <v>705</v>
-      </c>
-      <c r="C22" t="s">
-        <v>704</v>
-      </c>
-      <c r="D22">
-        <v>438.47</v>
-      </c>
-      <c r="E22">
-        <v>31</v>
-      </c>
-      <c r="F22">
-        <v>0</v>
-      </c>
-      <c r="G22">
-        <v>0.82</v>
-      </c>
-      <c r="H22">
-        <v>2</v>
-      </c>
-      <c r="I22">
-        <v>9</v>
-      </c>
-      <c r="J22">
-        <v>4</v>
-      </c>
-      <c r="K22">
-        <v>104.64</v>
-      </c>
-      <c r="L22">
-        <v>142.75</v>
-      </c>
-      <c r="M22">
-        <v>2.4</v>
-      </c>
-      <c r="N22">
-        <v>-0.83</v>
-      </c>
-      <c r="O22">
-        <v>-0.36</v>
-      </c>
-      <c r="P22">
-        <v>0.46</v>
-      </c>
-      <c r="Q22">
-        <v>0.15</v>
-      </c>
-      <c r="R22">
-        <v>0.36</v>
-      </c>
-      <c r="S22">
-        <v>-1.9</v>
-      </c>
-      <c r="T22" s="3">
-        <v>5.47</v>
-      </c>
-      <c r="U22" s="3">
-        <v>1.2500000000000001E-2</v>
-      </c>
-      <c r="V22" t="s">
-        <v>130</v>
-      </c>
-      <c r="W22">
-        <v>-1.69</v>
-      </c>
-      <c r="X22" s="3">
-        <v>9</v>
-      </c>
-      <c r="Y22" s="3">
-        <v>2.0500000000000001E-2</v>
-      </c>
-      <c r="Z22" t="s">
-        <v>130</v>
-      </c>
-      <c r="AA22">
-        <v>-0.88</v>
-      </c>
-      <c r="AB22" s="3">
-        <v>58.5</v>
-      </c>
-      <c r="AC22" s="6">
-        <v>58.5</v>
-      </c>
-      <c r="AD22" s="3">
-        <v>0.13300000000000001</v>
-      </c>
-      <c r="AE22" t="s">
-        <v>118</v>
-      </c>
-      <c r="AF22" t="s">
-        <v>131</v>
-      </c>
-      <c r="AG22" t="s">
-        <v>113</v>
-      </c>
-      <c r="AH22" t="s">
-        <v>114</v>
-      </c>
-      <c r="AI22" t="s">
-        <v>113</v>
-      </c>
-      <c r="AJ22" t="s">
-        <v>113</v>
-      </c>
-      <c r="AK22" t="s">
-        <v>113</v>
-      </c>
-      <c r="AL22" t="s">
-        <v>113</v>
-      </c>
-      <c r="AM22" t="s">
-        <v>113</v>
-      </c>
-      <c r="AN22">
-        <v>-9.56</v>
-      </c>
-      <c r="AO22">
-        <v>0</v>
-      </c>
-      <c r="AP22">
-        <v>0</v>
-      </c>
-      <c r="AQ22">
-        <v>1</v>
-      </c>
-      <c r="AR22">
-        <v>1</v>
-      </c>
-      <c r="AS22">
-        <v>0</v>
-      </c>
-      <c r="AT22">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="AU22">
-        <v>0</v>
-      </c>
-      <c r="AV22">
-        <v>2</v>
-      </c>
-      <c r="AW22">
-        <v>1</v>
-      </c>
-      <c r="AX22">
-        <v>6.31</v>
-      </c>
-    </row>
-    <row r="23" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>703</v>
-      </c>
-      <c r="B23" t="s">
-        <v>702</v>
-      </c>
-      <c r="C23" t="s">
-        <v>156</v>
-      </c>
-      <c r="D23">
-        <v>394.42</v>
-      </c>
-      <c r="E23">
-        <v>28</v>
-      </c>
-      <c r="F23">
-        <v>0</v>
-      </c>
-      <c r="G23">
-        <v>0.8</v>
-      </c>
-      <c r="H23">
-        <v>0</v>
-      </c>
-      <c r="I23">
-        <v>8</v>
-      </c>
-      <c r="J23">
-        <v>4</v>
-      </c>
-      <c r="K23">
-        <v>93.95</v>
-      </c>
-      <c r="L23">
-        <v>133.52000000000001</v>
-      </c>
-      <c r="M23">
-        <v>1.58</v>
-      </c>
-      <c r="N23">
-        <v>-0.91</v>
-      </c>
-      <c r="O23">
-        <v>-0.86</v>
-      </c>
-      <c r="P23">
-        <v>-0.02</v>
-      </c>
-      <c r="Q23">
-        <v>-0.14000000000000001</v>
-      </c>
-      <c r="R23">
-        <v>-7.0000000000000007E-2</v>
-      </c>
-      <c r="S23">
-        <v>-1.71</v>
-      </c>
-      <c r="T23" s="3">
-        <v>7.65</v>
-      </c>
-      <c r="U23" s="3">
-        <v>1.9400000000000001E-2</v>
-      </c>
-      <c r="V23" t="s">
-        <v>130</v>
-      </c>
-      <c r="W23">
-        <v>-1.41</v>
-      </c>
-      <c r="X23" s="3">
-        <v>15.3</v>
-      </c>
-      <c r="Y23" s="3">
-        <v>3.8800000000000001E-2</v>
-      </c>
-      <c r="Z23" t="s">
-        <v>130</v>
-      </c>
-      <c r="AA23">
-        <v>-0.51</v>
-      </c>
-      <c r="AB23" s="3">
-        <v>122</v>
-      </c>
-      <c r="AC23" s="6">
-        <v>122</v>
-      </c>
-      <c r="AD23" s="3">
-        <v>0.31</v>
-      </c>
-      <c r="AE23" t="s">
-        <v>118</v>
-      </c>
-      <c r="AF23" t="s">
-        <v>112</v>
-      </c>
-      <c r="AG23" t="s">
-        <v>113</v>
-      </c>
-      <c r="AH23" t="s">
-        <v>114</v>
-      </c>
-      <c r="AI23" t="s">
-        <v>113</v>
-      </c>
-      <c r="AJ23" t="s">
-        <v>113</v>
-      </c>
-      <c r="AK23" t="s">
-        <v>113</v>
-      </c>
-      <c r="AL23" t="s">
-        <v>113</v>
-      </c>
-      <c r="AM23" t="s">
-        <v>113</v>
-      </c>
-      <c r="AN23">
-        <v>-9.35</v>
-      </c>
-      <c r="AO23">
-        <v>0</v>
-      </c>
-      <c r="AP23">
-        <v>1</v>
-      </c>
-      <c r="AQ23">
-        <v>0</v>
-      </c>
-      <c r="AR23">
-        <v>1</v>
-      </c>
-      <c r="AS23">
-        <v>0</v>
-      </c>
-      <c r="AT23">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="AU23">
-        <v>0</v>
-      </c>
-      <c r="AV23">
-        <v>0</v>
-      </c>
-      <c r="AW23">
-        <v>1</v>
-      </c>
-      <c r="AX23">
-        <v>6.01</v>
-      </c>
-    </row>
-    <row r="24" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>701</v>
-      </c>
-      <c r="B24" t="s">
-        <v>700</v>
-      </c>
-      <c r="C24" t="s">
-        <v>156</v>
-      </c>
-      <c r="D24">
-        <v>394.42</v>
-      </c>
-      <c r="E24">
-        <v>28</v>
-      </c>
-      <c r="F24">
-        <v>0</v>
-      </c>
-      <c r="G24">
-        <v>0.8</v>
-      </c>
-      <c r="H24">
-        <v>0</v>
-      </c>
-      <c r="I24">
-        <v>8</v>
-      </c>
-      <c r="J24">
-        <v>4</v>
-      </c>
-      <c r="K24">
-        <v>93.95</v>
-      </c>
-      <c r="L24">
-        <v>133.52000000000001</v>
-      </c>
-      <c r="M24">
-        <v>1.43</v>
-      </c>
-      <c r="N24">
-        <v>-0.91</v>
-      </c>
-      <c r="O24">
-        <v>-0.86</v>
-      </c>
-      <c r="P24">
-        <v>-0.02</v>
-      </c>
-      <c r="Q24">
-        <v>-0.14000000000000001</v>
-      </c>
-      <c r="R24">
-        <v>-0.1</v>
-      </c>
-      <c r="S24">
-        <v>-1.71</v>
-      </c>
-      <c r="T24" s="3">
-        <v>7.65</v>
-      </c>
-      <c r="U24" s="3">
-        <v>1.9400000000000001E-2</v>
-      </c>
-      <c r="V24" t="s">
-        <v>130</v>
-      </c>
-      <c r="W24">
-        <v>-1.41</v>
-      </c>
-      <c r="X24" s="3">
-        <v>15.3</v>
-      </c>
-      <c r="Y24" s="3">
-        <v>3.8800000000000001E-2</v>
-      </c>
-      <c r="Z24" t="s">
-        <v>130</v>
-      </c>
-      <c r="AA24">
-        <v>-0.51</v>
-      </c>
-      <c r="AB24" s="3">
-        <v>122</v>
-      </c>
-      <c r="AC24" s="6">
-        <v>122</v>
-      </c>
-      <c r="AD24" s="3">
-        <v>0.31</v>
-      </c>
-      <c r="AE24" t="s">
-        <v>118</v>
-      </c>
-      <c r="AF24" t="s">
-        <v>112</v>
-      </c>
-      <c r="AG24" t="s">
-        <v>113</v>
-      </c>
-      <c r="AH24" t="s">
-        <v>114</v>
-      </c>
-      <c r="AI24" t="s">
-        <v>113</v>
-      </c>
-      <c r="AJ24" t="s">
-        <v>113</v>
-      </c>
-      <c r="AK24" t="s">
-        <v>113</v>
-      </c>
-      <c r="AL24" t="s">
-        <v>113</v>
-      </c>
-      <c r="AM24" t="s">
-        <v>113</v>
-      </c>
-      <c r="AN24">
-        <v>-9.35</v>
-      </c>
-      <c r="AO24">
-        <v>0</v>
-      </c>
-      <c r="AP24">
-        <v>1</v>
-      </c>
-      <c r="AQ24">
-        <v>0</v>
-      </c>
-      <c r="AR24">
-        <v>1</v>
-      </c>
-      <c r="AS24">
-        <v>0</v>
-      </c>
-      <c r="AT24">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="AU24">
-        <v>0</v>
-      </c>
-      <c r="AV24">
-        <v>0</v>
-      </c>
-      <c r="AW24">
-        <v>1</v>
-      </c>
-      <c r="AX24">
-        <v>6.01</v>
-      </c>
-    </row>
-    <row r="25" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>699</v>
-      </c>
-      <c r="B25" t="s">
-        <v>698</v>
-      </c>
-      <c r="C25" t="s">
-        <v>153</v>
-      </c>
-      <c r="D25">
-        <v>396.43</v>
-      </c>
-      <c r="E25">
-        <v>28</v>
-      </c>
-      <c r="F25">
-        <v>0</v>
-      </c>
-      <c r="G25">
-        <v>0.85</v>
-      </c>
-      <c r="H25">
-        <v>0</v>
-      </c>
-      <c r="I25">
-        <v>8</v>
-      </c>
-      <c r="J25">
-        <v>5</v>
-      </c>
-      <c r="K25">
-        <v>94.91</v>
-      </c>
-      <c r="L25">
-        <v>136.68</v>
-      </c>
-      <c r="M25">
-        <v>1.86</v>
-      </c>
-      <c r="N25">
-        <v>-1.4</v>
-      </c>
-      <c r="O25">
-        <v>-0.93</v>
-      </c>
-      <c r="P25">
-        <v>0.08</v>
-      </c>
-      <c r="Q25">
-        <v>-0.34</v>
-      </c>
-      <c r="R25">
-        <v>-0.15</v>
-      </c>
-      <c r="S25">
-        <v>-1.42</v>
-      </c>
-      <c r="T25" s="3">
-        <v>15.2</v>
-      </c>
-      <c r="U25" s="3">
-        <v>3.8399999999999997E-2</v>
-      </c>
-      <c r="V25" t="s">
-        <v>130</v>
-      </c>
-      <c r="W25">
-        <v>-0.97</v>
-      </c>
-      <c r="X25" s="3">
-        <v>42.6</v>
-      </c>
-      <c r="Y25" s="3">
-        <v>0.107</v>
-      </c>
-      <c r="Z25" t="s">
-        <v>130</v>
-      </c>
-      <c r="AA25">
-        <v>-0.26</v>
-      </c>
-      <c r="AB25" s="3">
-        <v>217</v>
-      </c>
-      <c r="AC25" s="6">
-        <v>217</v>
-      </c>
-      <c r="AD25" s="3">
-        <v>0.54700000000000004</v>
-      </c>
-      <c r="AE25" t="s">
-        <v>118</v>
-      </c>
-      <c r="AF25" t="s">
-        <v>131</v>
-      </c>
-      <c r="AG25" t="s">
-        <v>113</v>
-      </c>
-      <c r="AH25" t="s">
-        <v>114</v>
-      </c>
-      <c r="AI25" t="s">
-        <v>113</v>
-      </c>
-      <c r="AJ25" t="s">
-        <v>113</v>
-      </c>
-      <c r="AK25" t="s">
-        <v>113</v>
-      </c>
-      <c r="AL25" t="s">
-        <v>113</v>
-      </c>
-      <c r="AM25" t="s">
-        <v>113</v>
-      </c>
-      <c r="AN25">
-        <v>-9.7100000000000009</v>
-      </c>
-      <c r="AO25">
-        <v>0</v>
-      </c>
-      <c r="AP25">
-        <v>1</v>
-      </c>
-      <c r="AQ25">
-        <v>0</v>
-      </c>
-      <c r="AR25">
-        <v>1</v>
-      </c>
-      <c r="AS25">
-        <v>0</v>
-      </c>
-      <c r="AT25">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="AU25">
-        <v>0</v>
-      </c>
-      <c r="AV25">
-        <v>1</v>
-      </c>
-      <c r="AW25">
-        <v>1</v>
-      </c>
-      <c r="AX25">
-        <v>6.1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:JS25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AO1" workbookViewId="0">
-      <selection activeCell="AZ1" sqref="AZ1"/>
+    <sheetView tabSelected="1" topLeftCell="CA1" workbookViewId="0">
+      <selection activeCell="CB1" sqref="CB1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32395,6 +28650,3821 @@
       </c>
       <c r="HH25" t="s">
         <v>592</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AX25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O1" sqref="O1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:50" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1" t="s">
+        <v>67</v>
+      </c>
+      <c r="I1" t="s">
+        <v>68</v>
+      </c>
+      <c r="J1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K1" t="s">
+        <v>70</v>
+      </c>
+      <c r="L1" t="s">
+        <v>71</v>
+      </c>
+      <c r="M1" t="s">
+        <v>72</v>
+      </c>
+      <c r="N1" t="s">
+        <v>73</v>
+      </c>
+      <c r="O1" t="s">
+        <v>74</v>
+      </c>
+      <c r="P1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>76</v>
+      </c>
+      <c r="R1" t="s">
+        <v>77</v>
+      </c>
+      <c r="S1" t="s">
+        <v>78</v>
+      </c>
+      <c r="T1" t="s">
+        <v>79</v>
+      </c>
+      <c r="U1" t="s">
+        <v>80</v>
+      </c>
+      <c r="V1" t="s">
+        <v>81</v>
+      </c>
+      <c r="W1" t="s">
+        <v>82</v>
+      </c>
+      <c r="X1" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>84</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AC1" s="7" t="s">
+        <v>713</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>88</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>89</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>93</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>100</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>101</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>102</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>103</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>105</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>106</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>107</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="2" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D2">
+        <v>496.59</v>
+      </c>
+      <c r="E2">
+        <v>36</v>
+      </c>
+      <c r="F2">
+        <v>6</v>
+      </c>
+      <c r="G2">
+        <v>0.62</v>
+      </c>
+      <c r="H2">
+        <v>4</v>
+      </c>
+      <c r="I2">
+        <v>7</v>
+      </c>
+      <c r="J2">
+        <v>2</v>
+      </c>
+      <c r="K2">
+        <v>134.46</v>
+      </c>
+      <c r="L2">
+        <v>110.13</v>
+      </c>
+      <c r="M2">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="N2">
+        <v>3.68</v>
+      </c>
+      <c r="O2">
+        <v>3.45</v>
+      </c>
+      <c r="P2">
+        <v>2.17</v>
+      </c>
+      <c r="Q2">
+        <v>3.79</v>
+      </c>
+      <c r="R2">
+        <v>3.07</v>
+      </c>
+      <c r="S2">
+        <v>-5.0999999999999996</v>
+      </c>
+      <c r="T2" s="3">
+        <v>3.98E-3</v>
+      </c>
+      <c r="U2" s="3">
+        <v>8.0099999999999995E-6</v>
+      </c>
+      <c r="V2" t="s">
+        <v>111</v>
+      </c>
+      <c r="W2">
+        <v>-5.68</v>
+      </c>
+      <c r="X2" s="3">
+        <v>1.0300000000000001E-3</v>
+      </c>
+      <c r="Y2" s="3">
+        <v>2.08E-6</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>111</v>
+      </c>
+      <c r="AA2">
+        <v>-4.83</v>
+      </c>
+      <c r="AB2" s="3">
+        <v>7.2899999999999996E-3</v>
+      </c>
+      <c r="AC2" s="6">
+        <v>7.2899999999999996E-3</v>
+      </c>
+      <c r="AD2" s="3">
+        <v>1.47E-5</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>111</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>112</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>113</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>114</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>113</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>113</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>113</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>113</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>114</v>
+      </c>
+      <c r="AN2">
+        <v>-6.72</v>
+      </c>
+      <c r="AO2">
+        <v>0</v>
+      </c>
+      <c r="AP2">
+        <v>3</v>
+      </c>
+      <c r="AQ2">
+        <v>0</v>
+      </c>
+      <c r="AR2">
+        <v>0</v>
+      </c>
+      <c r="AS2">
+        <v>0</v>
+      </c>
+      <c r="AT2">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="AU2">
+        <v>0</v>
+      </c>
+      <c r="AV2">
+        <v>0</v>
+      </c>
+      <c r="AW2">
+        <v>2</v>
+      </c>
+      <c r="AX2">
+        <v>5.59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D3">
+        <v>364.43</v>
+      </c>
+      <c r="E3">
+        <v>26</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0.85</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>6</v>
+      </c>
+      <c r="J3">
+        <v>2</v>
+      </c>
+      <c r="K3">
+        <v>93.29</v>
+      </c>
+      <c r="L3">
+        <v>100.9</v>
+      </c>
+      <c r="M3">
+        <v>1.45</v>
+      </c>
+      <c r="N3">
+        <v>1.36</v>
+      </c>
+      <c r="O3">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="P3">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="Q3">
+        <v>1.62</v>
+      </c>
+      <c r="R3">
+        <v>1.34</v>
+      </c>
+      <c r="S3">
+        <v>-2.96</v>
+      </c>
+      <c r="T3" s="3">
+        <v>0.40300000000000002</v>
+      </c>
+      <c r="U3" s="3">
+        <v>1.1100000000000001E-3</v>
+      </c>
+      <c r="V3" t="s">
+        <v>118</v>
+      </c>
+      <c r="W3">
+        <v>-3.08</v>
+      </c>
+      <c r="X3" s="3">
+        <v>0.30199999999999999</v>
+      </c>
+      <c r="Y3" s="3">
+        <v>8.2899999999999998E-4</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>118</v>
+      </c>
+      <c r="AA3">
+        <v>-2.21</v>
+      </c>
+      <c r="AB3" s="3">
+        <v>2.27</v>
+      </c>
+      <c r="AC3" s="6">
+        <v>2.27</v>
+      </c>
+      <c r="AD3" s="3">
+        <v>6.2199999999999998E-3</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>118</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>112</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>113</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>114</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>113</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>113</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>113</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>113</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>113</v>
+      </c>
+      <c r="AN3">
+        <v>-7.56</v>
+      </c>
+      <c r="AO3">
+        <v>0</v>
+      </c>
+      <c r="AP3">
+        <v>0</v>
+      </c>
+      <c r="AQ3">
+        <v>0</v>
+      </c>
+      <c r="AR3">
+        <v>0</v>
+      </c>
+      <c r="AS3">
+        <v>0</v>
+      </c>
+      <c r="AT3">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="AU3">
+        <v>0</v>
+      </c>
+      <c r="AV3">
+        <v>0</v>
+      </c>
+      <c r="AW3">
+        <v>1</v>
+      </c>
+      <c r="AX3">
+        <v>4.8600000000000003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C4" t="s">
+        <v>121</v>
+      </c>
+      <c r="D4">
+        <v>364.48</v>
+      </c>
+      <c r="E4">
+        <v>26</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0.9</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>5</v>
+      </c>
+      <c r="J4">
+        <v>2</v>
+      </c>
+      <c r="K4">
+        <v>97.89</v>
+      </c>
+      <c r="L4">
+        <v>83.83</v>
+      </c>
+      <c r="M4">
+        <v>1.8</v>
+      </c>
+      <c r="N4">
+        <v>2.38</v>
+      </c>
+      <c r="O4">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="P4">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="Q4">
+        <v>2.04</v>
+      </c>
+      <c r="R4">
+        <v>2.14</v>
+      </c>
+      <c r="S4">
+        <v>-3.6</v>
+      </c>
+      <c r="T4" s="3">
+        <v>9.1700000000000004E-2</v>
+      </c>
+      <c r="U4" s="3">
+        <v>2.52E-4</v>
+      </c>
+      <c r="V4" t="s">
+        <v>118</v>
+      </c>
+      <c r="W4">
+        <v>-3.78</v>
+      </c>
+      <c r="X4" s="3">
+        <v>6.0299999999999999E-2</v>
+      </c>
+      <c r="Y4" s="3">
+        <v>1.65E-4</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>118</v>
+      </c>
+      <c r="AA4">
+        <v>-2.4700000000000002</v>
+      </c>
+      <c r="AB4" s="3">
+        <v>1.22</v>
+      </c>
+      <c r="AC4" s="6">
+        <v>1.22</v>
+      </c>
+      <c r="AD4" s="3">
+        <v>3.3600000000000001E-3</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>118</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>112</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>113</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>114</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>113</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>113</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>113</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>113</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>113</v>
+      </c>
+      <c r="AN4">
+        <v>-6.83</v>
+      </c>
+      <c r="AO4">
+        <v>0</v>
+      </c>
+      <c r="AP4">
+        <v>0</v>
+      </c>
+      <c r="AQ4">
+        <v>0</v>
+      </c>
+      <c r="AR4">
+        <v>0</v>
+      </c>
+      <c r="AS4">
+        <v>0</v>
+      </c>
+      <c r="AT4">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="AU4">
+        <v>0</v>
+      </c>
+      <c r="AV4">
+        <v>0</v>
+      </c>
+      <c r="AW4">
+        <v>1</v>
+      </c>
+      <c r="AX4">
+        <v>4.92</v>
+      </c>
+    </row>
+    <row r="5" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>124</v>
+      </c>
+      <c r="B5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C5" t="s">
+        <v>117</v>
+      </c>
+      <c r="D5">
+        <v>364.43</v>
+      </c>
+      <c r="E5">
+        <v>26</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0.8</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>6</v>
+      </c>
+      <c r="J5">
+        <v>3</v>
+      </c>
+      <c r="K5">
+        <v>94.18</v>
+      </c>
+      <c r="L5">
+        <v>104.06</v>
+      </c>
+      <c r="M5">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="N5">
+        <v>1.18</v>
+      </c>
+      <c r="O5">
+        <v>1.74</v>
+      </c>
+      <c r="P5">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="Q5">
+        <v>1.42</v>
+      </c>
+      <c r="R5">
+        <v>1.57</v>
+      </c>
+      <c r="S5">
+        <v>-2.84</v>
+      </c>
+      <c r="T5" s="3">
+        <v>0.52300000000000002</v>
+      </c>
+      <c r="U5" s="3">
+        <v>1.4400000000000001E-3</v>
+      </c>
+      <c r="V5" t="s">
+        <v>118</v>
+      </c>
+      <c r="W5">
+        <v>-2.96</v>
+      </c>
+      <c r="X5" s="3">
+        <v>0.39900000000000002</v>
+      </c>
+      <c r="Y5" s="3">
+        <v>1.09E-3</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>118</v>
+      </c>
+      <c r="AA5">
+        <v>-1.94</v>
+      </c>
+      <c r="AB5" s="3">
+        <v>4.16</v>
+      </c>
+      <c r="AC5" s="6">
+        <v>4.16</v>
+      </c>
+      <c r="AD5" s="3">
+        <v>1.14E-2</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>118</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>112</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>113</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>114</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>113</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>113</v>
+      </c>
+      <c r="AK5" t="s">
+        <v>113</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>113</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>113</v>
+      </c>
+      <c r="AN5">
+        <v>-7.69</v>
+      </c>
+      <c r="AO5">
+        <v>0</v>
+      </c>
+      <c r="AP5">
+        <v>0</v>
+      </c>
+      <c r="AQ5">
+        <v>0</v>
+      </c>
+      <c r="AR5">
+        <v>0</v>
+      </c>
+      <c r="AS5">
+        <v>0</v>
+      </c>
+      <c r="AT5">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="AU5">
+        <v>0</v>
+      </c>
+      <c r="AV5">
+        <v>0</v>
+      </c>
+      <c r="AW5">
+        <v>1</v>
+      </c>
+      <c r="AX5">
+        <v>5.31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B6" t="s">
+        <v>125</v>
+      </c>
+      <c r="C6" t="s">
+        <v>126</v>
+      </c>
+      <c r="D6">
+        <v>478.53</v>
+      </c>
+      <c r="E6">
+        <v>34</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0.8</v>
+      </c>
+      <c r="H6">
+        <v>4</v>
+      </c>
+      <c r="I6">
+        <v>9</v>
+      </c>
+      <c r="J6">
+        <v>3</v>
+      </c>
+      <c r="K6">
+        <v>118.1</v>
+      </c>
+      <c r="L6">
+        <v>139.59</v>
+      </c>
+      <c r="M6">
+        <v>2.39</v>
+      </c>
+      <c r="N6">
+        <v>0.93</v>
+      </c>
+      <c r="O6">
+        <v>0.73</v>
+      </c>
+      <c r="P6">
+        <v>1</v>
+      </c>
+      <c r="Q6">
+        <v>1.38</v>
+      </c>
+      <c r="R6">
+        <v>1.29</v>
+      </c>
+      <c r="S6">
+        <v>-3.13</v>
+      </c>
+      <c r="T6" s="3">
+        <v>0.35599999999999998</v>
+      </c>
+      <c r="U6" s="3">
+        <v>7.4299999999999995E-4</v>
+      </c>
+      <c r="V6" t="s">
+        <v>118</v>
+      </c>
+      <c r="W6">
+        <v>-3.45</v>
+      </c>
+      <c r="X6" s="3">
+        <v>0.17100000000000001</v>
+      </c>
+      <c r="Y6" s="3">
+        <v>3.57E-4</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>118</v>
+      </c>
+      <c r="AA6">
+        <v>-1.92</v>
+      </c>
+      <c r="AB6" s="3">
+        <v>5.77</v>
+      </c>
+      <c r="AC6" s="6">
+        <v>5.77</v>
+      </c>
+      <c r="AD6" s="3">
+        <v>1.21E-2</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>118</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>112</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>113</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>114</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>113</v>
+      </c>
+      <c r="AJ6" t="s">
+        <v>113</v>
+      </c>
+      <c r="AK6" t="s">
+        <v>113</v>
+      </c>
+      <c r="AL6" t="s">
+        <v>113</v>
+      </c>
+      <c r="AM6" t="s">
+        <v>113</v>
+      </c>
+      <c r="AN6">
+        <v>-8.56</v>
+      </c>
+      <c r="AO6">
+        <v>0</v>
+      </c>
+      <c r="AP6">
+        <v>0</v>
+      </c>
+      <c r="AQ6">
+        <v>0</v>
+      </c>
+      <c r="AR6">
+        <v>1</v>
+      </c>
+      <c r="AS6">
+        <v>0</v>
+      </c>
+      <c r="AT6">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="AU6">
+        <v>0</v>
+      </c>
+      <c r="AV6">
+        <v>1</v>
+      </c>
+      <c r="AW6">
+        <v>1</v>
+      </c>
+      <c r="AX6">
+        <v>6.57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>132</v>
+      </c>
+      <c r="B7" t="s">
+        <v>128</v>
+      </c>
+      <c r="C7" t="s">
+        <v>129</v>
+      </c>
+      <c r="D7">
+        <v>542.57000000000005</v>
+      </c>
+      <c r="E7">
+        <v>38</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0.88</v>
+      </c>
+      <c r="H7">
+        <v>3</v>
+      </c>
+      <c r="I7">
+        <v>12</v>
+      </c>
+      <c r="J7">
+        <v>7</v>
+      </c>
+      <c r="K7">
+        <v>126.13</v>
+      </c>
+      <c r="L7">
+        <v>195.6</v>
+      </c>
+      <c r="M7">
+        <v>1.85</v>
+      </c>
+      <c r="N7">
+        <v>-2.29</v>
+      </c>
+      <c r="O7">
+        <v>-2.2200000000000002</v>
+      </c>
+      <c r="P7">
+        <v>-1.3</v>
+      </c>
+      <c r="Q7">
+        <v>-1.95</v>
+      </c>
+      <c r="R7">
+        <v>-1.18</v>
+      </c>
+      <c r="S7">
+        <v>-1.56</v>
+      </c>
+      <c r="T7" s="3">
+        <v>14.8</v>
+      </c>
+      <c r="U7" s="3">
+        <v>2.7300000000000001E-2</v>
+      </c>
+      <c r="V7" t="s">
+        <v>130</v>
+      </c>
+      <c r="W7">
+        <v>-1.28</v>
+      </c>
+      <c r="X7" s="3">
+        <v>28.3</v>
+      </c>
+      <c r="Y7" s="3">
+        <v>5.2200000000000003E-2</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>130</v>
+      </c>
+      <c r="AA7">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="AB7" s="3">
+        <v>7470</v>
+      </c>
+      <c r="AC7" s="6">
+        <v>7470</v>
+      </c>
+      <c r="AD7" s="3">
+        <v>13.8</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>118</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>131</v>
+      </c>
+      <c r="AG7" t="s">
+        <v>113</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>113</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>113</v>
+      </c>
+      <c r="AJ7" t="s">
+        <v>113</v>
+      </c>
+      <c r="AK7" t="s">
+        <v>113</v>
+      </c>
+      <c r="AL7" t="s">
+        <v>113</v>
+      </c>
+      <c r="AM7" t="s">
+        <v>113</v>
+      </c>
+      <c r="AN7">
+        <v>-11.24</v>
+      </c>
+      <c r="AO7">
+        <v>3</v>
+      </c>
+      <c r="AP7">
+        <v>3</v>
+      </c>
+      <c r="AQ7">
+        <v>1</v>
+      </c>
+      <c r="AR7">
+        <v>1</v>
+      </c>
+      <c r="AS7">
+        <v>4</v>
+      </c>
+      <c r="AT7">
+        <v>0.17</v>
+      </c>
+      <c r="AU7">
+        <v>0</v>
+      </c>
+      <c r="AV7">
+        <v>1</v>
+      </c>
+      <c r="AW7">
+        <v>1</v>
+      </c>
+      <c r="AX7">
+        <v>7.25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>135</v>
+      </c>
+      <c r="B8" t="s">
+        <v>133</v>
+      </c>
+      <c r="C8" t="s">
+        <v>134</v>
+      </c>
+      <c r="D8">
+        <v>558.57000000000005</v>
+      </c>
+      <c r="E8">
+        <v>39</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0.88</v>
+      </c>
+      <c r="H8">
+        <v>3</v>
+      </c>
+      <c r="I8">
+        <v>13</v>
+      </c>
+      <c r="J8">
+        <v>8</v>
+      </c>
+      <c r="K8">
+        <v>127.29</v>
+      </c>
+      <c r="L8">
+        <v>215.83</v>
+      </c>
+      <c r="M8">
+        <v>1.87</v>
+      </c>
+      <c r="N8">
+        <v>-2.84</v>
+      </c>
+      <c r="O8">
+        <v>-3.25</v>
+      </c>
+      <c r="P8">
+        <v>-2.0499999999999998</v>
+      </c>
+      <c r="Q8">
+        <v>-2.83</v>
+      </c>
+      <c r="R8">
+        <v>-1.82</v>
+      </c>
+      <c r="S8">
+        <v>-1.32</v>
+      </c>
+      <c r="T8" s="3">
+        <v>27</v>
+      </c>
+      <c r="U8" s="3">
+        <v>4.8300000000000003E-2</v>
+      </c>
+      <c r="V8" t="s">
+        <v>130</v>
+      </c>
+      <c r="W8">
+        <v>-1.1399999999999999</v>
+      </c>
+      <c r="X8" s="3">
+        <v>40.799999999999997</v>
+      </c>
+      <c r="Y8" s="3">
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>130</v>
+      </c>
+      <c r="AA8">
+        <v>1.96</v>
+      </c>
+      <c r="AB8" s="3">
+        <v>51400</v>
+      </c>
+      <c r="AC8" s="6">
+        <v>51400</v>
+      </c>
+      <c r="AD8" s="3">
+        <v>92</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>118</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>131</v>
+      </c>
+      <c r="AG8" t="s">
+        <v>113</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>113</v>
+      </c>
+      <c r="AI8" t="s">
+        <v>113</v>
+      </c>
+      <c r="AJ8" t="s">
+        <v>113</v>
+      </c>
+      <c r="AK8" t="s">
+        <v>113</v>
+      </c>
+      <c r="AL8" t="s">
+        <v>113</v>
+      </c>
+      <c r="AM8" t="s">
+        <v>113</v>
+      </c>
+      <c r="AN8">
+        <v>-11.72</v>
+      </c>
+      <c r="AO8">
+        <v>3</v>
+      </c>
+      <c r="AP8">
+        <v>3</v>
+      </c>
+      <c r="AQ8">
+        <v>1</v>
+      </c>
+      <c r="AR8">
+        <v>1</v>
+      </c>
+      <c r="AS8">
+        <v>4</v>
+      </c>
+      <c r="AT8">
+        <v>0.17</v>
+      </c>
+      <c r="AU8">
+        <v>0</v>
+      </c>
+      <c r="AV8">
+        <v>1</v>
+      </c>
+      <c r="AW8">
+        <v>1</v>
+      </c>
+      <c r="AX8">
+        <v>7.32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>137</v>
+      </c>
+      <c r="B9" t="s">
+        <v>136</v>
+      </c>
+      <c r="C9" t="s">
+        <v>129</v>
+      </c>
+      <c r="D9">
+        <v>542.57000000000005</v>
+      </c>
+      <c r="E9">
+        <v>38</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0.88</v>
+      </c>
+      <c r="H9">
+        <v>3</v>
+      </c>
+      <c r="I9">
+        <v>12</v>
+      </c>
+      <c r="J9">
+        <v>7</v>
+      </c>
+      <c r="K9">
+        <v>126.13</v>
+      </c>
+      <c r="L9">
+        <v>195.6</v>
+      </c>
+      <c r="M9">
+        <v>1.93</v>
+      </c>
+      <c r="N9">
+        <v>-2.29</v>
+      </c>
+      <c r="O9">
+        <v>-2.2200000000000002</v>
+      </c>
+      <c r="P9">
+        <v>-1.71</v>
+      </c>
+      <c r="Q9">
+        <v>-1.95</v>
+      </c>
+      <c r="R9">
+        <v>-1.25</v>
+      </c>
+      <c r="S9">
+        <v>-1.56</v>
+      </c>
+      <c r="T9" s="3">
+        <v>14.8</v>
+      </c>
+      <c r="U9" s="3">
+        <v>2.7300000000000001E-2</v>
+      </c>
+      <c r="V9" t="s">
+        <v>130</v>
+      </c>
+      <c r="W9">
+        <v>-1.28</v>
+      </c>
+      <c r="X9" s="3">
+        <v>28.3</v>
+      </c>
+      <c r="Y9" s="3">
+        <v>5.2200000000000003E-2</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>130</v>
+      </c>
+      <c r="AA9">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="AB9" s="3">
+        <v>7470</v>
+      </c>
+      <c r="AC9" s="6">
+        <v>7470</v>
+      </c>
+      <c r="AD9" s="3">
+        <v>13.8</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>118</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>131</v>
+      </c>
+      <c r="AG9" t="s">
+        <v>113</v>
+      </c>
+      <c r="AH9" t="s">
+        <v>113</v>
+      </c>
+      <c r="AI9" t="s">
+        <v>113</v>
+      </c>
+      <c r="AJ9" t="s">
+        <v>113</v>
+      </c>
+      <c r="AK9" t="s">
+        <v>113</v>
+      </c>
+      <c r="AL9" t="s">
+        <v>113</v>
+      </c>
+      <c r="AM9" t="s">
+        <v>113</v>
+      </c>
+      <c r="AN9">
+        <v>-11.24</v>
+      </c>
+      <c r="AO9">
+        <v>3</v>
+      </c>
+      <c r="AP9">
+        <v>3</v>
+      </c>
+      <c r="AQ9">
+        <v>1</v>
+      </c>
+      <c r="AR9">
+        <v>1</v>
+      </c>
+      <c r="AS9">
+        <v>4</v>
+      </c>
+      <c r="AT9">
+        <v>0.17</v>
+      </c>
+      <c r="AU9">
+        <v>0</v>
+      </c>
+      <c r="AV9">
+        <v>1</v>
+      </c>
+      <c r="AW9">
+        <v>1</v>
+      </c>
+      <c r="AX9">
+        <v>7.07</v>
+      </c>
+    </row>
+    <row r="10" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>139</v>
+      </c>
+      <c r="B10" t="s">
+        <v>138</v>
+      </c>
+      <c r="C10" t="s">
+        <v>117</v>
+      </c>
+      <c r="D10">
+        <v>364.43</v>
+      </c>
+      <c r="E10">
+        <v>26</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0.85</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>6</v>
+      </c>
+      <c r="J10">
+        <v>2</v>
+      </c>
+      <c r="K10">
+        <v>93.29</v>
+      </c>
+      <c r="L10">
+        <v>100.9</v>
+      </c>
+      <c r="M10">
+        <v>1.93</v>
+      </c>
+      <c r="N10">
+        <v>1.27</v>
+      </c>
+      <c r="O10">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="P10">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="Q10">
+        <v>1.62</v>
+      </c>
+      <c r="R10">
+        <v>1.42</v>
+      </c>
+      <c r="S10">
+        <v>-2.9</v>
+      </c>
+      <c r="T10" s="3">
+        <v>0.45900000000000002</v>
+      </c>
+      <c r="U10" s="3">
+        <v>1.2600000000000001E-3</v>
+      </c>
+      <c r="V10" t="s">
+        <v>118</v>
+      </c>
+      <c r="W10">
+        <v>-2.99</v>
+      </c>
+      <c r="X10" s="3">
+        <v>0.375</v>
+      </c>
+      <c r="Y10" s="3">
+        <v>1.0300000000000001E-3</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>118</v>
+      </c>
+      <c r="AA10">
+        <v>-2.21</v>
+      </c>
+      <c r="AB10" s="3">
+        <v>2.27</v>
+      </c>
+      <c r="AC10" s="6">
+        <v>2.27</v>
+      </c>
+      <c r="AD10" s="3">
+        <v>6.2199999999999998E-3</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>118</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>112</v>
+      </c>
+      <c r="AG10" t="s">
+        <v>113</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>114</v>
+      </c>
+      <c r="AI10" t="s">
+        <v>113</v>
+      </c>
+      <c r="AJ10" t="s">
+        <v>113</v>
+      </c>
+      <c r="AK10" t="s">
+        <v>113</v>
+      </c>
+      <c r="AL10" t="s">
+        <v>113</v>
+      </c>
+      <c r="AM10" t="s">
+        <v>113</v>
+      </c>
+      <c r="AN10">
+        <v>-7.62</v>
+      </c>
+      <c r="AO10">
+        <v>0</v>
+      </c>
+      <c r="AP10">
+        <v>0</v>
+      </c>
+      <c r="AQ10">
+        <v>0</v>
+      </c>
+      <c r="AR10">
+        <v>0</v>
+      </c>
+      <c r="AS10">
+        <v>0</v>
+      </c>
+      <c r="AT10">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="AU10">
+        <v>0</v>
+      </c>
+      <c r="AV10">
+        <v>0</v>
+      </c>
+      <c r="AW10">
+        <v>1</v>
+      </c>
+      <c r="AX10">
+        <v>4.72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>142</v>
+      </c>
+      <c r="B11" t="s">
+        <v>140</v>
+      </c>
+      <c r="C11" t="s">
+        <v>141</v>
+      </c>
+      <c r="D11">
+        <v>380.43</v>
+      </c>
+      <c r="E11">
+        <v>27</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0.85</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>7</v>
+      </c>
+      <c r="J11">
+        <v>4</v>
+      </c>
+      <c r="K11">
+        <v>93.75</v>
+      </c>
+      <c r="L11">
+        <v>116.45</v>
+      </c>
+      <c r="M11">
+        <v>1.77</v>
+      </c>
+      <c r="N11">
+        <v>-0.69</v>
+      </c>
+      <c r="O11">
+        <v>-0.04</v>
+      </c>
+      <c r="P11">
+        <v>0.87</v>
+      </c>
+      <c r="Q11">
+        <v>0.16</v>
+      </c>
+      <c r="R11">
+        <v>0.41</v>
+      </c>
+      <c r="S11">
+        <v>-1.76</v>
+      </c>
+      <c r="T11" s="3">
+        <v>6.55</v>
+      </c>
+      <c r="U11" s="3">
+        <v>1.72E-2</v>
+      </c>
+      <c r="V11" t="s">
+        <v>130</v>
+      </c>
+      <c r="W11">
+        <v>-1.28</v>
+      </c>
+      <c r="X11" s="3">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="Y11" s="3">
+        <v>5.2400000000000002E-2</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>130</v>
+      </c>
+      <c r="AA11">
+        <v>-0.63</v>
+      </c>
+      <c r="AB11" s="3">
+        <v>89</v>
+      </c>
+      <c r="AC11" s="6">
+        <v>89</v>
+      </c>
+      <c r="AD11" s="3">
+        <v>0.23400000000000001</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>118</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>112</v>
+      </c>
+      <c r="AG11" t="s">
+        <v>113</v>
+      </c>
+      <c r="AH11" t="s">
+        <v>114</v>
+      </c>
+      <c r="AI11" t="s">
+        <v>113</v>
+      </c>
+      <c r="AJ11" t="s">
+        <v>113</v>
+      </c>
+      <c r="AK11" t="s">
+        <v>113</v>
+      </c>
+      <c r="AL11" t="s">
+        <v>113</v>
+      </c>
+      <c r="AM11" t="s">
+        <v>113</v>
+      </c>
+      <c r="AN11">
+        <v>-9.11</v>
+      </c>
+      <c r="AO11">
+        <v>0</v>
+      </c>
+      <c r="AP11">
+        <v>0</v>
+      </c>
+      <c r="AQ11">
+        <v>0</v>
+      </c>
+      <c r="AR11">
+        <v>0</v>
+      </c>
+      <c r="AS11">
+        <v>0</v>
+      </c>
+      <c r="AT11">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="AU11">
+        <v>0</v>
+      </c>
+      <c r="AV11">
+        <v>1</v>
+      </c>
+      <c r="AW11">
+        <v>1</v>
+      </c>
+      <c r="AX11">
+        <v>6.02</v>
+      </c>
+    </row>
+    <row r="12" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>145</v>
+      </c>
+      <c r="B12" t="s">
+        <v>143</v>
+      </c>
+      <c r="C12" t="s">
+        <v>144</v>
+      </c>
+      <c r="D12">
+        <v>378.42</v>
+      </c>
+      <c r="E12">
+        <v>27</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0.8</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>7</v>
+      </c>
+      <c r="J12">
+        <v>3</v>
+      </c>
+      <c r="K12">
+        <v>92.78</v>
+      </c>
+      <c r="L12">
+        <v>113.29</v>
+      </c>
+      <c r="M12">
+        <v>1.7</v>
+      </c>
+      <c r="N12">
+        <v>-0.36</v>
+      </c>
+      <c r="O12">
+        <v>0.17</v>
+      </c>
+      <c r="P12">
+        <v>0.77</v>
+      </c>
+      <c r="Q12">
+        <v>0.75</v>
+      </c>
+      <c r="R12">
+        <v>0.61</v>
+      </c>
+      <c r="S12">
+        <v>-1.96</v>
+      </c>
+      <c r="T12" s="3">
+        <v>4.16</v>
+      </c>
+      <c r="U12" s="3">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="V12" t="s">
+        <v>130</v>
+      </c>
+      <c r="W12">
+        <v>-1.56</v>
+      </c>
+      <c r="X12" s="3">
+        <v>10.5</v>
+      </c>
+      <c r="Y12" s="3">
+        <v>2.7799999999999998E-2</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>130</v>
+      </c>
+      <c r="AA12">
+        <v>-1.33</v>
+      </c>
+      <c r="AB12" s="3">
+        <v>17.8</v>
+      </c>
+      <c r="AC12" s="6">
+        <v>17.8</v>
+      </c>
+      <c r="AD12" s="3">
+        <v>4.7100000000000003E-2</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>118</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>112</v>
+      </c>
+      <c r="AG12" t="s">
+        <v>113</v>
+      </c>
+      <c r="AH12" t="s">
+        <v>114</v>
+      </c>
+      <c r="AI12" t="s">
+        <v>113</v>
+      </c>
+      <c r="AJ12" t="s">
+        <v>113</v>
+      </c>
+      <c r="AK12" t="s">
+        <v>113</v>
+      </c>
+      <c r="AL12" t="s">
+        <v>113</v>
+      </c>
+      <c r="AM12" t="s">
+        <v>113</v>
+      </c>
+      <c r="AN12">
+        <v>-8.86</v>
+      </c>
+      <c r="AO12">
+        <v>0</v>
+      </c>
+      <c r="AP12">
+        <v>0</v>
+      </c>
+      <c r="AQ12">
+        <v>0</v>
+      </c>
+      <c r="AR12">
+        <v>0</v>
+      </c>
+      <c r="AS12">
+        <v>0</v>
+      </c>
+      <c r="AT12">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="AU12">
+        <v>0</v>
+      </c>
+      <c r="AV12">
+        <v>0</v>
+      </c>
+      <c r="AW12">
+        <v>1</v>
+      </c>
+      <c r="AX12">
+        <v>5.91</v>
+      </c>
+    </row>
+    <row r="13" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>148</v>
+      </c>
+      <c r="B13" t="s">
+        <v>146</v>
+      </c>
+      <c r="C13" t="s">
+        <v>147</v>
+      </c>
+      <c r="D13">
+        <v>366.45</v>
+      </c>
+      <c r="E13">
+        <v>26</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0.9</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>6</v>
+      </c>
+      <c r="J13">
+        <v>3</v>
+      </c>
+      <c r="K13">
+        <v>94.25</v>
+      </c>
+      <c r="L13">
+        <v>104.06</v>
+      </c>
+      <c r="M13">
+        <v>1.78</v>
+      </c>
+      <c r="N13">
+        <v>1.26</v>
+      </c>
+      <c r="O13">
+        <v>0.91</v>
+      </c>
+      <c r="P13">
+        <v>1.26</v>
+      </c>
+      <c r="Q13">
+        <v>1.03</v>
+      </c>
+      <c r="R13">
+        <v>1.25</v>
+      </c>
+      <c r="S13">
+        <v>-2.91</v>
+      </c>
+      <c r="T13" s="3">
+        <v>0.45500000000000002</v>
+      </c>
+      <c r="U13" s="3">
+        <v>1.24E-3</v>
+      </c>
+      <c r="V13" t="s">
+        <v>118</v>
+      </c>
+      <c r="W13">
+        <v>-3.04</v>
+      </c>
+      <c r="X13" s="3">
+        <v>0.33100000000000002</v>
+      </c>
+      <c r="Y13" s="3">
+        <v>9.0399999999999996E-4</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>118</v>
+      </c>
+      <c r="AA13">
+        <v>-1.51</v>
+      </c>
+      <c r="AB13" s="3">
+        <v>11.3</v>
+      </c>
+      <c r="AC13" s="6">
+        <v>11.3</v>
+      </c>
+      <c r="AD13" s="3">
+        <v>3.09E-2</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>118</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>112</v>
+      </c>
+      <c r="AG13" t="s">
+        <v>113</v>
+      </c>
+      <c r="AH13" t="s">
+        <v>114</v>
+      </c>
+      <c r="AI13" t="s">
+        <v>113</v>
+      </c>
+      <c r="AJ13" t="s">
+        <v>113</v>
+      </c>
+      <c r="AK13" t="s">
+        <v>113</v>
+      </c>
+      <c r="AL13" t="s">
+        <v>113</v>
+      </c>
+      <c r="AM13" t="s">
+        <v>113</v>
+      </c>
+      <c r="AN13">
+        <v>-7.64</v>
+      </c>
+      <c r="AO13">
+        <v>0</v>
+      </c>
+      <c r="AP13">
+        <v>0</v>
+      </c>
+      <c r="AQ13">
+        <v>0</v>
+      </c>
+      <c r="AR13">
+        <v>0</v>
+      </c>
+      <c r="AS13">
+        <v>0</v>
+      </c>
+      <c r="AT13">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="AU13">
+        <v>0</v>
+      </c>
+      <c r="AV13">
+        <v>0</v>
+      </c>
+      <c r="AW13">
+        <v>1</v>
+      </c>
+      <c r="AX13">
+        <v>4.8600000000000003</v>
+      </c>
+    </row>
+    <row r="14" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>151</v>
+      </c>
+      <c r="B14" t="s">
+        <v>149</v>
+      </c>
+      <c r="C14" t="s">
+        <v>150</v>
+      </c>
+      <c r="D14">
+        <v>494.53</v>
+      </c>
+      <c r="E14">
+        <v>35</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0.8</v>
+      </c>
+      <c r="H14">
+        <v>4</v>
+      </c>
+      <c r="I14">
+        <v>10</v>
+      </c>
+      <c r="J14">
+        <v>4</v>
+      </c>
+      <c r="K14">
+        <v>119.3</v>
+      </c>
+      <c r="L14">
+        <v>159.82</v>
+      </c>
+      <c r="M14">
+        <v>1.54</v>
+      </c>
+      <c r="N14">
+        <v>0.13</v>
+      </c>
+      <c r="O14">
+        <v>-0.15</v>
+      </c>
+      <c r="P14">
+        <v>0.23</v>
+      </c>
+      <c r="Q14">
+        <v>0.63</v>
+      </c>
+      <c r="R14">
+        <v>0.48</v>
+      </c>
+      <c r="S14">
+        <v>-2.72</v>
+      </c>
+      <c r="T14" s="3">
+        <v>0.93400000000000005</v>
+      </c>
+      <c r="U14" s="3">
+        <v>1.89E-3</v>
+      </c>
+      <c r="V14" t="s">
+        <v>118</v>
+      </c>
+      <c r="W14">
+        <v>-3.04</v>
+      </c>
+      <c r="X14" s="3">
+        <v>0.44900000000000001</v>
+      </c>
+      <c r="Y14" s="3">
+        <v>9.0700000000000004E-4</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>118</v>
+      </c>
+      <c r="AA14">
+        <v>-1.33</v>
+      </c>
+      <c r="AB14" s="3">
+        <v>23.3</v>
+      </c>
+      <c r="AC14" s="6">
+        <v>23.3</v>
+      </c>
+      <c r="AD14" s="3">
+        <v>4.7100000000000003E-2</v>
+      </c>
+      <c r="AE14" t="s">
+        <v>118</v>
+      </c>
+      <c r="AF14" t="s">
+        <v>131</v>
+      </c>
+      <c r="AG14" t="s">
+        <v>113</v>
+      </c>
+      <c r="AH14" t="s">
+        <v>114</v>
+      </c>
+      <c r="AI14" t="s">
+        <v>113</v>
+      </c>
+      <c r="AJ14" t="s">
+        <v>113</v>
+      </c>
+      <c r="AK14" t="s">
+        <v>113</v>
+      </c>
+      <c r="AL14" t="s">
+        <v>113</v>
+      </c>
+      <c r="AM14" t="s">
+        <v>113</v>
+      </c>
+      <c r="AN14">
+        <v>-9.2200000000000006</v>
+      </c>
+      <c r="AO14">
+        <v>0</v>
+      </c>
+      <c r="AP14">
+        <v>1</v>
+      </c>
+      <c r="AQ14">
+        <v>1</v>
+      </c>
+      <c r="AR14">
+        <v>1</v>
+      </c>
+      <c r="AS14">
+        <v>1</v>
+      </c>
+      <c r="AT14">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="AU14">
+        <v>0</v>
+      </c>
+      <c r="AV14">
+        <v>1</v>
+      </c>
+      <c r="AW14">
+        <v>1</v>
+      </c>
+      <c r="AX14">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>154</v>
+      </c>
+      <c r="B15" t="s">
+        <v>152</v>
+      </c>
+      <c r="C15" t="s">
+        <v>153</v>
+      </c>
+      <c r="D15">
+        <v>396.43</v>
+      </c>
+      <c r="E15">
+        <v>28</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0.85</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>8</v>
+      </c>
+      <c r="J15">
+        <v>5</v>
+      </c>
+      <c r="K15">
+        <v>94.91</v>
+      </c>
+      <c r="L15">
+        <v>136.68</v>
+      </c>
+      <c r="M15">
+        <v>1.57</v>
+      </c>
+      <c r="N15">
+        <v>-1.24</v>
+      </c>
+      <c r="O15">
+        <v>-1.07</v>
+      </c>
+      <c r="P15">
+        <v>0.08</v>
+      </c>
+      <c r="Q15">
+        <v>-0.73</v>
+      </c>
+      <c r="R15">
+        <v>-0.28000000000000003</v>
+      </c>
+      <c r="S15">
+        <v>-1.52</v>
+      </c>
+      <c r="T15" s="3">
+        <v>12.1</v>
+      </c>
+      <c r="U15" s="3">
+        <v>3.04E-2</v>
+      </c>
+      <c r="V15" t="s">
+        <v>130</v>
+      </c>
+      <c r="W15">
+        <v>-1.1299999999999999</v>
+      </c>
+      <c r="X15" s="3">
+        <v>29.1</v>
+      </c>
+      <c r="Y15" s="3">
+        <v>7.3300000000000004E-2</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>130</v>
+      </c>
+      <c r="AA15">
+        <v>0.19</v>
+      </c>
+      <c r="AB15" s="3">
+        <v>610</v>
+      </c>
+      <c r="AC15" s="6">
+        <v>610</v>
+      </c>
+      <c r="AD15" s="3">
+        <v>1.54</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>118</v>
+      </c>
+      <c r="AF15" t="s">
+        <v>131</v>
+      </c>
+      <c r="AG15" t="s">
+        <v>113</v>
+      </c>
+      <c r="AH15" t="s">
+        <v>114</v>
+      </c>
+      <c r="AI15" t="s">
+        <v>113</v>
+      </c>
+      <c r="AJ15" t="s">
+        <v>113</v>
+      </c>
+      <c r="AK15" t="s">
+        <v>113</v>
+      </c>
+      <c r="AL15" t="s">
+        <v>113</v>
+      </c>
+      <c r="AM15" t="s">
+        <v>113</v>
+      </c>
+      <c r="AN15">
+        <v>-9.6</v>
+      </c>
+      <c r="AO15">
+        <v>0</v>
+      </c>
+      <c r="AP15">
+        <v>1</v>
+      </c>
+      <c r="AQ15">
+        <v>0</v>
+      </c>
+      <c r="AR15">
+        <v>1</v>
+      </c>
+      <c r="AS15">
+        <v>0</v>
+      </c>
+      <c r="AT15">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="AU15">
+        <v>0</v>
+      </c>
+      <c r="AV15">
+        <v>1</v>
+      </c>
+      <c r="AW15">
+        <v>1</v>
+      </c>
+      <c r="AX15">
+        <v>6.11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>157</v>
+      </c>
+      <c r="B16" t="s">
+        <v>155</v>
+      </c>
+      <c r="C16" t="s">
+        <v>156</v>
+      </c>
+      <c r="D16">
+        <v>394.42</v>
+      </c>
+      <c r="E16">
+        <v>28</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0.8</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>8</v>
+      </c>
+      <c r="J16">
+        <v>4</v>
+      </c>
+      <c r="K16">
+        <v>93.95</v>
+      </c>
+      <c r="L16">
+        <v>133.52000000000001</v>
+      </c>
+      <c r="M16">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="N16">
+        <v>-0.91</v>
+      </c>
+      <c r="O16">
+        <v>-0.86</v>
+      </c>
+      <c r="P16">
+        <v>-0.02</v>
+      </c>
+      <c r="Q16">
+        <v>-0.14000000000000001</v>
+      </c>
+      <c r="R16">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="S16">
+        <v>-1.71</v>
+      </c>
+      <c r="T16" s="3">
+        <v>7.65</v>
+      </c>
+      <c r="U16" s="3">
+        <v>1.9400000000000001E-2</v>
+      </c>
+      <c r="V16" t="s">
+        <v>130</v>
+      </c>
+      <c r="W16">
+        <v>-1.41</v>
+      </c>
+      <c r="X16" s="3">
+        <v>15.3</v>
+      </c>
+      <c r="Y16" s="3">
+        <v>3.8800000000000001E-2</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>130</v>
+      </c>
+      <c r="AA16">
+        <v>-0.51</v>
+      </c>
+      <c r="AB16" s="3">
+        <v>122</v>
+      </c>
+      <c r="AC16" s="6">
+        <v>122</v>
+      </c>
+      <c r="AD16" s="3">
+        <v>0.31</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>118</v>
+      </c>
+      <c r="AF16" t="s">
+        <v>112</v>
+      </c>
+      <c r="AG16" t="s">
+        <v>113</v>
+      </c>
+      <c r="AH16" t="s">
+        <v>114</v>
+      </c>
+      <c r="AI16" t="s">
+        <v>113</v>
+      </c>
+      <c r="AJ16" t="s">
+        <v>113</v>
+      </c>
+      <c r="AK16" t="s">
+        <v>113</v>
+      </c>
+      <c r="AL16" t="s">
+        <v>113</v>
+      </c>
+      <c r="AM16" t="s">
+        <v>113</v>
+      </c>
+      <c r="AN16">
+        <v>-9.35</v>
+      </c>
+      <c r="AO16">
+        <v>0</v>
+      </c>
+      <c r="AP16">
+        <v>1</v>
+      </c>
+      <c r="AQ16">
+        <v>0</v>
+      </c>
+      <c r="AR16">
+        <v>1</v>
+      </c>
+      <c r="AS16">
+        <v>0</v>
+      </c>
+      <c r="AT16">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="AU16">
+        <v>0</v>
+      </c>
+      <c r="AV16">
+        <v>0</v>
+      </c>
+      <c r="AW16">
+        <v>1</v>
+      </c>
+      <c r="AX16">
+        <v>6.01</v>
+      </c>
+    </row>
+    <row r="17" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>160</v>
+      </c>
+      <c r="B17" t="s">
+        <v>158</v>
+      </c>
+      <c r="C17" t="s">
+        <v>159</v>
+      </c>
+      <c r="D17">
+        <v>450.48</v>
+      </c>
+      <c r="E17">
+        <v>32</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0.78</v>
+      </c>
+      <c r="H17">
+        <v>2</v>
+      </c>
+      <c r="I17">
+        <v>9</v>
+      </c>
+      <c r="J17">
+        <v>3</v>
+      </c>
+      <c r="K17">
+        <v>108.23</v>
+      </c>
+      <c r="L17">
+        <v>139.59</v>
+      </c>
+      <c r="M17">
+        <v>0.92</v>
+      </c>
+      <c r="N17">
+        <v>0.06</v>
+      </c>
+      <c r="O17">
+        <v>0.1</v>
+      </c>
+      <c r="P17">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="Q17">
+        <v>0.85</v>
+      </c>
+      <c r="R17">
+        <v>0.5</v>
+      </c>
+      <c r="S17">
+        <v>-2.54</v>
+      </c>
+      <c r="T17" s="3">
+        <v>1.3</v>
+      </c>
+      <c r="U17" s="3">
+        <v>2.8900000000000002E-3</v>
+      </c>
+      <c r="V17" t="s">
+        <v>118</v>
+      </c>
+      <c r="W17">
+        <v>-2.54</v>
+      </c>
+      <c r="X17" s="3">
+        <v>1.28</v>
+      </c>
+      <c r="Y17" s="3">
+        <v>2.8500000000000001E-3</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>118</v>
+      </c>
+      <c r="AA17">
+        <v>-1.71</v>
+      </c>
+      <c r="AB17" s="3">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="AC17" s="6">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="AD17" s="3">
+        <v>1.9300000000000001E-2</v>
+      </c>
+      <c r="AE17" t="s">
+        <v>118</v>
+      </c>
+      <c r="AF17" t="s">
+        <v>112</v>
+      </c>
+      <c r="AG17" t="s">
+        <v>113</v>
+      </c>
+      <c r="AH17" t="s">
+        <v>114</v>
+      </c>
+      <c r="AI17" t="s">
+        <v>113</v>
+      </c>
+      <c r="AJ17" t="s">
+        <v>113</v>
+      </c>
+      <c r="AK17" t="s">
+        <v>113</v>
+      </c>
+      <c r="AL17" t="s">
+        <v>113</v>
+      </c>
+      <c r="AM17" t="s">
+        <v>113</v>
+      </c>
+      <c r="AN17">
+        <v>-9.01</v>
+      </c>
+      <c r="AO17">
+        <v>0</v>
+      </c>
+      <c r="AP17">
+        <v>0</v>
+      </c>
+      <c r="AQ17">
+        <v>0</v>
+      </c>
+      <c r="AR17">
+        <v>1</v>
+      </c>
+      <c r="AS17">
+        <v>0</v>
+      </c>
+      <c r="AT17">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="AU17">
+        <v>0</v>
+      </c>
+      <c r="AV17">
+        <v>1</v>
+      </c>
+      <c r="AW17">
+        <v>1</v>
+      </c>
+      <c r="AX17">
+        <v>6.33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>163</v>
+      </c>
+      <c r="B18" t="s">
+        <v>161</v>
+      </c>
+      <c r="C18" t="s">
+        <v>162</v>
+      </c>
+      <c r="D18">
+        <v>536.61</v>
+      </c>
+      <c r="E18">
+        <v>38</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0.82</v>
+      </c>
+      <c r="H18">
+        <v>6</v>
+      </c>
+      <c r="I18">
+        <v>10</v>
+      </c>
+      <c r="J18">
+        <v>4</v>
+      </c>
+      <c r="K18">
+        <v>133.72</v>
+      </c>
+      <c r="L18">
+        <v>159.82</v>
+      </c>
+      <c r="M18">
+        <v>2.65</v>
+      </c>
+      <c r="N18">
+        <v>1.02</v>
+      </c>
+      <c r="O18">
+        <v>0.88</v>
+      </c>
+      <c r="P18">
+        <v>0.84</v>
+      </c>
+      <c r="Q18">
+        <v>1.69</v>
+      </c>
+      <c r="R18">
+        <v>1.41</v>
+      </c>
+      <c r="S18">
+        <v>-3.41</v>
+      </c>
+      <c r="T18" s="3">
+        <v>0.20699999999999999</v>
+      </c>
+      <c r="U18" s="3">
+        <v>3.86E-4</v>
+      </c>
+      <c r="V18" t="s">
+        <v>118</v>
+      </c>
+      <c r="W18">
+        <v>-3.97</v>
+      </c>
+      <c r="X18" s="3">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="Y18" s="3">
+        <v>1.08E-4</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>118</v>
+      </c>
+      <c r="AA18">
+        <v>-2.12</v>
+      </c>
+      <c r="AB18" s="3">
+        <v>4.09</v>
+      </c>
+      <c r="AC18" s="6">
+        <v>4.09</v>
+      </c>
+      <c r="AD18" s="3">
+        <v>7.62E-3</v>
+      </c>
+      <c r="AE18" t="s">
+        <v>118</v>
+      </c>
+      <c r="AF18" t="s">
+        <v>131</v>
+      </c>
+      <c r="AG18" t="s">
+        <v>113</v>
+      </c>
+      <c r="AH18" t="s">
+        <v>114</v>
+      </c>
+      <c r="AI18" t="s">
+        <v>113</v>
+      </c>
+      <c r="AJ18" t="s">
+        <v>113</v>
+      </c>
+      <c r="AK18" t="s">
+        <v>113</v>
+      </c>
+      <c r="AL18" t="s">
+        <v>113</v>
+      </c>
+      <c r="AM18" t="s">
+        <v>114</v>
+      </c>
+      <c r="AN18">
+        <v>-8.85</v>
+      </c>
+      <c r="AO18">
+        <v>1</v>
+      </c>
+      <c r="AP18">
+        <v>3</v>
+      </c>
+      <c r="AQ18">
+        <v>1</v>
+      </c>
+      <c r="AR18">
+        <v>1</v>
+      </c>
+      <c r="AS18">
+        <v>1</v>
+      </c>
+      <c r="AT18">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="AU18">
+        <v>0</v>
+      </c>
+      <c r="AV18">
+        <v>1</v>
+      </c>
+      <c r="AW18">
+        <v>1</v>
+      </c>
+      <c r="AX18">
+        <v>7.04</v>
+      </c>
+    </row>
+    <row r="19" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>712</v>
+      </c>
+      <c r="B19" t="s">
+        <v>164</v>
+      </c>
+      <c r="C19" t="s">
+        <v>156</v>
+      </c>
+      <c r="D19">
+        <v>394.42</v>
+      </c>
+      <c r="E19">
+        <v>28</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0.8</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <v>8</v>
+      </c>
+      <c r="J19">
+        <v>3</v>
+      </c>
+      <c r="K19">
+        <v>93.87</v>
+      </c>
+      <c r="L19">
+        <v>122.52</v>
+      </c>
+      <c r="M19">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>-0.11</v>
+      </c>
+      <c r="P19">
+        <v>0.79</v>
+      </c>
+      <c r="Q19">
+        <v>0.47</v>
+      </c>
+      <c r="R19">
+        <v>0.64</v>
+      </c>
+      <c r="S19">
+        <v>-2.2200000000000002</v>
+      </c>
+      <c r="T19" s="3">
+        <v>2.38</v>
+      </c>
+      <c r="U19" s="3">
+        <v>6.0299999999999998E-3</v>
+      </c>
+      <c r="V19" t="s">
+        <v>118</v>
+      </c>
+      <c r="W19">
+        <v>-2.12</v>
+      </c>
+      <c r="X19" s="3">
+        <v>2.96</v>
+      </c>
+      <c r="Y19" s="3">
+        <v>7.5100000000000002E-3</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>118</v>
+      </c>
+      <c r="AA19">
+        <v>-0.93</v>
+      </c>
+      <c r="AB19" s="3">
+        <v>46.1</v>
+      </c>
+      <c r="AC19" s="6">
+        <v>46.1</v>
+      </c>
+      <c r="AD19" s="3">
+        <v>0.11700000000000001</v>
+      </c>
+      <c r="AE19" t="s">
+        <v>118</v>
+      </c>
+      <c r="AF19" t="s">
+        <v>112</v>
+      </c>
+      <c r="AG19" t="s">
+        <v>113</v>
+      </c>
+      <c r="AH19" t="s">
+        <v>114</v>
+      </c>
+      <c r="AI19" t="s">
+        <v>113</v>
+      </c>
+      <c r="AJ19" t="s">
+        <v>113</v>
+      </c>
+      <c r="AK19" t="s">
+        <v>113</v>
+      </c>
+      <c r="AL19" t="s">
+        <v>113</v>
+      </c>
+      <c r="AM19" t="s">
+        <v>113</v>
+      </c>
+      <c r="AN19">
+        <v>-8.7100000000000009</v>
+      </c>
+      <c r="AO19">
+        <v>0</v>
+      </c>
+      <c r="AP19">
+        <v>0</v>
+      </c>
+      <c r="AQ19">
+        <v>0</v>
+      </c>
+      <c r="AR19">
+        <v>0</v>
+      </c>
+      <c r="AS19">
+        <v>0</v>
+      </c>
+      <c r="AT19">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="AU19">
+        <v>0</v>
+      </c>
+      <c r="AV19">
+        <v>1</v>
+      </c>
+      <c r="AW19">
+        <v>1</v>
+      </c>
+      <c r="AX19">
+        <v>6.04</v>
+      </c>
+    </row>
+    <row r="20" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>711</v>
+      </c>
+      <c r="B20" t="s">
+        <v>710</v>
+      </c>
+      <c r="C20" t="s">
+        <v>709</v>
+      </c>
+      <c r="D20">
+        <v>436.45</v>
+      </c>
+      <c r="E20">
+        <v>31</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0.77</v>
+      </c>
+      <c r="H20">
+        <v>2</v>
+      </c>
+      <c r="I20">
+        <v>9</v>
+      </c>
+      <c r="J20">
+        <v>3</v>
+      </c>
+      <c r="K20">
+        <v>103.68</v>
+      </c>
+      <c r="L20">
+        <v>139.59</v>
+      </c>
+      <c r="M20">
+        <v>1.9</v>
+      </c>
+      <c r="N20">
+        <v>-0.33</v>
+      </c>
+      <c r="O20">
+        <v>-0.28999999999999998</v>
+      </c>
+      <c r="P20">
+        <v>0.37</v>
+      </c>
+      <c r="Q20">
+        <v>0.34</v>
+      </c>
+      <c r="R20">
+        <v>0.4</v>
+      </c>
+      <c r="S20">
+        <v>-2.21</v>
+      </c>
+      <c r="T20" s="3">
+        <v>2.72</v>
+      </c>
+      <c r="U20" s="3">
+        <v>6.2199999999999998E-3</v>
+      </c>
+      <c r="V20" t="s">
+        <v>118</v>
+      </c>
+      <c r="W20">
+        <v>-2.14</v>
+      </c>
+      <c r="X20" s="3">
+        <v>3.16</v>
+      </c>
+      <c r="Y20" s="3">
+        <v>7.2399999999999999E-3</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>118</v>
+      </c>
+      <c r="AA20">
+        <v>-1.1200000000000001</v>
+      </c>
+      <c r="AB20" s="3">
+        <v>33</v>
+      </c>
+      <c r="AC20" s="6">
+        <v>33</v>
+      </c>
+      <c r="AD20" s="3">
+        <v>7.5499999999999998E-2</v>
+      </c>
+      <c r="AE20" t="s">
+        <v>118</v>
+      </c>
+      <c r="AF20" t="s">
+        <v>131</v>
+      </c>
+      <c r="AG20" t="s">
+        <v>113</v>
+      </c>
+      <c r="AH20" t="s">
+        <v>114</v>
+      </c>
+      <c r="AI20" t="s">
+        <v>113</v>
+      </c>
+      <c r="AJ20" t="s">
+        <v>113</v>
+      </c>
+      <c r="AK20" t="s">
+        <v>113</v>
+      </c>
+      <c r="AL20" t="s">
+        <v>113</v>
+      </c>
+      <c r="AM20" t="s">
+        <v>113</v>
+      </c>
+      <c r="AN20">
+        <v>-9.1999999999999993</v>
+      </c>
+      <c r="AO20">
+        <v>0</v>
+      </c>
+      <c r="AP20">
+        <v>0</v>
+      </c>
+      <c r="AQ20">
+        <v>0</v>
+      </c>
+      <c r="AR20">
+        <v>1</v>
+      </c>
+      <c r="AS20">
+        <v>0</v>
+      </c>
+      <c r="AT20">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="AU20">
+        <v>0</v>
+      </c>
+      <c r="AV20">
+        <v>1</v>
+      </c>
+      <c r="AW20">
+        <v>1</v>
+      </c>
+      <c r="AX20">
+        <v>6.21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>708</v>
+      </c>
+      <c r="B21" t="s">
+        <v>707</v>
+      </c>
+      <c r="C21" t="s">
+        <v>704</v>
+      </c>
+      <c r="D21">
+        <v>438.47</v>
+      </c>
+      <c r="E21">
+        <v>31</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0.82</v>
+      </c>
+      <c r="H21">
+        <v>2</v>
+      </c>
+      <c r="I21">
+        <v>9</v>
+      </c>
+      <c r="J21">
+        <v>4</v>
+      </c>
+      <c r="K21">
+        <v>104.64</v>
+      </c>
+      <c r="L21">
+        <v>142.75</v>
+      </c>
+      <c r="M21">
+        <v>2.72</v>
+      </c>
+      <c r="N21">
+        <v>-0.67</v>
+      </c>
+      <c r="O21">
+        <v>-0.5</v>
+      </c>
+      <c r="P21">
+        <v>0.46</v>
+      </c>
+      <c r="Q21">
+        <v>-0.24</v>
+      </c>
+      <c r="R21">
+        <v>0.35</v>
+      </c>
+      <c r="S21">
+        <v>-2</v>
+      </c>
+      <c r="T21" s="3">
+        <v>4.34</v>
+      </c>
+      <c r="U21" s="3">
+        <v>9.9000000000000008E-3</v>
+      </c>
+      <c r="V21" t="s">
+        <v>118</v>
+      </c>
+      <c r="W21">
+        <v>-1.85</v>
+      </c>
+      <c r="X21" s="3">
+        <v>6.14</v>
+      </c>
+      <c r="Y21" s="3">
+        <v>1.4E-2</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>130</v>
+      </c>
+      <c r="AA21">
+        <v>-0.43</v>
+      </c>
+      <c r="AB21" s="3">
+        <v>164</v>
+      </c>
+      <c r="AC21" s="6">
+        <v>164</v>
+      </c>
+      <c r="AD21" s="3">
+        <v>0.375</v>
+      </c>
+      <c r="AE21" t="s">
+        <v>118</v>
+      </c>
+      <c r="AF21" t="s">
+        <v>131</v>
+      </c>
+      <c r="AG21" t="s">
+        <v>113</v>
+      </c>
+      <c r="AH21" t="s">
+        <v>114</v>
+      </c>
+      <c r="AI21" t="s">
+        <v>113</v>
+      </c>
+      <c r="AJ21" t="s">
+        <v>113</v>
+      </c>
+      <c r="AK21" t="s">
+        <v>113</v>
+      </c>
+      <c r="AL21" t="s">
+        <v>113</v>
+      </c>
+      <c r="AM21" t="s">
+        <v>113</v>
+      </c>
+      <c r="AN21">
+        <v>-9.4499999999999993</v>
+      </c>
+      <c r="AO21">
+        <v>0</v>
+      </c>
+      <c r="AP21">
+        <v>1</v>
+      </c>
+      <c r="AQ21">
+        <v>1</v>
+      </c>
+      <c r="AR21">
+        <v>1</v>
+      </c>
+      <c r="AS21">
+        <v>0</v>
+      </c>
+      <c r="AT21">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="AU21">
+        <v>0</v>
+      </c>
+      <c r="AV21">
+        <v>2</v>
+      </c>
+      <c r="AW21">
+        <v>1</v>
+      </c>
+      <c r="AX21">
+        <v>6.32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>706</v>
+      </c>
+      <c r="B22" t="s">
+        <v>705</v>
+      </c>
+      <c r="C22" t="s">
+        <v>704</v>
+      </c>
+      <c r="D22">
+        <v>438.47</v>
+      </c>
+      <c r="E22">
+        <v>31</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0.82</v>
+      </c>
+      <c r="H22">
+        <v>2</v>
+      </c>
+      <c r="I22">
+        <v>9</v>
+      </c>
+      <c r="J22">
+        <v>4</v>
+      </c>
+      <c r="K22">
+        <v>104.64</v>
+      </c>
+      <c r="L22">
+        <v>142.75</v>
+      </c>
+      <c r="M22">
+        <v>2.4</v>
+      </c>
+      <c r="N22">
+        <v>-0.83</v>
+      </c>
+      <c r="O22">
+        <v>-0.36</v>
+      </c>
+      <c r="P22">
+        <v>0.46</v>
+      </c>
+      <c r="Q22">
+        <v>0.15</v>
+      </c>
+      <c r="R22">
+        <v>0.36</v>
+      </c>
+      <c r="S22">
+        <v>-1.9</v>
+      </c>
+      <c r="T22" s="3">
+        <v>5.47</v>
+      </c>
+      <c r="U22" s="3">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="V22" t="s">
+        <v>130</v>
+      </c>
+      <c r="W22">
+        <v>-1.69</v>
+      </c>
+      <c r="X22" s="3">
+        <v>9</v>
+      </c>
+      <c r="Y22" s="3">
+        <v>2.0500000000000001E-2</v>
+      </c>
+      <c r="Z22" t="s">
+        <v>130</v>
+      </c>
+      <c r="AA22">
+        <v>-0.88</v>
+      </c>
+      <c r="AB22" s="3">
+        <v>58.5</v>
+      </c>
+      <c r="AC22" s="6">
+        <v>58.5</v>
+      </c>
+      <c r="AD22" s="3">
+        <v>0.13300000000000001</v>
+      </c>
+      <c r="AE22" t="s">
+        <v>118</v>
+      </c>
+      <c r="AF22" t="s">
+        <v>131</v>
+      </c>
+      <c r="AG22" t="s">
+        <v>113</v>
+      </c>
+      <c r="AH22" t="s">
+        <v>114</v>
+      </c>
+      <c r="AI22" t="s">
+        <v>113</v>
+      </c>
+      <c r="AJ22" t="s">
+        <v>113</v>
+      </c>
+      <c r="AK22" t="s">
+        <v>113</v>
+      </c>
+      <c r="AL22" t="s">
+        <v>113</v>
+      </c>
+      <c r="AM22" t="s">
+        <v>113</v>
+      </c>
+      <c r="AN22">
+        <v>-9.56</v>
+      </c>
+      <c r="AO22">
+        <v>0</v>
+      </c>
+      <c r="AP22">
+        <v>0</v>
+      </c>
+      <c r="AQ22">
+        <v>1</v>
+      </c>
+      <c r="AR22">
+        <v>1</v>
+      </c>
+      <c r="AS22">
+        <v>0</v>
+      </c>
+      <c r="AT22">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="AU22">
+        <v>0</v>
+      </c>
+      <c r="AV22">
+        <v>2</v>
+      </c>
+      <c r="AW22">
+        <v>1</v>
+      </c>
+      <c r="AX22">
+        <v>6.31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>703</v>
+      </c>
+      <c r="B23" t="s">
+        <v>702</v>
+      </c>
+      <c r="C23" t="s">
+        <v>156</v>
+      </c>
+      <c r="D23">
+        <v>394.42</v>
+      </c>
+      <c r="E23">
+        <v>28</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0.8</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>8</v>
+      </c>
+      <c r="J23">
+        <v>4</v>
+      </c>
+      <c r="K23">
+        <v>93.95</v>
+      </c>
+      <c r="L23">
+        <v>133.52000000000001</v>
+      </c>
+      <c r="M23">
+        <v>1.58</v>
+      </c>
+      <c r="N23">
+        <v>-0.91</v>
+      </c>
+      <c r="O23">
+        <v>-0.86</v>
+      </c>
+      <c r="P23">
+        <v>-0.02</v>
+      </c>
+      <c r="Q23">
+        <v>-0.14000000000000001</v>
+      </c>
+      <c r="R23">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="S23">
+        <v>-1.71</v>
+      </c>
+      <c r="T23" s="3">
+        <v>7.65</v>
+      </c>
+      <c r="U23" s="3">
+        <v>1.9400000000000001E-2</v>
+      </c>
+      <c r="V23" t="s">
+        <v>130</v>
+      </c>
+      <c r="W23">
+        <v>-1.41</v>
+      </c>
+      <c r="X23" s="3">
+        <v>15.3</v>
+      </c>
+      <c r="Y23" s="3">
+        <v>3.8800000000000001E-2</v>
+      </c>
+      <c r="Z23" t="s">
+        <v>130</v>
+      </c>
+      <c r="AA23">
+        <v>-0.51</v>
+      </c>
+      <c r="AB23" s="3">
+        <v>122</v>
+      </c>
+      <c r="AC23" s="6">
+        <v>122</v>
+      </c>
+      <c r="AD23" s="3">
+        <v>0.31</v>
+      </c>
+      <c r="AE23" t="s">
+        <v>118</v>
+      </c>
+      <c r="AF23" t="s">
+        <v>112</v>
+      </c>
+      <c r="AG23" t="s">
+        <v>113</v>
+      </c>
+      <c r="AH23" t="s">
+        <v>114</v>
+      </c>
+      <c r="AI23" t="s">
+        <v>113</v>
+      </c>
+      <c r="AJ23" t="s">
+        <v>113</v>
+      </c>
+      <c r="AK23" t="s">
+        <v>113</v>
+      </c>
+      <c r="AL23" t="s">
+        <v>113</v>
+      </c>
+      <c r="AM23" t="s">
+        <v>113</v>
+      </c>
+      <c r="AN23">
+        <v>-9.35</v>
+      </c>
+      <c r="AO23">
+        <v>0</v>
+      </c>
+      <c r="AP23">
+        <v>1</v>
+      </c>
+      <c r="AQ23">
+        <v>0</v>
+      </c>
+      <c r="AR23">
+        <v>1</v>
+      </c>
+      <c r="AS23">
+        <v>0</v>
+      </c>
+      <c r="AT23">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="AU23">
+        <v>0</v>
+      </c>
+      <c r="AV23">
+        <v>0</v>
+      </c>
+      <c r="AW23">
+        <v>1</v>
+      </c>
+      <c r="AX23">
+        <v>6.01</v>
+      </c>
+    </row>
+    <row r="24" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>701</v>
+      </c>
+      <c r="B24" t="s">
+        <v>700</v>
+      </c>
+      <c r="C24" t="s">
+        <v>156</v>
+      </c>
+      <c r="D24">
+        <v>394.42</v>
+      </c>
+      <c r="E24">
+        <v>28</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0.8</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>8</v>
+      </c>
+      <c r="J24">
+        <v>4</v>
+      </c>
+      <c r="K24">
+        <v>93.95</v>
+      </c>
+      <c r="L24">
+        <v>133.52000000000001</v>
+      </c>
+      <c r="M24">
+        <v>1.43</v>
+      </c>
+      <c r="N24">
+        <v>-0.91</v>
+      </c>
+      <c r="O24">
+        <v>-0.86</v>
+      </c>
+      <c r="P24">
+        <v>-0.02</v>
+      </c>
+      <c r="Q24">
+        <v>-0.14000000000000001</v>
+      </c>
+      <c r="R24">
+        <v>-0.1</v>
+      </c>
+      <c r="S24">
+        <v>-1.71</v>
+      </c>
+      <c r="T24" s="3">
+        <v>7.65</v>
+      </c>
+      <c r="U24" s="3">
+        <v>1.9400000000000001E-2</v>
+      </c>
+      <c r="V24" t="s">
+        <v>130</v>
+      </c>
+      <c r="W24">
+        <v>-1.41</v>
+      </c>
+      <c r="X24" s="3">
+        <v>15.3</v>
+      </c>
+      <c r="Y24" s="3">
+        <v>3.8800000000000001E-2</v>
+      </c>
+      <c r="Z24" t="s">
+        <v>130</v>
+      </c>
+      <c r="AA24">
+        <v>-0.51</v>
+      </c>
+      <c r="AB24" s="3">
+        <v>122</v>
+      </c>
+      <c r="AC24" s="6">
+        <v>122</v>
+      </c>
+      <c r="AD24" s="3">
+        <v>0.31</v>
+      </c>
+      <c r="AE24" t="s">
+        <v>118</v>
+      </c>
+      <c r="AF24" t="s">
+        <v>112</v>
+      </c>
+      <c r="AG24" t="s">
+        <v>113</v>
+      </c>
+      <c r="AH24" t="s">
+        <v>114</v>
+      </c>
+      <c r="AI24" t="s">
+        <v>113</v>
+      </c>
+      <c r="AJ24" t="s">
+        <v>113</v>
+      </c>
+      <c r="AK24" t="s">
+        <v>113</v>
+      </c>
+      <c r="AL24" t="s">
+        <v>113</v>
+      </c>
+      <c r="AM24" t="s">
+        <v>113</v>
+      </c>
+      <c r="AN24">
+        <v>-9.35</v>
+      </c>
+      <c r="AO24">
+        <v>0</v>
+      </c>
+      <c r="AP24">
+        <v>1</v>
+      </c>
+      <c r="AQ24">
+        <v>0</v>
+      </c>
+      <c r="AR24">
+        <v>1</v>
+      </c>
+      <c r="AS24">
+        <v>0</v>
+      </c>
+      <c r="AT24">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="AU24">
+        <v>0</v>
+      </c>
+      <c r="AV24">
+        <v>0</v>
+      </c>
+      <c r="AW24">
+        <v>1</v>
+      </c>
+      <c r="AX24">
+        <v>6.01</v>
+      </c>
+    </row>
+    <row r="25" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>699</v>
+      </c>
+      <c r="B25" t="s">
+        <v>698</v>
+      </c>
+      <c r="C25" t="s">
+        <v>153</v>
+      </c>
+      <c r="D25">
+        <v>396.43</v>
+      </c>
+      <c r="E25">
+        <v>28</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0.85</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>8</v>
+      </c>
+      <c r="J25">
+        <v>5</v>
+      </c>
+      <c r="K25">
+        <v>94.91</v>
+      </c>
+      <c r="L25">
+        <v>136.68</v>
+      </c>
+      <c r="M25">
+        <v>1.86</v>
+      </c>
+      <c r="N25">
+        <v>-1.4</v>
+      </c>
+      <c r="O25">
+        <v>-0.93</v>
+      </c>
+      <c r="P25">
+        <v>0.08</v>
+      </c>
+      <c r="Q25">
+        <v>-0.34</v>
+      </c>
+      <c r="R25">
+        <v>-0.15</v>
+      </c>
+      <c r="S25">
+        <v>-1.42</v>
+      </c>
+      <c r="T25" s="3">
+        <v>15.2</v>
+      </c>
+      <c r="U25" s="3">
+        <v>3.8399999999999997E-2</v>
+      </c>
+      <c r="V25" t="s">
+        <v>130</v>
+      </c>
+      <c r="W25">
+        <v>-0.97</v>
+      </c>
+      <c r="X25" s="3">
+        <v>42.6</v>
+      </c>
+      <c r="Y25" s="3">
+        <v>0.107</v>
+      </c>
+      <c r="Z25" t="s">
+        <v>130</v>
+      </c>
+      <c r="AA25">
+        <v>-0.26</v>
+      </c>
+      <c r="AB25" s="3">
+        <v>217</v>
+      </c>
+      <c r="AC25" s="6">
+        <v>217</v>
+      </c>
+      <c r="AD25" s="3">
+        <v>0.54700000000000004</v>
+      </c>
+      <c r="AE25" t="s">
+        <v>118</v>
+      </c>
+      <c r="AF25" t="s">
+        <v>131</v>
+      </c>
+      <c r="AG25" t="s">
+        <v>113</v>
+      </c>
+      <c r="AH25" t="s">
+        <v>114</v>
+      </c>
+      <c r="AI25" t="s">
+        <v>113</v>
+      </c>
+      <c r="AJ25" t="s">
+        <v>113</v>
+      </c>
+      <c r="AK25" t="s">
+        <v>113</v>
+      </c>
+      <c r="AL25" t="s">
+        <v>113</v>
+      </c>
+      <c r="AM25" t="s">
+        <v>113</v>
+      </c>
+      <c r="AN25">
+        <v>-9.7100000000000009</v>
+      </c>
+      <c r="AO25">
+        <v>0</v>
+      </c>
+      <c r="AP25">
+        <v>1</v>
+      </c>
+      <c r="AQ25">
+        <v>0</v>
+      </c>
+      <c r="AR25">
+        <v>1</v>
+      </c>
+      <c r="AS25">
+        <v>0</v>
+      </c>
+      <c r="AT25">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="AU25">
+        <v>0</v>
+      </c>
+      <c r="AV25">
+        <v>1</v>
+      </c>
+      <c r="AW25">
+        <v>1</v>
+      </c>
+      <c r="AX25">
+        <v>6.1</v>
       </c>
     </row>
   </sheetData>
@@ -33355,4 +33425,350 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D38"/>
+  <sheetViews>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>719</v>
+      </c>
+      <c r="B3" t="s">
+        <v>720</v>
+      </c>
+      <c r="C3" t="s">
+        <v>721</v>
+      </c>
+      <c r="D3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>718</v>
+      </c>
+      <c r="B4">
+        <v>0.13239999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
+        <v>722</v>
+      </c>
+      <c r="B5">
+        <v>7.1999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
+        <v>723</v>
+      </c>
+      <c r="B6" t="s">
+        <v>724</v>
+      </c>
+      <c r="C6">
+        <v>0.1376</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
+        <v>725</v>
+      </c>
+      <c r="B7">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
+        <v>726</v>
+      </c>
+      <c r="B8" t="s">
+        <v>727</v>
+      </c>
+      <c r="C8">
+        <v>5.3199999999999997E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
+        <v>728</v>
+      </c>
+      <c r="B9" t="s">
+        <v>727</v>
+      </c>
+      <c r="C9">
+        <v>0.19750000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
+        <v>729</v>
+      </c>
+      <c r="B10">
+        <v>0.46100000000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
+        <v>730</v>
+      </c>
+      <c r="B11">
+        <v>0.14430000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
+        <v>731</v>
+      </c>
+      <c r="B12" t="s">
+        <v>732</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="8"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="9" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="9" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="9" t="s">
+        <v>719</v>
+      </c>
+      <c r="B16" t="s">
+        <v>720</v>
+      </c>
+      <c r="C16" t="s">
+        <v>721</v>
+      </c>
+      <c r="D16">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="9" t="s">
+        <v>718</v>
+      </c>
+      <c r="B17">
+        <v>4.3395999999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="9" t="s">
+        <v>722</v>
+      </c>
+      <c r="B18">
+        <v>3.6349999999999998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="9" t="s">
+        <v>723</v>
+      </c>
+      <c r="B19" t="s">
+        <v>724</v>
+      </c>
+      <c r="C19">
+        <v>2.7888999999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="9" t="s">
+        <v>725</v>
+      </c>
+      <c r="B20">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="9" t="s">
+        <v>726</v>
+      </c>
+      <c r="B21" t="s">
+        <v>727</v>
+      </c>
+      <c r="C21">
+        <v>2.57</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="9" t="s">
+        <v>728</v>
+      </c>
+      <c r="B22" t="s">
+        <v>727</v>
+      </c>
+      <c r="C22">
+        <v>4.8525</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="9" t="s">
+        <v>729</v>
+      </c>
+      <c r="B23">
+        <v>12.95</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="9" t="s">
+        <v>730</v>
+      </c>
+      <c r="B24">
+        <v>2.2825000000000002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="9" t="s">
+        <v>731</v>
+      </c>
+      <c r="B25" t="s">
+        <v>732</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="8"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="9" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="9" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="9" t="s">
+        <v>719</v>
+      </c>
+      <c r="B29" t="s">
+        <v>720</v>
+      </c>
+      <c r="C29" t="s">
+        <v>721</v>
+      </c>
+      <c r="D29">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="9" t="s">
+        <v>718</v>
+      </c>
+      <c r="B30">
+        <v>0.71260000000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="9" t="s">
+        <v>722</v>
+      </c>
+      <c r="B31">
+        <v>0.75049999999999994</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="9" t="s">
+        <v>723</v>
+      </c>
+      <c r="B32" t="s">
+        <v>724</v>
+      </c>
+      <c r="C32">
+        <v>0.123</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="9" t="s">
+        <v>725</v>
+      </c>
+      <c r="B33">
+        <v>0.32300000000000001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="9" t="s">
+        <v>726</v>
+      </c>
+      <c r="B34" t="s">
+        <v>727</v>
+      </c>
+      <c r="C34">
+        <v>0.67979999999999996</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="9" t="s">
+        <v>728</v>
+      </c>
+      <c r="B35" t="s">
+        <v>727</v>
+      </c>
+      <c r="C35">
+        <v>0.78480000000000005</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="9" t="s">
+        <v>729</v>
+      </c>
+      <c r="B36">
+        <v>0.84899999999999998</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="9" t="s">
+        <v>730</v>
+      </c>
+      <c r="B37">
+        <v>0.105</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="9" t="s">
+        <v>731</v>
+      </c>
+      <c r="B38" t="s">
+        <v>732</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/cuasinoides.xlsx
+++ b/cuasinoides.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="cuasinoides" sheetId="2" r:id="rId1"/>
@@ -12,10 +12,9 @@
     <sheet name="pkcsm" sheetId="5" r:id="rId3"/>
     <sheet name="swissadme" sheetId="4" r:id="rId4"/>
     <sheet name="act_biologic" sheetId="7" r:id="rId5"/>
-    <sheet name="Target" sheetId="8" r:id="rId6"/>
+    <sheet name="target" sheetId="8" r:id="rId6"/>
     <sheet name="protox" sheetId="9" r:id="rId7"/>
     <sheet name="Hoja1" sheetId="1" r:id="rId8"/>
-    <sheet name="Hoja2" sheetId="10" r:id="rId9"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4213" uniqueCount="733">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4899" uniqueCount="867">
   <si>
     <t>Eurycoma longifolia </t>
   </si>
@@ -2261,68 +2260,470 @@
     <t>Solubilidad (mg/mL)</t>
   </si>
   <si>
-    <t>OCT2 Probability:</t>
-  </si>
-  <si>
-    <t>------------------------------</t>
-  </si>
-  <si>
-    <t>Clearance Predictions:</t>
-  </si>
-  <si>
-    <t>Half-Life Probability:</t>
-  </si>
-  <si>
-    <t>Mean:</t>
-  </si>
-  <si>
-    <t>Sample</t>
-  </si>
-  <si>
-    <t>size</t>
-  </si>
-  <si>
-    <t>(n):</t>
-  </si>
-  <si>
-    <t>Median:</t>
-  </si>
-  <si>
-    <t>Standard</t>
-  </si>
-  <si>
-    <t>deviation:</t>
-  </si>
-  <si>
-    <t>Minimum:</t>
-  </si>
-  <si>
-    <t>25th</t>
-  </si>
-  <si>
-    <t>percentile:</t>
-  </si>
-  <si>
-    <t>75th</t>
-  </si>
-  <si>
-    <t>Maximum:</t>
-  </si>
-  <si>
-    <t>IQR:</t>
-  </si>
-  <si>
-    <t>Missing</t>
-  </si>
-  <si>
-    <t>values:</t>
+    <t>0,914</t>
+  </si>
+  <si>
+    <t>0,005</t>
+  </si>
+  <si>
+    <t>Antineoplastic</t>
+  </si>
+  <si>
+    <t>0,732</t>
+  </si>
+  <si>
+    <t>0,013</t>
+  </si>
+  <si>
+    <t>Immunosuppressant</t>
+  </si>
+  <si>
+    <t>Pa</t>
+  </si>
+  <si>
+    <t>Pi</t>
+  </si>
+  <si>
+    <t>Activity</t>
+  </si>
+  <si>
+    <t>0,951</t>
+  </si>
+  <si>
+    <t>0,004</t>
+  </si>
+  <si>
+    <t>0,739</t>
+  </si>
+  <si>
+    <t>Antineoplastic (breast cancer)</t>
+  </si>
+  <si>
+    <t>0,712</t>
+  </si>
+  <si>
+    <t>Antineoplastic (lung cancer)</t>
+  </si>
+  <si>
+    <t>0,718</t>
+  </si>
+  <si>
+    <t>0,049</t>
+  </si>
+  <si>
+    <t>Testosterone 17beta-dehydrogenase (NADP+) inhibitor</t>
+  </si>
+  <si>
+    <t>0,707</t>
+  </si>
+  <si>
+    <t>0,043</t>
+  </si>
+  <si>
+    <t>Antieczematic</t>
+  </si>
+  <si>
+    <t>0,937</t>
+  </si>
+  <si>
+    <t>0,791</t>
+  </si>
+  <si>
+    <t>0,020</t>
+  </si>
+  <si>
+    <t>0,728</t>
+  </si>
+  <si>
+    <t>0,955</t>
+  </si>
+  <si>
+    <t>0,843</t>
+  </si>
+  <si>
+    <t>0,001</t>
+  </si>
+  <si>
+    <t>Polarisation stimulant</t>
+  </si>
+  <si>
+    <t>0,846</t>
+  </si>
+  <si>
+    <t>0,010</t>
+  </si>
+  <si>
+    <t>0,801</t>
+  </si>
+  <si>
+    <t>0,771</t>
+  </si>
+  <si>
+    <t>0,002</t>
+  </si>
+  <si>
+    <t>Myc inhibitor</t>
+  </si>
+  <si>
+    <t>0,777</t>
+  </si>
+  <si>
+    <t>0,009</t>
+  </si>
+  <si>
+    <t>Apoptosis agonist</t>
+  </si>
+  <si>
+    <t>0,772</t>
+  </si>
+  <si>
+    <t>0,008</t>
+  </si>
+  <si>
+    <t>Immunosuppressan</t>
+  </si>
+  <si>
+    <t>0,984</t>
+  </si>
+  <si>
+    <t>0,982</t>
+  </si>
+  <si>
+    <t>Antileukemic</t>
+  </si>
+  <si>
+    <t>0,977</t>
+  </si>
+  <si>
+    <t>0,000</t>
+  </si>
+  <si>
+    <t>0,953</t>
+  </si>
+  <si>
+    <t>Cytostatic</t>
+  </si>
+  <si>
+    <t>0,912</t>
+  </si>
+  <si>
+    <t>Antiprotozoal (Plasmodium)</t>
+  </si>
+  <si>
+    <t>0,894</t>
+  </si>
+  <si>
+    <t>Transcription factor inhibitor</t>
+  </si>
+  <si>
+    <t>0,896</t>
+  </si>
+  <si>
+    <t>0,864</t>
+  </si>
+  <si>
+    <t>0,828</t>
+  </si>
+  <si>
+    <t>Antineoplastic (multiple myeloma)</t>
+  </si>
+  <si>
+    <t>0,745</t>
+  </si>
+  <si>
+    <t>0,003</t>
+  </si>
+  <si>
+    <t>Antineoplastic (cervical cancer)</t>
+  </si>
+  <si>
+    <t>0,751</t>
+  </si>
+  <si>
+    <t>0,030</t>
+  </si>
+  <si>
+    <t>0,726</t>
+  </si>
+  <si>
+    <t>0,014</t>
+  </si>
+  <si>
+    <t>0,968</t>
+  </si>
+  <si>
+    <t>0,961</t>
+  </si>
+  <si>
+    <t>0,954</t>
+  </si>
+  <si>
+    <t>Hypoxia inducible factor 1 alpha inhibitor</t>
+  </si>
+  <si>
+    <t>0,947</t>
+  </si>
+  <si>
+    <t>0,900</t>
+  </si>
+  <si>
+    <t>0,877</t>
+  </si>
+  <si>
+    <t>CDP-glycerol glycerophosphotransferase inhibitor</t>
+  </si>
+  <si>
+    <t>0,832</t>
+  </si>
+  <si>
+    <t>0,006</t>
+  </si>
+  <si>
+    <t>0,978</t>
+  </si>
+  <si>
+    <t>0,962</t>
+  </si>
+  <si>
+    <t>0,904</t>
+  </si>
+  <si>
+    <t>0,837</t>
+  </si>
+  <si>
+    <t>0,821</t>
+  </si>
+  <si>
+    <t>0,944</t>
+  </si>
+  <si>
+    <t>0,943</t>
+  </si>
+  <si>
+    <t>0,935</t>
+  </si>
+  <si>
+    <t>0,921</t>
+  </si>
+  <si>
+    <t>0,969</t>
+  </si>
+  <si>
+    <t>0,761</t>
+  </si>
+  <si>
+    <t>0,723</t>
+  </si>
+  <si>
+    <t>0,714</t>
+  </si>
+  <si>
+    <t>0,015</t>
+  </si>
+  <si>
+    <t>0,970</t>
+  </si>
+  <si>
+    <t>0,906</t>
+  </si>
+  <si>
+    <t>0,872</t>
+  </si>
+  <si>
+    <t>0,861</t>
+  </si>
+  <si>
+    <t>0,852</t>
+  </si>
+  <si>
+    <t>Transcription factor inhibito</t>
+  </si>
+  <si>
+    <t>0,988</t>
+  </si>
+  <si>
+    <t>0,927</t>
+  </si>
+  <si>
+    <t>0,874</t>
+  </si>
+  <si>
+    <t>0,835</t>
+  </si>
+  <si>
+    <t>0,808</t>
+  </si>
+  <si>
+    <t>0,960</t>
+  </si>
+  <si>
+    <t>0,746</t>
+  </si>
+  <si>
+    <t>0,011</t>
+  </si>
+  <si>
+    <t>0,702</t>
+  </si>
+  <si>
+    <t>0,986</t>
+  </si>
+  <si>
+    <t>0,976</t>
+  </si>
+  <si>
+    <t>0,973</t>
+  </si>
+  <si>
+    <t>0,917</t>
+  </si>
+  <si>
+    <t>0,880</t>
+  </si>
+  <si>
+    <t>0,863</t>
+  </si>
+  <si>
+    <t>0,817</t>
+  </si>
+  <si>
+    <t>0,990</t>
+  </si>
+  <si>
+    <t>0,985</t>
+  </si>
+  <si>
+    <t>0,974</t>
+  </si>
+  <si>
+    <t>0,938</t>
+  </si>
+  <si>
+    <t>0,855</t>
+  </si>
+  <si>
+    <t>0,842</t>
+  </si>
+  <si>
+    <t>0,815</t>
+  </si>
+  <si>
+    <t>0,993</t>
+  </si>
+  <si>
+    <t>0,936</t>
+  </si>
+  <si>
+    <t>0,889</t>
+  </si>
+  <si>
+    <t>0,862</t>
+  </si>
+  <si>
+    <t>0,964</t>
+  </si>
+  <si>
+    <t>0,967</t>
+  </si>
+  <si>
+    <t>0,963</t>
+  </si>
+  <si>
+    <t>0,942</t>
+  </si>
+  <si>
+    <t>0,854</t>
+  </si>
+  <si>
+    <t>0,836</t>
+  </si>
+  <si>
+    <t>0,946</t>
+  </si>
+  <si>
+    <t>0,859</t>
+  </si>
+  <si>
+    <t>0,856</t>
+  </si>
+  <si>
+    <t>0,826</t>
+  </si>
+  <si>
+    <t>0,884</t>
+  </si>
+  <si>
+    <t>0,992</t>
+  </si>
+  <si>
+    <t>0,987</t>
+  </si>
+  <si>
+    <t>0,920</t>
+  </si>
+  <si>
+    <t>0,873</t>
+  </si>
+  <si>
+    <t>0,840</t>
+  </si>
+  <si>
+    <t>0,981</t>
+  </si>
+  <si>
+    <t>0,901</t>
+  </si>
+  <si>
+    <t>0,875</t>
+  </si>
+  <si>
+    <t>0,860</t>
+  </si>
+  <si>
+    <t>0,822</t>
+  </si>
+  <si>
+    <t>0,972</t>
+  </si>
+  <si>
+    <t>0,925</t>
+  </si>
+  <si>
+    <t>0,908</t>
+  </si>
+  <si>
+    <t>0,814</t>
+  </si>
+  <si>
+    <t>0,784</t>
+  </si>
+  <si>
+    <t>0,991</t>
+  </si>
+  <si>
+    <t>0,965</t>
+  </si>
+  <si>
+    <t>0,931</t>
+  </si>
+  <si>
+    <t>0,871</t>
+  </si>
+  <si>
+    <t>0,012</t>
+  </si>
+  <si>
+    <t>0,802</t>
+  </si>
+  <si>
+    <t>0,710</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2354,12 +2755,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Consolas"/>
-      <family val="3"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2381,7 +2776,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2399,12 +2794,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2688,8 +3077,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12356,7 +12745,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:JS25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="CA1" workbookViewId="0">
+    <sheetView topLeftCell="CA1" workbookViewId="0">
       <selection activeCell="CB1" sqref="CB1"/>
     </sheetView>
   </sheetViews>
@@ -32970,10 +33359,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:A101"/>
+  <dimension ref="A1:D185"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:H101"/>
+    <sheetView tabSelected="1" topLeftCell="A166" workbookViewId="0">
+      <selection activeCell="A177" sqref="A177:A185"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32981,308 +33370,2599 @@
     <col min="1" max="1" width="31.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5"/>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="5"/>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="5"/>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="5"/>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="5"/>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" s="5"/>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" s="5"/>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" s="5"/>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="5"/>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="5"/>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="5"/>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="5"/>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="5"/>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="5"/>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="5"/>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="5"/>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="5"/>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="5"/>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="5"/>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="5"/>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="5"/>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="5"/>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="5"/>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" s="5"/>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="5"/>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="5"/>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="5"/>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="5"/>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" s="5"/>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" s="5"/>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" s="5"/>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" s="5"/>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" s="5"/>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" s="5"/>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" s="5"/>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" s="5"/>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" s="5"/>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" s="5"/>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" s="5"/>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" s="5"/>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" s="5"/>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" s="5"/>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" s="5"/>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" s="5"/>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" s="5"/>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" s="5"/>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" s="5"/>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" s="5"/>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57" s="5"/>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A58" s="5"/>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A59" s="5"/>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A60" s="5"/>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A61" s="5"/>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A62" s="5"/>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A63" s="5"/>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A64" s="5"/>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65" s="5"/>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A66" s="5"/>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A67" s="5"/>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A68" s="5"/>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A69" s="5"/>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A70" s="5"/>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A71" s="5"/>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A72" s="5"/>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A73" s="5"/>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A74" s="5"/>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A75" s="5"/>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A76" s="5"/>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A77" s="5"/>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A78" s="5"/>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A79" s="5"/>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A80" s="5"/>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A81" s="5"/>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A82" s="5"/>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A83" s="5"/>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A84" s="5"/>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A85" s="5"/>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A86" s="5"/>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A87" s="5"/>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A88" s="5"/>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A89" s="5"/>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A90" s="5"/>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A91" s="5"/>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A92" s="5"/>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A93" s="5"/>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A94" s="5"/>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A95" s="5"/>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A96" s="5"/>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A97" s="5"/>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A98" s="5"/>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A99" s="5"/>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A100" s="5"/>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A101" s="5"/>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" t="s">
+        <v>720</v>
+      </c>
+      <c r="C1" t="s">
+        <v>721</v>
+      </c>
+      <c r="D1" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" t="s">
+        <v>714</v>
+      </c>
+      <c r="C2" t="s">
+        <v>715</v>
+      </c>
+      <c r="D2" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" t="s">
+        <v>717</v>
+      </c>
+      <c r="C3" t="s">
+        <v>718</v>
+      </c>
+      <c r="D3" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" t="s">
+        <v>723</v>
+      </c>
+      <c r="C4" t="s">
+        <v>724</v>
+      </c>
+      <c r="D4" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" t="s">
+        <v>725</v>
+      </c>
+      <c r="C5" t="s">
+        <v>715</v>
+      </c>
+      <c r="D5" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" t="s">
+        <v>727</v>
+      </c>
+      <c r="C6" t="s">
+        <v>715</v>
+      </c>
+      <c r="D6" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" t="s">
+        <v>729</v>
+      </c>
+      <c r="C7" t="s">
+        <v>730</v>
+      </c>
+      <c r="D7" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" t="s">
+        <v>732</v>
+      </c>
+      <c r="C8" t="s">
+        <v>733</v>
+      </c>
+      <c r="D8" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" t="s">
+        <v>735</v>
+      </c>
+      <c r="C9" t="s">
+        <v>724</v>
+      </c>
+      <c r="D9" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" t="s">
+        <v>736</v>
+      </c>
+      <c r="C10" t="s">
+        <v>737</v>
+      </c>
+      <c r="D10" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" t="s">
+        <v>738</v>
+      </c>
+      <c r="C11" t="s">
+        <v>718</v>
+      </c>
+      <c r="D11" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" t="s">
+        <v>729</v>
+      </c>
+      <c r="C12" t="s">
+        <v>730</v>
+      </c>
+      <c r="D12" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" t="s">
+        <v>739</v>
+      </c>
+      <c r="C13" t="s">
+        <v>724</v>
+      </c>
+      <c r="D13" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" t="s">
+        <v>740</v>
+      </c>
+      <c r="C14" t="s">
+        <v>741</v>
+      </c>
+      <c r="D14" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" t="s">
+        <v>743</v>
+      </c>
+      <c r="C15" t="s">
+        <v>744</v>
+      </c>
+      <c r="D15" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" t="s">
+        <v>745</v>
+      </c>
+      <c r="C16" t="s">
+        <v>724</v>
+      </c>
+      <c r="D16" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" t="s">
+        <v>746</v>
+      </c>
+      <c r="C17" t="s">
+        <v>747</v>
+      </c>
+      <c r="D17" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" t="s">
+        <v>749</v>
+      </c>
+      <c r="C18" t="s">
+        <v>750</v>
+      </c>
+      <c r="D18" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" t="s">
+        <v>752</v>
+      </c>
+      <c r="C19" t="s">
+        <v>753</v>
+      </c>
+      <c r="D19" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" t="s">
+        <v>755</v>
+      </c>
+      <c r="C20" t="s">
+        <v>724</v>
+      </c>
+      <c r="D20" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" t="s">
+        <v>756</v>
+      </c>
+      <c r="C21" t="s">
+        <v>747</v>
+      </c>
+      <c r="D21" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" t="s">
+        <v>758</v>
+      </c>
+      <c r="C22" t="s">
+        <v>759</v>
+      </c>
+      <c r="D22" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" t="s">
+        <v>760</v>
+      </c>
+      <c r="C23" t="s">
+        <v>747</v>
+      </c>
+      <c r="D23" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" t="s">
+        <v>762</v>
+      </c>
+      <c r="C24" t="s">
+        <v>747</v>
+      </c>
+      <c r="D24" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25" t="s">
+        <v>764</v>
+      </c>
+      <c r="C25" t="s">
+        <v>747</v>
+      </c>
+      <c r="D25" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" t="s">
+        <v>766</v>
+      </c>
+      <c r="C26" t="s">
+        <v>724</v>
+      </c>
+      <c r="D26" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" t="s">
+        <v>767</v>
+      </c>
+      <c r="C27" t="s">
+        <v>741</v>
+      </c>
+      <c r="D27" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28" t="s">
+        <v>768</v>
+      </c>
+      <c r="C28" t="s">
+        <v>747</v>
+      </c>
+      <c r="D28" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29" t="s">
+        <v>770</v>
+      </c>
+      <c r="C29" t="s">
+        <v>771</v>
+      </c>
+      <c r="D29" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30" t="s">
+        <v>773</v>
+      </c>
+      <c r="C30" t="s">
+        <v>774</v>
+      </c>
+      <c r="D30" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>775</v>
+      </c>
+      <c r="C31" t="s">
+        <v>776</v>
+      </c>
+      <c r="D31" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>54</v>
+      </c>
+      <c r="B32" t="s">
+        <v>777</v>
+      </c>
+      <c r="C32" t="s">
+        <v>724</v>
+      </c>
+      <c r="D32" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>54</v>
+      </c>
+      <c r="B33" t="s">
+        <v>778</v>
+      </c>
+      <c r="C33" t="s">
+        <v>747</v>
+      </c>
+      <c r="D33" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>54</v>
+      </c>
+      <c r="B34" t="s">
+        <v>779</v>
+      </c>
+      <c r="C34" t="s">
+        <v>741</v>
+      </c>
+      <c r="D34" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>54</v>
+      </c>
+      <c r="B35" t="s">
+        <v>779</v>
+      </c>
+      <c r="C35" t="s">
+        <v>771</v>
+      </c>
+      <c r="D35" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>54</v>
+      </c>
+      <c r="B36" t="s">
+        <v>781</v>
+      </c>
+      <c r="C36" t="s">
+        <v>741</v>
+      </c>
+      <c r="D36" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>54</v>
+      </c>
+      <c r="B37" t="s">
+        <v>782</v>
+      </c>
+      <c r="C37" t="s">
+        <v>747</v>
+      </c>
+      <c r="D37" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>54</v>
+      </c>
+      <c r="B38" t="s">
+        <v>783</v>
+      </c>
+      <c r="C38" t="s">
+        <v>776</v>
+      </c>
+      <c r="D38" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>54</v>
+      </c>
+      <c r="B39" t="s">
+        <v>785</v>
+      </c>
+      <c r="C39" t="s">
+        <v>786</v>
+      </c>
+      <c r="D39" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B40" t="s">
+        <v>755</v>
+      </c>
+      <c r="C40" t="s">
+        <v>741</v>
+      </c>
+      <c r="D40" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B41" t="s">
+        <v>787</v>
+      </c>
+      <c r="C41" t="s">
+        <v>724</v>
+      </c>
+      <c r="D41" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B42" t="s">
+        <v>777</v>
+      </c>
+      <c r="C42" t="s">
+        <v>771</v>
+      </c>
+      <c r="D42" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B43" t="s">
+        <v>788</v>
+      </c>
+      <c r="C43" t="s">
+        <v>759</v>
+      </c>
+      <c r="D43" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B44" t="s">
+        <v>789</v>
+      </c>
+      <c r="C44" t="s">
+        <v>724</v>
+      </c>
+      <c r="D44" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B45" t="s">
+        <v>783</v>
+      </c>
+      <c r="C45" t="s">
+        <v>776</v>
+      </c>
+      <c r="D45" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B46" t="s">
+        <v>790</v>
+      </c>
+      <c r="C46" t="s">
+        <v>771</v>
+      </c>
+      <c r="D46" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B47" t="s">
+        <v>791</v>
+      </c>
+      <c r="C47" t="s">
+        <v>741</v>
+      </c>
+      <c r="D47" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>32</v>
+      </c>
+      <c r="B48" t="s">
+        <v>758</v>
+      </c>
+      <c r="C48" t="s">
+        <v>724</v>
+      </c>
+      <c r="D48" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>32</v>
+      </c>
+      <c r="B49" t="s">
+        <v>792</v>
+      </c>
+      <c r="C49" t="s">
+        <v>771</v>
+      </c>
+      <c r="D49" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>32</v>
+      </c>
+      <c r="B50" t="s">
+        <v>793</v>
+      </c>
+      <c r="C50" t="s">
+        <v>747</v>
+      </c>
+      <c r="D50" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>32</v>
+      </c>
+      <c r="B51" t="s">
+        <v>794</v>
+      </c>
+      <c r="C51" t="s">
+        <v>741</v>
+      </c>
+      <c r="D51" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>32</v>
+      </c>
+      <c r="B52" t="s">
+        <v>795</v>
+      </c>
+      <c r="C52" t="s">
+        <v>747</v>
+      </c>
+      <c r="D52" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>32</v>
+      </c>
+      <c r="B53" t="s">
+        <v>764</v>
+      </c>
+      <c r="C53" t="s">
+        <v>741</v>
+      </c>
+      <c r="D53" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>52</v>
+      </c>
+      <c r="B54" t="s">
+        <v>796</v>
+      </c>
+      <c r="C54" t="s">
+        <v>724</v>
+      </c>
+      <c r="D54" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>52</v>
+      </c>
+      <c r="B55" t="s">
+        <v>745</v>
+      </c>
+      <c r="C55" t="s">
+        <v>724</v>
+      </c>
+      <c r="D55" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>52</v>
+      </c>
+      <c r="B56" t="s">
+        <v>797</v>
+      </c>
+      <c r="C56" t="s">
+        <v>747</v>
+      </c>
+      <c r="D56" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>52</v>
+      </c>
+      <c r="B57" t="s">
+        <v>798</v>
+      </c>
+      <c r="C57" t="s">
+        <v>718</v>
+      </c>
+      <c r="D57" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>52</v>
+      </c>
+      <c r="B58" t="s">
+        <v>799</v>
+      </c>
+      <c r="C58" t="s">
+        <v>800</v>
+      </c>
+      <c r="D58" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>29</v>
+      </c>
+      <c r="B59" t="s">
+        <v>756</v>
+      </c>
+      <c r="C59" t="s">
+        <v>724</v>
+      </c>
+      <c r="D59" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>29</v>
+      </c>
+      <c r="B60" t="s">
+        <v>801</v>
+      </c>
+      <c r="C60" t="s">
+        <v>771</v>
+      </c>
+      <c r="D60" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>29</v>
+      </c>
+      <c r="B61" t="s">
+        <v>778</v>
+      </c>
+      <c r="C61" t="s">
+        <v>759</v>
+      </c>
+      <c r="D61" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>29</v>
+      </c>
+      <c r="B62" t="s">
+        <v>802</v>
+      </c>
+      <c r="C62" t="s">
+        <v>771</v>
+      </c>
+      <c r="D62" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>29</v>
+      </c>
+      <c r="B63" t="s">
+        <v>803</v>
+      </c>
+      <c r="C63" t="s">
+        <v>715</v>
+      </c>
+      <c r="D63" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>29</v>
+      </c>
+      <c r="B64" t="s">
+        <v>804</v>
+      </c>
+      <c r="C64" t="s">
+        <v>747</v>
+      </c>
+      <c r="D64" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>29</v>
+      </c>
+      <c r="B65" t="s">
+        <v>805</v>
+      </c>
+      <c r="C65" t="s">
+        <v>747</v>
+      </c>
+      <c r="D65" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>27</v>
+      </c>
+      <c r="B66" t="s">
+        <v>807</v>
+      </c>
+      <c r="C66" t="s">
+        <v>724</v>
+      </c>
+      <c r="D66" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>27</v>
+      </c>
+      <c r="B67" t="s">
+        <v>787</v>
+      </c>
+      <c r="C67" t="s">
+        <v>747</v>
+      </c>
+      <c r="D67" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>27</v>
+      </c>
+      <c r="B68" t="s">
+        <v>801</v>
+      </c>
+      <c r="C68" t="s">
+        <v>759</v>
+      </c>
+      <c r="D68" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>27</v>
+      </c>
+      <c r="B69" t="s">
+        <v>808</v>
+      </c>
+      <c r="C69" t="s">
+        <v>771</v>
+      </c>
+      <c r="D69" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>27</v>
+      </c>
+      <c r="B70" t="s">
+        <v>809</v>
+      </c>
+      <c r="C70" t="s">
+        <v>747</v>
+      </c>
+      <c r="D70" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>27</v>
+      </c>
+      <c r="B71" t="s">
+        <v>783</v>
+      </c>
+      <c r="C71" t="s">
+        <v>715</v>
+      </c>
+      <c r="D71" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>27</v>
+      </c>
+      <c r="B72" t="s">
+        <v>767</v>
+      </c>
+      <c r="C72" t="s">
+        <v>741</v>
+      </c>
+      <c r="D72" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>27</v>
+      </c>
+      <c r="B73" t="s">
+        <v>810</v>
+      </c>
+      <c r="C73" t="s">
+        <v>741</v>
+      </c>
+      <c r="D73" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>27</v>
+      </c>
+      <c r="B74" t="s">
+        <v>811</v>
+      </c>
+      <c r="C74" t="s">
+        <v>771</v>
+      </c>
+      <c r="D74" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>35</v>
+      </c>
+      <c r="B75" t="s">
+        <v>812</v>
+      </c>
+      <c r="C75" t="s">
+        <v>724</v>
+      </c>
+      <c r="D75" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>35</v>
+      </c>
+      <c r="B76" t="s">
+        <v>736</v>
+      </c>
+      <c r="C76" t="s">
+        <v>737</v>
+      </c>
+      <c r="D76" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>35</v>
+      </c>
+      <c r="B77" t="s">
+        <v>813</v>
+      </c>
+      <c r="C77" t="s">
+        <v>814</v>
+      </c>
+      <c r="D77" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>35</v>
+      </c>
+      <c r="B78" t="s">
+        <v>738</v>
+      </c>
+      <c r="C78" t="s">
+        <v>718</v>
+      </c>
+      <c r="D78" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>35</v>
+      </c>
+      <c r="B79" t="s">
+        <v>815</v>
+      </c>
+      <c r="C79" t="s">
+        <v>715</v>
+      </c>
+      <c r="D79" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>34</v>
+      </c>
+      <c r="B80" t="s">
+        <v>816</v>
+      </c>
+      <c r="C80" t="s">
+        <v>724</v>
+      </c>
+      <c r="D80" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>34</v>
+      </c>
+      <c r="B81" t="s">
+        <v>758</v>
+      </c>
+      <c r="C81" t="s">
+        <v>747</v>
+      </c>
+      <c r="D81" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>34</v>
+      </c>
+      <c r="B82" t="s">
+        <v>817</v>
+      </c>
+      <c r="C82" t="s">
+        <v>747</v>
+      </c>
+      <c r="D82" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>34</v>
+      </c>
+      <c r="B83" t="s">
+        <v>818</v>
+      </c>
+      <c r="C83" t="s">
+        <v>759</v>
+      </c>
+      <c r="D83" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>34</v>
+      </c>
+      <c r="B84" t="s">
+        <v>819</v>
+      </c>
+      <c r="C84" t="s">
+        <v>724</v>
+      </c>
+      <c r="D84" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>34</v>
+      </c>
+      <c r="B85" t="s">
+        <v>820</v>
+      </c>
+      <c r="C85" t="s">
+        <v>747</v>
+      </c>
+      <c r="D85" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>34</v>
+      </c>
+      <c r="B86" t="s">
+        <v>821</v>
+      </c>
+      <c r="C86" t="s">
+        <v>741</v>
+      </c>
+      <c r="D86" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>34</v>
+      </c>
+      <c r="B87" t="s">
+        <v>822</v>
+      </c>
+      <c r="C87" t="s">
+        <v>771</v>
+      </c>
+      <c r="D87" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>28</v>
+      </c>
+      <c r="B88" t="s">
+        <v>823</v>
+      </c>
+      <c r="C88" t="s">
+        <v>771</v>
+      </c>
+      <c r="D88" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>28</v>
+      </c>
+      <c r="B89" t="s">
+        <v>824</v>
+      </c>
+      <c r="C89" t="s">
+        <v>747</v>
+      </c>
+      <c r="D89" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>28</v>
+      </c>
+      <c r="B90" t="s">
+        <v>825</v>
+      </c>
+      <c r="C90" t="s">
+        <v>759</v>
+      </c>
+      <c r="D90" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>28</v>
+      </c>
+      <c r="B91" t="s">
+        <v>826</v>
+      </c>
+      <c r="C91" t="s">
+        <v>747</v>
+      </c>
+      <c r="D91" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>28</v>
+      </c>
+      <c r="B92" t="s">
+        <v>735</v>
+      </c>
+      <c r="C92" t="s">
+        <v>724</v>
+      </c>
+      <c r="D92" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>28</v>
+      </c>
+      <c r="B93" t="s">
+        <v>827</v>
+      </c>
+      <c r="C93" t="s">
+        <v>741</v>
+      </c>
+      <c r="D93" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>28</v>
+      </c>
+      <c r="B94" t="s">
+        <v>828</v>
+      </c>
+      <c r="C94" t="s">
+        <v>747</v>
+      </c>
+      <c r="D94" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>28</v>
+      </c>
+      <c r="B95" t="s">
+        <v>829</v>
+      </c>
+      <c r="C95" t="s">
+        <v>771</v>
+      </c>
+      <c r="D95" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>31</v>
+      </c>
+      <c r="B96" t="s">
+        <v>830</v>
+      </c>
+      <c r="C96" t="s">
+        <v>771</v>
+      </c>
+      <c r="D96" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>31</v>
+      </c>
+      <c r="B97" t="s">
+        <v>816</v>
+      </c>
+      <c r="C97" t="s">
+        <v>747</v>
+      </c>
+      <c r="D97" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>31</v>
+      </c>
+      <c r="B98" t="s">
+        <v>787</v>
+      </c>
+      <c r="C98" t="s">
+        <v>759</v>
+      </c>
+      <c r="D98" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>31</v>
+      </c>
+      <c r="B99" t="s">
+        <v>778</v>
+      </c>
+      <c r="C99" t="s">
+        <v>747</v>
+      </c>
+      <c r="D99" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>31</v>
+      </c>
+      <c r="B100" t="s">
+        <v>831</v>
+      </c>
+      <c r="C100" t="s">
+        <v>724</v>
+      </c>
+      <c r="D100" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>31</v>
+      </c>
+      <c r="B101" t="s">
+        <v>832</v>
+      </c>
+      <c r="C101" t="s">
+        <v>747</v>
+      </c>
+      <c r="D101" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>31</v>
+      </c>
+      <c r="B102" t="s">
+        <v>833</v>
+      </c>
+      <c r="C102" t="s">
+        <v>747</v>
+      </c>
+      <c r="D102" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>31</v>
+      </c>
+      <c r="B103" t="s">
+        <v>805</v>
+      </c>
+      <c r="C103" t="s">
+        <v>741</v>
+      </c>
+      <c r="D103" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>31</v>
+      </c>
+      <c r="B104" t="s">
+        <v>810</v>
+      </c>
+      <c r="C104" t="s">
+        <v>747</v>
+      </c>
+      <c r="D104" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>33</v>
+      </c>
+      <c r="B105" t="s">
+        <v>834</v>
+      </c>
+      <c r="C105" t="s">
+        <v>759</v>
+      </c>
+      <c r="D105" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>33</v>
+      </c>
+      <c r="B106" t="s">
+        <v>835</v>
+      </c>
+      <c r="C106" t="s">
+        <v>724</v>
+      </c>
+      <c r="D106" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>33</v>
+      </c>
+      <c r="B107" t="s">
+        <v>836</v>
+      </c>
+      <c r="C107" t="s">
+        <v>771</v>
+      </c>
+      <c r="D107" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>33</v>
+      </c>
+      <c r="B108" t="s">
+        <v>837</v>
+      </c>
+      <c r="C108" t="s">
+        <v>747</v>
+      </c>
+      <c r="D108" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>33</v>
+      </c>
+      <c r="B109" t="s">
+        <v>833</v>
+      </c>
+      <c r="C109" t="s">
+        <v>715</v>
+      </c>
+      <c r="D109" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>33</v>
+      </c>
+      <c r="B110" t="s">
+        <v>838</v>
+      </c>
+      <c r="C110" t="s">
+        <v>741</v>
+      </c>
+      <c r="D110" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>33</v>
+      </c>
+      <c r="B111" t="s">
+        <v>839</v>
+      </c>
+      <c r="C111" t="s">
+        <v>747</v>
+      </c>
+      <c r="D111" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>26</v>
+      </c>
+      <c r="B112" t="s">
+        <v>787</v>
+      </c>
+      <c r="C112" t="s">
+        <v>759</v>
+      </c>
+      <c r="D112" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>26</v>
+      </c>
+      <c r="B113" t="s">
+        <v>818</v>
+      </c>
+      <c r="C113" t="s">
+        <v>771</v>
+      </c>
+      <c r="D113" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>26</v>
+      </c>
+      <c r="B114" t="s">
+        <v>801</v>
+      </c>
+      <c r="C114" t="s">
+        <v>724</v>
+      </c>
+      <c r="D114" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>26</v>
+      </c>
+      <c r="B115" t="s">
+        <v>840</v>
+      </c>
+      <c r="C115" t="s">
+        <v>747</v>
+      </c>
+      <c r="D115" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>26</v>
+      </c>
+      <c r="B116" t="s">
+        <v>766</v>
+      </c>
+      <c r="C116" t="s">
+        <v>724</v>
+      </c>
+      <c r="D116" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>26</v>
+      </c>
+      <c r="B117" t="s">
+        <v>841</v>
+      </c>
+      <c r="C117" t="s">
+        <v>747</v>
+      </c>
+      <c r="D117" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>26</v>
+      </c>
+      <c r="B118" t="s">
+        <v>842</v>
+      </c>
+      <c r="C118" t="s">
+        <v>741</v>
+      </c>
+      <c r="D118" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>26</v>
+      </c>
+      <c r="B119" t="s">
+        <v>785</v>
+      </c>
+      <c r="C119" t="s">
+        <v>747</v>
+      </c>
+      <c r="D119" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>26</v>
+      </c>
+      <c r="B120" t="s">
+        <v>843</v>
+      </c>
+      <c r="C120" t="s">
+        <v>771</v>
+      </c>
+      <c r="D120" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>37</v>
+      </c>
+      <c r="B121" t="s">
+        <v>835</v>
+      </c>
+      <c r="C121" t="s">
+        <v>724</v>
+      </c>
+      <c r="D121" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>37</v>
+      </c>
+      <c r="B122" t="s">
+        <v>812</v>
+      </c>
+      <c r="C122" t="s">
+        <v>771</v>
+      </c>
+      <c r="D122" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>37</v>
+      </c>
+      <c r="B123" t="s">
+        <v>840</v>
+      </c>
+      <c r="C123" t="s">
+        <v>741</v>
+      </c>
+      <c r="D123" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>37</v>
+      </c>
+      <c r="B124" t="s">
+        <v>844</v>
+      </c>
+      <c r="C124" t="s">
+        <v>715</v>
+      </c>
+      <c r="D124" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>656</v>
+      </c>
+      <c r="B125" t="s">
+        <v>845</v>
+      </c>
+      <c r="C125" t="s">
+        <v>771</v>
+      </c>
+      <c r="D125" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>656</v>
+      </c>
+      <c r="B126" t="s">
+        <v>846</v>
+      </c>
+      <c r="C126" t="s">
+        <v>747</v>
+      </c>
+      <c r="D126" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>656</v>
+      </c>
+      <c r="B127" t="s">
+        <v>787</v>
+      </c>
+      <c r="C127" t="s">
+        <v>759</v>
+      </c>
+      <c r="D127" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>656</v>
+      </c>
+      <c r="B128" t="s">
+        <v>808</v>
+      </c>
+      <c r="C128" t="s">
+        <v>747</v>
+      </c>
+      <c r="D128" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>656</v>
+      </c>
+      <c r="B129" t="s">
+        <v>847</v>
+      </c>
+      <c r="C129" t="s">
+        <v>747</v>
+      </c>
+      <c r="D129" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>656</v>
+      </c>
+      <c r="B130" t="s">
+        <v>714</v>
+      </c>
+      <c r="C130" t="s">
+        <v>724</v>
+      </c>
+      <c r="D130" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>656</v>
+      </c>
+      <c r="B131" t="s">
+        <v>848</v>
+      </c>
+      <c r="C131" t="s">
+        <v>741</v>
+      </c>
+      <c r="D131" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>656</v>
+      </c>
+      <c r="B132" t="s">
+        <v>849</v>
+      </c>
+      <c r="C132" t="s">
+        <v>747</v>
+      </c>
+      <c r="D132" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>665</v>
+      </c>
+      <c r="B133" t="s">
+        <v>823</v>
+      </c>
+      <c r="C133" t="s">
+        <v>771</v>
+      </c>
+      <c r="D133" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>665</v>
+      </c>
+      <c r="B134" t="s">
+        <v>850</v>
+      </c>
+      <c r="C134" t="s">
+        <v>747</v>
+      </c>
+      <c r="D134" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>665</v>
+      </c>
+      <c r="B135" t="s">
+        <v>850</v>
+      </c>
+      <c r="C135" t="s">
+        <v>747</v>
+      </c>
+      <c r="D135" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>665</v>
+      </c>
+      <c r="B136" t="s">
+        <v>825</v>
+      </c>
+      <c r="C136" t="s">
+        <v>759</v>
+      </c>
+      <c r="D136" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>665</v>
+      </c>
+      <c r="B137" t="s">
+        <v>762</v>
+      </c>
+      <c r="C137" t="s">
+        <v>724</v>
+      </c>
+      <c r="D137" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>665</v>
+      </c>
+      <c r="B138" t="s">
+        <v>851</v>
+      </c>
+      <c r="C138" t="s">
+        <v>747</v>
+      </c>
+      <c r="D138" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>665</v>
+      </c>
+      <c r="B139" t="s">
+        <v>852</v>
+      </c>
+      <c r="C139" t="s">
+        <v>741</v>
+      </c>
+      <c r="D139" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>665</v>
+      </c>
+      <c r="B140" t="s">
+        <v>853</v>
+      </c>
+      <c r="C140" t="s">
+        <v>747</v>
+      </c>
+      <c r="D140" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>665</v>
+      </c>
+      <c r="B141" t="s">
+        <v>854</v>
+      </c>
+      <c r="C141" t="s">
+        <v>771</v>
+      </c>
+      <c r="D141" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>665</v>
+      </c>
+      <c r="B142" t="s">
+        <v>823</v>
+      </c>
+      <c r="C142" t="s">
+        <v>771</v>
+      </c>
+      <c r="D142" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>665</v>
+      </c>
+      <c r="B143" t="s">
+        <v>850</v>
+      </c>
+      <c r="C143" t="s">
+        <v>747</v>
+      </c>
+      <c r="D143" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>665</v>
+      </c>
+      <c r="B144" t="s">
+        <v>850</v>
+      </c>
+      <c r="C144" t="s">
+        <v>747</v>
+      </c>
+      <c r="D144" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>665</v>
+      </c>
+      <c r="B145" t="s">
+        <v>825</v>
+      </c>
+      <c r="C145" t="s">
+        <v>759</v>
+      </c>
+      <c r="D145" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>665</v>
+      </c>
+      <c r="B146" t="s">
+        <v>762</v>
+      </c>
+      <c r="C146" t="s">
+        <v>724</v>
+      </c>
+      <c r="D146" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>665</v>
+      </c>
+      <c r="B147" t="s">
+        <v>851</v>
+      </c>
+      <c r="C147" t="s">
+        <v>747</v>
+      </c>
+      <c r="D147" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>665</v>
+      </c>
+      <c r="B148" t="s">
+        <v>852</v>
+      </c>
+      <c r="C148" t="s">
+        <v>741</v>
+      </c>
+      <c r="D148" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>665</v>
+      </c>
+      <c r="B149" t="s">
+        <v>853</v>
+      </c>
+      <c r="C149" t="s">
+        <v>747</v>
+      </c>
+      <c r="D149" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>665</v>
+      </c>
+      <c r="B150" t="s">
+        <v>854</v>
+      </c>
+      <c r="C150" t="s">
+        <v>771</v>
+      </c>
+      <c r="D150" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>666</v>
+      </c>
+      <c r="B151" t="s">
+        <v>823</v>
+      </c>
+      <c r="C151" t="s">
+        <v>771</v>
+      </c>
+      <c r="D151" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>666</v>
+      </c>
+      <c r="B152" t="s">
+        <v>855</v>
+      </c>
+      <c r="C152" t="s">
+        <v>771</v>
+      </c>
+      <c r="D152" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>666</v>
+      </c>
+      <c r="B153" t="s">
+        <v>777</v>
+      </c>
+      <c r="C153" t="s">
+        <v>759</v>
+      </c>
+      <c r="D153" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>666</v>
+      </c>
+      <c r="B154" t="s">
+        <v>856</v>
+      </c>
+      <c r="C154" t="s">
+        <v>771</v>
+      </c>
+      <c r="D154" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>666</v>
+      </c>
+      <c r="B155" t="s">
+        <v>857</v>
+      </c>
+      <c r="C155" t="s">
+        <v>724</v>
+      </c>
+      <c r="D155" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>666</v>
+      </c>
+      <c r="B156" t="s">
+        <v>821</v>
+      </c>
+      <c r="C156" t="s">
+        <v>741</v>
+      </c>
+      <c r="D156" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>666</v>
+      </c>
+      <c r="B157" t="s">
+        <v>858</v>
+      </c>
+      <c r="C157" t="s">
+        <v>771</v>
+      </c>
+      <c r="D157" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>660</v>
+      </c>
+      <c r="B158" t="s">
+        <v>830</v>
+      </c>
+      <c r="C158" t="s">
+        <v>771</v>
+      </c>
+      <c r="D158" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>660</v>
+      </c>
+      <c r="B159" t="s">
+        <v>816</v>
+      </c>
+      <c r="C159" t="s">
+        <v>747</v>
+      </c>
+      <c r="D159" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>660</v>
+      </c>
+      <c r="B160" t="s">
+        <v>787</v>
+      </c>
+      <c r="C160" t="s">
+        <v>759</v>
+      </c>
+      <c r="D160" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>660</v>
+      </c>
+      <c r="B161" t="s">
+        <v>778</v>
+      </c>
+      <c r="C161" t="s">
+        <v>747</v>
+      </c>
+      <c r="D161" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>660</v>
+      </c>
+      <c r="B162" t="s">
+        <v>831</v>
+      </c>
+      <c r="C162" t="s">
+        <v>724</v>
+      </c>
+      <c r="D162" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>660</v>
+      </c>
+      <c r="B163" t="s">
+        <v>832</v>
+      </c>
+      <c r="C163" t="s">
+        <v>747</v>
+      </c>
+      <c r="D163" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>660</v>
+      </c>
+      <c r="B164" t="s">
+        <v>833</v>
+      </c>
+      <c r="C164" t="s">
+        <v>747</v>
+      </c>
+      <c r="D164" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>660</v>
+      </c>
+      <c r="B165" t="s">
+        <v>805</v>
+      </c>
+      <c r="C165" t="s">
+        <v>741</v>
+      </c>
+      <c r="D165" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>660</v>
+      </c>
+      <c r="B166" t="s">
+        <v>810</v>
+      </c>
+      <c r="C166" t="s">
+        <v>747</v>
+      </c>
+      <c r="D166" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>662</v>
+      </c>
+      <c r="B167" t="s">
+        <v>830</v>
+      </c>
+      <c r="C167" t="s">
+        <v>771</v>
+      </c>
+      <c r="D167" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>662</v>
+      </c>
+      <c r="B168" t="s">
+        <v>816</v>
+      </c>
+      <c r="C168" t="s">
+        <v>747</v>
+      </c>
+      <c r="D168" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>662</v>
+      </c>
+      <c r="B169" t="s">
+        <v>787</v>
+      </c>
+      <c r="C169" t="s">
+        <v>759</v>
+      </c>
+      <c r="D169" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>662</v>
+      </c>
+      <c r="B170" t="s">
+        <v>778</v>
+      </c>
+      <c r="C170" t="s">
+        <v>747</v>
+      </c>
+      <c r="D170" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>662</v>
+      </c>
+      <c r="B171" t="s">
+        <v>831</v>
+      </c>
+      <c r="C171" t="s">
+        <v>724</v>
+      </c>
+      <c r="D171" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>662</v>
+      </c>
+      <c r="B172" t="s">
+        <v>832</v>
+      </c>
+      <c r="C172" t="s">
+        <v>747</v>
+      </c>
+      <c r="D172" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>662</v>
+      </c>
+      <c r="B173" t="s">
+        <v>833</v>
+      </c>
+      <c r="C173" t="s">
+        <v>747</v>
+      </c>
+      <c r="D173" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>662</v>
+      </c>
+      <c r="B174" t="s">
+        <v>805</v>
+      </c>
+      <c r="C174" t="s">
+        <v>741</v>
+      </c>
+      <c r="D174" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>662</v>
+      </c>
+      <c r="B175" t="s">
+        <v>810</v>
+      </c>
+      <c r="C175" t="s">
+        <v>747</v>
+      </c>
+      <c r="D175" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>662</v>
+      </c>
+      <c r="B176" t="s">
+        <v>859</v>
+      </c>
+      <c r="C176" t="s">
+        <v>771</v>
+      </c>
+      <c r="D176" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>667</v>
+      </c>
+      <c r="B177" t="s">
+        <v>860</v>
+      </c>
+      <c r="C177" t="s">
+        <v>771</v>
+      </c>
+      <c r="D177" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>667</v>
+      </c>
+      <c r="B178" t="s">
+        <v>818</v>
+      </c>
+      <c r="C178" t="s">
+        <v>771</v>
+      </c>
+      <c r="D178" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>667</v>
+      </c>
+      <c r="B179" t="s">
+        <v>861</v>
+      </c>
+      <c r="C179" t="s">
+        <v>759</v>
+      </c>
+      <c r="D179" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>667</v>
+      </c>
+      <c r="B180" t="s">
+        <v>862</v>
+      </c>
+      <c r="C180" t="s">
+        <v>724</v>
+      </c>
+      <c r="D180" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>667</v>
+      </c>
+      <c r="B181" t="s">
+        <v>863</v>
+      </c>
+      <c r="C181" t="s">
+        <v>724</v>
+      </c>
+      <c r="D181" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>667</v>
+      </c>
+      <c r="B182" t="s">
+        <v>810</v>
+      </c>
+      <c r="C182" t="s">
+        <v>741</v>
+      </c>
+      <c r="D182" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>667</v>
+      </c>
+      <c r="B183" t="s">
+        <v>785</v>
+      </c>
+      <c r="C183" t="s">
+        <v>864</v>
+      </c>
+      <c r="D183" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>667</v>
+      </c>
+      <c r="B184" t="s">
+        <v>865</v>
+      </c>
+      <c r="C184" t="s">
+        <v>771</v>
+      </c>
+      <c r="D184" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>667</v>
+      </c>
+      <c r="B185" t="s">
+        <v>866</v>
+      </c>
+      <c r="C185" t="s">
+        <v>724</v>
+      </c>
+      <c r="D185" t="s">
+        <v>772</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -33425,350 +36105,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D38"/>
-  <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
-        <v>719</v>
-      </c>
-      <c r="B3" t="s">
-        <v>720</v>
-      </c>
-      <c r="C3" t="s">
-        <v>721</v>
-      </c>
-      <c r="D3">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
-        <v>718</v>
-      </c>
-      <c r="B4">
-        <v>0.13239999999999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
-        <v>722</v>
-      </c>
-      <c r="B5">
-        <v>7.1999999999999995E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
-        <v>723</v>
-      </c>
-      <c r="B6" t="s">
-        <v>724</v>
-      </c>
-      <c r="C6">
-        <v>0.1376</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
-        <v>725</v>
-      </c>
-      <c r="B7">
-        <v>2E-3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
-        <v>726</v>
-      </c>
-      <c r="B8" t="s">
-        <v>727</v>
-      </c>
-      <c r="C8">
-        <v>5.3199999999999997E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
-        <v>728</v>
-      </c>
-      <c r="B9" t="s">
-        <v>727</v>
-      </c>
-      <c r="C9">
-        <v>0.19750000000000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
-        <v>729</v>
-      </c>
-      <c r="B10">
-        <v>0.46100000000000002</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
-        <v>730</v>
-      </c>
-      <c r="B11">
-        <v>0.14430000000000001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
-        <v>731</v>
-      </c>
-      <c r="B12" t="s">
-        <v>732</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="8"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
-        <v>719</v>
-      </c>
-      <c r="B16" t="s">
-        <v>720</v>
-      </c>
-      <c r="C16" t="s">
-        <v>721</v>
-      </c>
-      <c r="D16">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="s">
-        <v>718</v>
-      </c>
-      <c r="B17">
-        <v>4.3395999999999999</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="9" t="s">
-        <v>722</v>
-      </c>
-      <c r="B18">
-        <v>3.6349999999999998</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="9" t="s">
-        <v>723</v>
-      </c>
-      <c r="B19" t="s">
-        <v>724</v>
-      </c>
-      <c r="C19">
-        <v>2.7888999999999999</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="9" t="s">
-        <v>725</v>
-      </c>
-      <c r="B20">
-        <v>1.29</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="9" t="s">
-        <v>726</v>
-      </c>
-      <c r="B21" t="s">
-        <v>727</v>
-      </c>
-      <c r="C21">
-        <v>2.57</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="9" t="s">
-        <v>728</v>
-      </c>
-      <c r="B22" t="s">
-        <v>727</v>
-      </c>
-      <c r="C22">
-        <v>4.8525</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="9" t="s">
-        <v>729</v>
-      </c>
-      <c r="B23">
-        <v>12.95</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="9" t="s">
-        <v>730</v>
-      </c>
-      <c r="B24">
-        <v>2.2825000000000002</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="9" t="s">
-        <v>731</v>
-      </c>
-      <c r="B25" t="s">
-        <v>732</v>
-      </c>
-      <c r="C25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="8"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="9" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="9" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="9" t="s">
-        <v>719</v>
-      </c>
-      <c r="B29" t="s">
-        <v>720</v>
-      </c>
-      <c r="C29" t="s">
-        <v>721</v>
-      </c>
-      <c r="D29">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="9" t="s">
-        <v>718</v>
-      </c>
-      <c r="B30">
-        <v>0.71260000000000001</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="9" t="s">
-        <v>722</v>
-      </c>
-      <c r="B31">
-        <v>0.75049999999999994</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="9" t="s">
-        <v>723</v>
-      </c>
-      <c r="B32" t="s">
-        <v>724</v>
-      </c>
-      <c r="C32">
-        <v>0.123</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="9" t="s">
-        <v>725</v>
-      </c>
-      <c r="B33">
-        <v>0.32300000000000001</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="9" t="s">
-        <v>726</v>
-      </c>
-      <c r="B34" t="s">
-        <v>727</v>
-      </c>
-      <c r="C34">
-        <v>0.67979999999999996</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="9" t="s">
-        <v>728</v>
-      </c>
-      <c r="B35" t="s">
-        <v>727</v>
-      </c>
-      <c r="C35">
-        <v>0.78480000000000005</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="9" t="s">
-        <v>729</v>
-      </c>
-      <c r="B36">
-        <v>0.84899999999999998</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="9" t="s">
-        <v>730</v>
-      </c>
-      <c r="B37">
-        <v>0.105</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="9" t="s">
-        <v>731</v>
-      </c>
-      <c r="B38" t="s">
-        <v>732</v>
-      </c>
-      <c r="C38">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
-</worksheet>
 </file>